--- a/TestCasesinExcell/Myhero/Myherotestdata1.xlsx
+++ b/TestCasesinExcell/Myhero/Myherotestdata1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M0137\git\repository3\MultipleBroswers\TestCasesinExcell\Myhero\"/>
     </mc:Choice>
@@ -20,7 +20,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="927" uniqueCount="215">
   <si>
     <t>Description</t>
   </si>
@@ -682,7 +682,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -777,7 +778,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="103">
+  <fills count="253">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1282,6 +1283,756 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
       </patternFill>
     </fill>
     <fill>
@@ -1306,7 +2057,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="136">
+  <cellXfs count="211">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1471,6 +2222,81 @@
     <xf numFmtId="0" fontId="0" fillId="100" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="101" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="102" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="104" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="106" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="108" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="110" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="112" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="114" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="116" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="118" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="120" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="122" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="124" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="126" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="128" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="130" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="132" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="134" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="136" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="138" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="140" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="142" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="144" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="146" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="148" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="150" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="152" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="154" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="156" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="158" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="160" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="162" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="164" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="166" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="168" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="170" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="172" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="174" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="176" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="178" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="180" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="182" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="184" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="186" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="188" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="190" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="192" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="194" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="196" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="198" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="200" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="202" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="204" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="206" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="208" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="210" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="212" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="214" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="216" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="218" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="220" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="222" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="224" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="226" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="228" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="230" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="232" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="234" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="236" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="238" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="240" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="242" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="244" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="246" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="248" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="250" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="252" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1760,14 +2586,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="83.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="75.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="30.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="21.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="16384" width="9.140625" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="26.5703125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="83.85546875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="75.140625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="30.85546875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="21.28515625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="8" max="16384" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -1806,7 +2632,7 @@
       <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="61" t="s">
+      <c r="E2" t="s" s="136">
         <v>5</v>
       </c>
     </row>
@@ -1821,7 +2647,7 @@
       <c r="D3" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="62" t="s">
+      <c r="E3" t="s" s="137">
         <v>134</v>
       </c>
     </row>
@@ -1836,7 +2662,7 @@
       <c r="D4" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="63" t="s">
+      <c r="E4" t="s" s="138">
         <v>9</v>
       </c>
     </row>
@@ -1853,7 +2679,7 @@
       <c r="D5" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="64" t="s">
+      <c r="E5" t="s" s="139">
         <v>134</v>
       </c>
     </row>
@@ -1870,7 +2696,7 @@
       <c r="D6" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="65" t="s">
+      <c r="E6" t="s" s="140">
         <v>134</v>
       </c>
     </row>
@@ -1885,7 +2711,7 @@
       <c r="D7" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="66" t="s">
+      <c r="E7" t="s" s="141">
         <v>134</v>
       </c>
     </row>
@@ -1902,7 +2728,7 @@
       <c r="D8" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="67" t="s">
+      <c r="E8" t="s" s="142">
         <v>134</v>
       </c>
     </row>
@@ -1919,7 +2745,7 @@
       <c r="D9" t="s">
         <v>132</v>
       </c>
-      <c r="E9" s="68" t="s">
+      <c r="E9" t="s" s="143">
         <v>134</v>
       </c>
     </row>
@@ -1936,7 +2762,7 @@
       <c r="D10" t="s">
         <v>135</v>
       </c>
-      <c r="E10" s="69" t="s">
+      <c r="E10" t="s" s="144">
         <v>134</v>
       </c>
     </row>
@@ -1953,7 +2779,7 @@
       <c r="D11" t="s">
         <v>136</v>
       </c>
-      <c r="E11" s="70" t="s">
+      <c r="E11" t="s" s="145">
         <v>134</v>
       </c>
     </row>
@@ -1970,7 +2796,7 @@
       <c r="D12" t="s">
         <v>137</v>
       </c>
-      <c r="E12" s="71" t="s">
+      <c r="E12" t="s" s="146">
         <v>134</v>
       </c>
     </row>
@@ -1987,7 +2813,7 @@
       <c r="D13" t="s">
         <v>138</v>
       </c>
-      <c r="E13" s="72" t="s">
+      <c r="E13" t="s" s="147">
         <v>134</v>
       </c>
     </row>
@@ -2002,7 +2828,7 @@
       <c r="D14" t="s">
         <v>6</v>
       </c>
-      <c r="E14" s="73" t="s">
+      <c r="E14" t="s" s="148">
         <v>134</v>
       </c>
     </row>
@@ -2019,7 +2845,7 @@
       <c r="D15" t="s">
         <v>6</v>
       </c>
-      <c r="E15" s="74" t="s">
+      <c r="E15" t="s" s="149">
         <v>134</v>
       </c>
     </row>
@@ -2034,7 +2860,7 @@
       <c r="D16" t="s">
         <v>6</v>
       </c>
-      <c r="E16" s="75" t="s">
+      <c r="E16" t="s" s="150">
         <v>123</v>
       </c>
     </row>
@@ -2051,7 +2877,7 @@
       <c r="D17" t="s">
         <v>6</v>
       </c>
-      <c r="E17" s="76" t="s">
+      <c r="E17" t="s" s="151">
         <v>134</v>
       </c>
     </row>
@@ -2068,7 +2894,7 @@
       <c r="D18" t="s">
         <v>6</v>
       </c>
-      <c r="E18" s="77" t="s">
+      <c r="E18" t="s" s="152">
         <v>134</v>
       </c>
     </row>
@@ -2082,7 +2908,7 @@
       <c r="D19" t="s">
         <v>6</v>
       </c>
-      <c r="E19" s="78" t="s">
+      <c r="E19" t="s" s="153">
         <v>134</v>
       </c>
     </row>
@@ -2099,7 +2925,7 @@
       <c r="D20" t="s">
         <v>6</v>
       </c>
-      <c r="E20" s="79" t="s">
+      <c r="E20" t="s" s="154">
         <v>134</v>
       </c>
     </row>
@@ -2116,7 +2942,7 @@
       <c r="D21" t="s">
         <v>6</v>
       </c>
-      <c r="E21" s="80" t="s">
+      <c r="E21" t="s" s="155">
         <v>134</v>
       </c>
     </row>
@@ -2133,7 +2959,7 @@
       <c r="D22" t="s">
         <v>6</v>
       </c>
-      <c r="E22" s="81" t="s">
+      <c r="E22" t="s" s="156">
         <v>134</v>
       </c>
     </row>
@@ -2150,7 +2976,7 @@
       <c r="D23" t="s">
         <v>6</v>
       </c>
-      <c r="E23" s="82" t="s">
+      <c r="E23" t="s" s="157">
         <v>134</v>
       </c>
     </row>
@@ -2167,7 +2993,7 @@
       <c r="D24" t="s">
         <v>6</v>
       </c>
-      <c r="E24" s="83" t="s">
+      <c r="E24" t="s" s="158">
         <v>134</v>
       </c>
     </row>
@@ -2184,7 +3010,7 @@
       <c r="D25" t="s">
         <v>6</v>
       </c>
-      <c r="E25" s="84" t="s">
+      <c r="E25" t="s" s="159">
         <v>134</v>
       </c>
     </row>
@@ -2201,7 +3027,7 @@
       <c r="D26" t="s">
         <v>6</v>
       </c>
-      <c r="E26" s="85" t="s">
+      <c r="E26" t="s" s="160">
         <v>134</v>
       </c>
     </row>
@@ -2218,7 +3044,7 @@
       <c r="D27" t="s">
         <v>6</v>
       </c>
-      <c r="E27" s="86" t="s">
+      <c r="E27" t="s" s="161">
         <v>134</v>
       </c>
     </row>
@@ -2233,7 +3059,7 @@
       <c r="D28" t="s">
         <v>6</v>
       </c>
-      <c r="E28" s="87" t="s">
+      <c r="E28" t="s" s="162">
         <v>126</v>
       </c>
     </row>
@@ -2250,7 +3076,7 @@
       <c r="D29" t="s">
         <v>133</v>
       </c>
-      <c r="E29" s="88" t="s">
+      <c r="E29" t="s" s="163">
         <v>134</v>
       </c>
     </row>
@@ -2267,7 +3093,7 @@
       <c r="D30" t="s">
         <v>6</v>
       </c>
-      <c r="E30" s="89" t="s">
+      <c r="E30" t="s" s="164">
         <v>134</v>
       </c>
     </row>
@@ -2284,7 +3110,7 @@
       <c r="D31" t="s">
         <v>6</v>
       </c>
-      <c r="E31" s="90" t="s">
+      <c r="E31" t="s" s="165">
         <v>134</v>
       </c>
     </row>
@@ -2301,7 +3127,7 @@
       <c r="D32" t="s">
         <v>6</v>
       </c>
-      <c r="E32" s="91" t="s">
+      <c r="E32" t="s" s="166">
         <v>134</v>
       </c>
     </row>
@@ -2318,7 +3144,7 @@
       <c r="D33" t="s">
         <v>6</v>
       </c>
-      <c r="E33" s="92" t="s">
+      <c r="E33" t="s" s="167">
         <v>134</v>
       </c>
     </row>
@@ -2335,7 +3161,7 @@
       <c r="D34" t="s">
         <v>6</v>
       </c>
-      <c r="E34" s="93" t="s">
+      <c r="E34" t="s" s="168">
         <v>134</v>
       </c>
     </row>
@@ -2352,7 +3178,7 @@
       <c r="D35" t="s">
         <v>6</v>
       </c>
-      <c r="E35" s="94" t="s">
+      <c r="E35" t="s" s="169">
         <v>134</v>
       </c>
     </row>
@@ -2369,7 +3195,7 @@
       <c r="D36" t="s">
         <v>6</v>
       </c>
-      <c r="E36" s="95" t="s">
+      <c r="E36" t="s" s="170">
         <v>134</v>
       </c>
     </row>
@@ -2386,7 +3212,7 @@
       <c r="D37" t="s">
         <v>6</v>
       </c>
-      <c r="E37" s="96" t="s">
+      <c r="E37" t="s" s="171">
         <v>134</v>
       </c>
     </row>
@@ -2403,7 +3229,7 @@
       <c r="D38" t="s">
         <v>6</v>
       </c>
-      <c r="E38" s="97" t="s">
+      <c r="E38" t="s" s="172">
         <v>134</v>
       </c>
     </row>
@@ -2420,7 +3246,7 @@
       <c r="D39" t="s">
         <v>6</v>
       </c>
-      <c r="E39" s="98" t="s">
+      <c r="E39" t="s" s="173">
         <v>134</v>
       </c>
     </row>
@@ -2434,7 +3260,7 @@
       <c r="D40" t="s">
         <v>6</v>
       </c>
-      <c r="E40" s="99" t="s">
+      <c r="E40" t="s" s="174">
         <v>134</v>
       </c>
     </row>
@@ -2451,7 +3277,7 @@
       <c r="D41" t="s">
         <v>6</v>
       </c>
-      <c r="E41" s="100" t="s">
+      <c r="E41" t="s" s="175">
         <v>134</v>
       </c>
     </row>
@@ -2468,7 +3294,7 @@
       <c r="D42" t="s">
         <v>6</v>
       </c>
-      <c r="E42" s="101" t="s">
+      <c r="E42" t="s" s="176">
         <v>134</v>
       </c>
     </row>
@@ -2485,7 +3311,7 @@
       <c r="D43" t="s">
         <v>6</v>
       </c>
-      <c r="E43" s="102" t="s">
+      <c r="E43" t="s" s="177">
         <v>134</v>
       </c>
     </row>
@@ -2502,7 +3328,7 @@
       <c r="D44" t="s">
         <v>6</v>
       </c>
-      <c r="E44" s="103" t="s">
+      <c r="E44" t="s" s="178">
         <v>134</v>
       </c>
     </row>
@@ -2517,7 +3343,7 @@
       <c r="D45" t="s">
         <v>6</v>
       </c>
-      <c r="E45" s="104" t="s">
+      <c r="E45" t="s" s="179">
         <v>134</v>
       </c>
     </row>
@@ -2531,7 +3357,7 @@
       <c r="D46" t="s">
         <v>6</v>
       </c>
-      <c r="E46" s="105" t="s">
+      <c r="E46" t="s" s="180">
         <v>126</v>
       </c>
     </row>
@@ -2548,7 +3374,7 @@
       <c r="D47" t="s">
         <v>131</v>
       </c>
-      <c r="E47" s="106" t="s">
+      <c r="E47" t="s" s="181">
         <v>134</v>
       </c>
     </row>
@@ -2562,7 +3388,7 @@
       <c r="D48" t="s">
         <v>6</v>
       </c>
-      <c r="E48" s="107" t="s">
+      <c r="E48" t="s" s="182">
         <v>134</v>
       </c>
     </row>
@@ -2579,7 +3405,7 @@
       <c r="D49" t="s">
         <v>6</v>
       </c>
-      <c r="E49" s="108" t="s">
+      <c r="E49" t="s" s="183">
         <v>134</v>
       </c>
     </row>
@@ -2596,7 +3422,7 @@
       <c r="D50" t="s">
         <v>6</v>
       </c>
-      <c r="E50" s="109" t="s">
+      <c r="E50" t="s" s="184">
         <v>134</v>
       </c>
     </row>
@@ -2613,7 +3439,7 @@
       <c r="D51" t="s">
         <v>6</v>
       </c>
-      <c r="E51" s="110" t="s">
+      <c r="E51" t="s" s="185">
         <v>134</v>
       </c>
     </row>
@@ -2630,7 +3456,7 @@
       <c r="D52" t="s">
         <v>6</v>
       </c>
-      <c r="E52" s="111" t="s">
+      <c r="E52" t="s" s="186">
         <v>134</v>
       </c>
     </row>
@@ -2647,7 +3473,7 @@
       <c r="D53" t="s">
         <v>6</v>
       </c>
-      <c r="E53" s="112" t="s">
+      <c r="E53" t="s" s="187">
         <v>134</v>
       </c>
     </row>
@@ -2661,7 +3487,7 @@
       <c r="D54" t="s">
         <v>6</v>
       </c>
-      <c r="E54" s="113" t="s">
+      <c r="E54" t="s" s="188">
         <v>134</v>
       </c>
     </row>
@@ -2678,7 +3504,7 @@
       <c r="D55" t="s">
         <v>6</v>
       </c>
-      <c r="E55" s="114" t="s">
+      <c r="E55" t="s" s="189">
         <v>134</v>
       </c>
     </row>
@@ -2695,7 +3521,7 @@
       <c r="D56" t="s">
         <v>6</v>
       </c>
-      <c r="E56" s="115" t="s">
+      <c r="E56" t="s" s="190">
         <v>134</v>
       </c>
     </row>
@@ -2712,7 +3538,7 @@
       <c r="D57" t="s">
         <v>6</v>
       </c>
-      <c r="E57" s="116" t="s">
+      <c r="E57" t="s" s="191">
         <v>134</v>
       </c>
     </row>
@@ -2729,7 +3555,7 @@
       <c r="D58" t="s">
         <v>6</v>
       </c>
-      <c r="E58" s="117" t="s">
+      <c r="E58" t="s" s="192">
         <v>134</v>
       </c>
     </row>
@@ -2746,7 +3572,7 @@
       <c r="D59" t="s">
         <v>6</v>
       </c>
-      <c r="E59" s="118" t="s">
+      <c r="E59" t="s" s="193">
         <v>134</v>
       </c>
     </row>
@@ -2763,7 +3589,7 @@
       <c r="D60" t="s">
         <v>184</v>
       </c>
-      <c r="E60" s="119" t="s">
+      <c r="E60" t="s" s="194">
         <v>134</v>
       </c>
     </row>
@@ -2780,7 +3606,7 @@
       <c r="D61" t="s">
         <v>6</v>
       </c>
-      <c r="E61" s="120" t="s">
+      <c r="E61" t="s" s="195">
         <v>134</v>
       </c>
     </row>
@@ -2797,7 +3623,7 @@
       <c r="D62" t="s">
         <v>6</v>
       </c>
-      <c r="E62" s="121" t="s">
+      <c r="E62" t="s" s="196">
         <v>134</v>
       </c>
     </row>
@@ -2814,7 +3640,7 @@
       <c r="D63" t="s">
         <v>6</v>
       </c>
-      <c r="E63" s="122" t="s">
+      <c r="E63" t="s" s="197">
         <v>134</v>
       </c>
     </row>
@@ -2831,7 +3657,7 @@
       <c r="D64" t="s">
         <v>6</v>
       </c>
-      <c r="E64" s="123" t="s">
+      <c r="E64" t="s" s="198">
         <v>134</v>
       </c>
     </row>
@@ -2848,7 +3674,7 @@
       <c r="D65" t="s">
         <v>6</v>
       </c>
-      <c r="E65" s="124" t="s">
+      <c r="E65" t="s" s="199">
         <v>134</v>
       </c>
     </row>
@@ -2865,7 +3691,7 @@
       <c r="D66" t="s">
         <v>6</v>
       </c>
-      <c r="E66" s="125" t="s">
+      <c r="E66" t="s" s="200">
         <v>134</v>
       </c>
     </row>
@@ -2882,7 +3708,7 @@
       <c r="D67" t="s">
         <v>6</v>
       </c>
-      <c r="E67" s="126" t="s">
+      <c r="E67" t="s" s="201">
         <v>134</v>
       </c>
     </row>
@@ -2896,7 +3722,7 @@
       <c r="D68" t="s">
         <v>6</v>
       </c>
-      <c r="E68" s="127" t="s">
+      <c r="E68" t="s" s="202">
         <v>134</v>
       </c>
     </row>
@@ -2913,7 +3739,7 @@
       <c r="D69" t="s">
         <v>6</v>
       </c>
-      <c r="E69" s="128" t="s">
+      <c r="E69" t="s" s="203">
         <v>134</v>
       </c>
     </row>
@@ -2930,7 +3756,7 @@
       <c r="D70" t="s">
         <v>210</v>
       </c>
-      <c r="E70" s="129" t="s">
+      <c r="E70" t="s" s="204">
         <v>200</v>
       </c>
     </row>
@@ -2947,7 +3773,7 @@
       <c r="D71" t="s">
         <v>211</v>
       </c>
-      <c r="E71" s="130" t="s">
+      <c r="E71" t="s" s="205">
         <v>200</v>
       </c>
     </row>
@@ -2964,7 +3790,7 @@
       <c r="D72" t="s">
         <v>212</v>
       </c>
-      <c r="E72" s="131" t="s">
+      <c r="E72" t="s" s="206">
         <v>200</v>
       </c>
     </row>
@@ -2981,7 +3807,7 @@
       <c r="D73" t="s">
         <v>213</v>
       </c>
-      <c r="E73" s="132" t="s">
+      <c r="E73" t="s" s="207">
         <v>200</v>
       </c>
     </row>
@@ -2998,7 +3824,7 @@
       <c r="D74" t="s">
         <v>213</v>
       </c>
-      <c r="E74" s="133" t="s">
+      <c r="E74" t="s" s="208">
         <v>200</v>
       </c>
     </row>
@@ -3013,7 +3839,7 @@
       <c r="D75" t="s">
         <v>6</v>
       </c>
-      <c r="E75" s="134" t="s">
+      <c r="E75" t="s" s="209">
         <v>134</v>
       </c>
     </row>
@@ -3024,7 +3850,7 @@
       <c r="D76" t="s">
         <v>6</v>
       </c>
-      <c r="E76" s="135" t="s">
+      <c r="E76" t="s" s="210">
         <v>70</v>
       </c>
     </row>
@@ -3047,12 +3873,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="16384" width="9.140625" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="24.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="35.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="8.7109375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="6" max="16384" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -3147,11 +3973,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="46.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="10" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="46.85546875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="10.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -3439,12 +4265,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="48.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="29.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="18" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="7" width="9.140625" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="48.85546875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="29.85546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="6" max="7" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">

--- a/TestCasesinExcell/Myhero/Myherotestdata1.xlsx
+++ b/TestCasesinExcell/Myhero/Myherotestdata1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M0137\git\repository3\MultipleBroswers\TestCasesinExcell\Myhero\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A98EA75C-455A-4827-9939-481E409B0DD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{023D24DA-E140-45F0-A791-23AFB0DD4048}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="927" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1315" uniqueCount="215">
   <si>
     <t>Description</t>
   </si>
@@ -630,34 +630,37 @@
     <t>dropdown document</t>
   </si>
   <si>
+    <t>dropdown document type</t>
+  </si>
+  <si>
+    <t>Wait</t>
+  </si>
+  <si>
+    <t>3000</t>
+  </si>
+  <si>
+    <t>123456780987</t>
+  </si>
+  <si>
+    <t>(//div[contains(@class,'DropdownWidget---dropdown_value')])[6]</t>
+  </si>
+  <si>
+    <t>(//div[contains(@class,'DropdownWidget---dropdown_value')])[7]</t>
+  </si>
+  <si>
+    <t>(//div[contains(@class,'DropdownWidget---dropdown_value')])[8]</t>
+  </si>
+  <si>
+    <t>(//div[contains(@class,'DropdownWidget---dropdown_value')])[9]</t>
+  </si>
+  <si>
+    <t>(//div[contains(@class,'DropdownWidget---dropdown_value')])[10]</t>
+  </si>
+  <si>
+    <t>(//input[contains(@class,'TextInput---text TextInput')])[6]</t>
+  </si>
+  <si>
     <t>FAIL</t>
-  </si>
-  <si>
-    <t>dropdown document type</t>
-  </si>
-  <si>
-    <t>Wait</t>
-  </si>
-  <si>
-    <t>3000</t>
-  </si>
-  <si>
-    <t>123456780987</t>
-  </si>
-  <si>
-    <t>(//div[contains(@class,'DropdownWidget---dropdown_value')])[6]</t>
-  </si>
-  <si>
-    <t>(//div[contains(@class,'DropdownWidget---dropdown_value')])[7]</t>
-  </si>
-  <si>
-    <t>(//div[contains(@class,'DropdownWidget---dropdown_value')])[8]</t>
-  </si>
-  <si>
-    <t>(//div[contains(@class,'DropdownWidget---dropdown_value')])[9]</t>
-  </si>
-  <si>
-    <t>(//div[contains(@class,'DropdownWidget---dropdown_value')])[10]</t>
   </si>
   <si>
     <t>India
@@ -673,9 +676,6 @@
   </si>
   <si>
     <t/>
-  </si>
-  <si>
-    <t>(//input[contains(@class,'TextInput---text TextInput')])[6]</t>
   </si>
 </sst>
 </file>
@@ -778,7 +778,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="253">
+  <fills count="378">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1166,97 +1166,687 @@
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
         <fgColor indexed="10"/>
       </patternFill>
     </fill>
@@ -1266,7 +1856,7 @@
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="solid">
+      <patternFill>
         <fgColor indexed="10"/>
       </patternFill>
     </fill>
@@ -1276,13 +1866,48 @@
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="solid">
+      <patternFill>
         <fgColor indexed="10"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="42"/>
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
       </patternFill>
     </fill>
     <fill>
@@ -2057,7 +2682,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="211">
+  <cellXfs count="261">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2197,106 +2822,156 @@
     <xf numFmtId="0" fontId="0" fillId="75" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="76" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="77" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="78" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="79" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="80" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="81" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="82" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="83" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="84" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="85" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="86" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="87" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="88" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="89" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="90" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="91" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="92" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="93" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="94" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="95" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="96" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="97" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="98" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="99" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="100" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="101" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="102" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="104" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="106" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="108" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="110" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="112" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="114" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="116" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="118" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="120" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="122" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="124" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="126" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="128" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="130" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="132" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="134" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="136" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="138" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="140" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="142" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="144" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="146" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="148" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="150" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="152" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="154" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="156" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="158" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="160" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="162" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="164" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="166" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="168" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="170" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="172" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="174" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="176" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="178" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="180" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="182" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="184" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="186" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="188" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="190" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="192" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="194" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="196" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="198" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="200" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="202" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="204" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="206" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="208" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="210" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="212" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="214" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="216" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="218" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="220" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="222" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="224" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="226" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="228" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="230" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="232" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="234" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="236" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="238" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="240" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="242" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="244" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="246" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="248" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="250" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="252" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="79" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="81" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="83" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="85" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="87" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="89" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="91" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="93" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="95" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="97" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="99" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="101" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="103" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="105" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="107" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="109" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="111" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="113" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="115" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="117" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="119" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="121" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="123" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="125" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="127" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="129" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="131" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="133" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="135" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="137" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="139" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="141" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="143" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="145" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="147" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="149" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="151" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="153" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="155" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="157" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="159" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="161" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="163" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="165" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="167" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="169" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="171" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="173" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="175" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="177" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="179" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="181" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="183" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="185" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="187" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="189" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="191" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="193" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="195" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="197" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="199" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="201" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="203" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="205" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="207" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="209" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="211" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="213" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="215" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="217" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="219" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="221" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="223" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="225" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="227" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="229" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="231" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="233" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="235" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="237" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="239" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="241" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="243" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="245" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="247" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="249" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="251" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="253" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="255" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="257" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="259" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="261" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="263" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="265" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="267" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="269" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="271" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="273" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="275" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="277" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="279" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="281" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="283" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="285" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="287" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="289" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="291" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="293" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="295" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="297" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="299" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="301" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="303" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="305" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="307" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="309" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="311" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="313" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="315" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="317" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="319" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="321" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="323" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="325" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="327" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="329" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="331" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="333" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="335" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="337" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="339" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="341" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="343" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="345" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="347" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="349" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="351" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="353" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="355" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="357" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="359" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="361" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="363" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="365" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="367" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="369" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="371" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="373" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="375" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="377" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2580,8 +3255,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="B74" sqref="B74"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2632,7 +3307,7 @@
       <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" t="s" s="136">
+      <c r="E2" t="s" s="186">
         <v>5</v>
       </c>
     </row>
@@ -2647,7 +3322,7 @@
       <c r="D3" t="s">
         <v>6</v>
       </c>
-      <c r="E3" t="s" s="137">
+      <c r="E3" t="s" s="187">
         <v>134</v>
       </c>
     </row>
@@ -2662,7 +3337,7 @@
       <c r="D4" t="s">
         <v>6</v>
       </c>
-      <c r="E4" t="s" s="138">
+      <c r="E4" t="s" s="188">
         <v>9</v>
       </c>
     </row>
@@ -2679,7 +3354,7 @@
       <c r="D5" t="s">
         <v>6</v>
       </c>
-      <c r="E5" t="s" s="139">
+      <c r="E5" t="s" s="189">
         <v>134</v>
       </c>
     </row>
@@ -2696,7 +3371,7 @@
       <c r="D6" t="s">
         <v>6</v>
       </c>
-      <c r="E6" t="s" s="140">
+      <c r="E6" t="s" s="190">
         <v>134</v>
       </c>
     </row>
@@ -2711,7 +3386,7 @@
       <c r="D7" t="s">
         <v>6</v>
       </c>
-      <c r="E7" t="s" s="141">
+      <c r="E7" t="s" s="191">
         <v>134</v>
       </c>
     </row>
@@ -2728,7 +3403,7 @@
       <c r="D8" t="s">
         <v>6</v>
       </c>
-      <c r="E8" t="s" s="142">
+      <c r="E8" t="s" s="192">
         <v>134</v>
       </c>
     </row>
@@ -2745,7 +3420,7 @@
       <c r="D9" t="s">
         <v>132</v>
       </c>
-      <c r="E9" t="s" s="143">
+      <c r="E9" t="s" s="193">
         <v>134</v>
       </c>
     </row>
@@ -2762,7 +3437,7 @@
       <c r="D10" t="s">
         <v>135</v>
       </c>
-      <c r="E10" t="s" s="144">
+      <c r="E10" t="s" s="194">
         <v>134</v>
       </c>
     </row>
@@ -2779,7 +3454,7 @@
       <c r="D11" t="s">
         <v>136</v>
       </c>
-      <c r="E11" t="s" s="145">
+      <c r="E11" t="s" s="195">
         <v>134</v>
       </c>
     </row>
@@ -2796,7 +3471,7 @@
       <c r="D12" t="s">
         <v>137</v>
       </c>
-      <c r="E12" t="s" s="146">
+      <c r="E12" t="s" s="196">
         <v>134</v>
       </c>
     </row>
@@ -2813,7 +3488,7 @@
       <c r="D13" t="s">
         <v>138</v>
       </c>
-      <c r="E13" t="s" s="147">
+      <c r="E13" t="s" s="197">
         <v>134</v>
       </c>
     </row>
@@ -2828,7 +3503,7 @@
       <c r="D14" t="s">
         <v>6</v>
       </c>
-      <c r="E14" t="s" s="148">
+      <c r="E14" t="s" s="198">
         <v>134</v>
       </c>
     </row>
@@ -2845,7 +3520,7 @@
       <c r="D15" t="s">
         <v>6</v>
       </c>
-      <c r="E15" t="s" s="149">
+      <c r="E15" t="s" s="199">
         <v>134</v>
       </c>
     </row>
@@ -2860,7 +3535,7 @@
       <c r="D16" t="s">
         <v>6</v>
       </c>
-      <c r="E16" t="s" s="150">
+      <c r="E16" t="s" s="200">
         <v>123</v>
       </c>
     </row>
@@ -2877,7 +3552,7 @@
       <c r="D17" t="s">
         <v>6</v>
       </c>
-      <c r="E17" t="s" s="151">
+      <c r="E17" t="s" s="201">
         <v>134</v>
       </c>
     </row>
@@ -2894,7 +3569,7 @@
       <c r="D18" t="s">
         <v>6</v>
       </c>
-      <c r="E18" t="s" s="152">
+      <c r="E18" t="s" s="202">
         <v>134</v>
       </c>
     </row>
@@ -2908,7 +3583,7 @@
       <c r="D19" t="s">
         <v>6</v>
       </c>
-      <c r="E19" t="s" s="153">
+      <c r="E19" t="s" s="203">
         <v>134</v>
       </c>
     </row>
@@ -2925,7 +3600,7 @@
       <c r="D20" t="s">
         <v>6</v>
       </c>
-      <c r="E20" t="s" s="154">
+      <c r="E20" t="s" s="204">
         <v>134</v>
       </c>
     </row>
@@ -2942,7 +3617,7 @@
       <c r="D21" t="s">
         <v>6</v>
       </c>
-      <c r="E21" t="s" s="155">
+      <c r="E21" t="s" s="205">
         <v>134</v>
       </c>
     </row>
@@ -2959,7 +3634,7 @@
       <c r="D22" t="s">
         <v>6</v>
       </c>
-      <c r="E22" t="s" s="156">
+      <c r="E22" t="s" s="206">
         <v>134</v>
       </c>
     </row>
@@ -2976,7 +3651,7 @@
       <c r="D23" t="s">
         <v>6</v>
       </c>
-      <c r="E23" t="s" s="157">
+      <c r="E23" t="s" s="207">
         <v>134</v>
       </c>
     </row>
@@ -2993,7 +3668,7 @@
       <c r="D24" t="s">
         <v>6</v>
       </c>
-      <c r="E24" t="s" s="158">
+      <c r="E24" t="s" s="208">
         <v>134</v>
       </c>
     </row>
@@ -3010,7 +3685,7 @@
       <c r="D25" t="s">
         <v>6</v>
       </c>
-      <c r="E25" t="s" s="159">
+      <c r="E25" t="s" s="209">
         <v>134</v>
       </c>
     </row>
@@ -3027,7 +3702,7 @@
       <c r="D26" t="s">
         <v>6</v>
       </c>
-      <c r="E26" t="s" s="160">
+      <c r="E26" t="s" s="210">
         <v>134</v>
       </c>
     </row>
@@ -3044,7 +3719,7 @@
       <c r="D27" t="s">
         <v>6</v>
       </c>
-      <c r="E27" t="s" s="161">
+      <c r="E27" t="s" s="211">
         <v>134</v>
       </c>
     </row>
@@ -3059,7 +3734,7 @@
       <c r="D28" t="s">
         <v>6</v>
       </c>
-      <c r="E28" t="s" s="162">
+      <c r="E28" t="s" s="212">
         <v>126</v>
       </c>
     </row>
@@ -3076,7 +3751,7 @@
       <c r="D29" t="s">
         <v>133</v>
       </c>
-      <c r="E29" t="s" s="163">
+      <c r="E29" t="s" s="213">
         <v>134</v>
       </c>
     </row>
@@ -3093,7 +3768,7 @@
       <c r="D30" t="s">
         <v>6</v>
       </c>
-      <c r="E30" t="s" s="164">
+      <c r="E30" t="s" s="214">
         <v>134</v>
       </c>
     </row>
@@ -3110,7 +3785,7 @@
       <c r="D31" t="s">
         <v>6</v>
       </c>
-      <c r="E31" t="s" s="165">
+      <c r="E31" t="s" s="215">
         <v>134</v>
       </c>
     </row>
@@ -3127,7 +3802,7 @@
       <c r="D32" t="s">
         <v>6</v>
       </c>
-      <c r="E32" t="s" s="166">
+      <c r="E32" t="s" s="216">
         <v>134</v>
       </c>
     </row>
@@ -3144,7 +3819,7 @@
       <c r="D33" t="s">
         <v>6</v>
       </c>
-      <c r="E33" t="s" s="167">
+      <c r="E33" t="s" s="217">
         <v>134</v>
       </c>
     </row>
@@ -3161,7 +3836,7 @@
       <c r="D34" t="s">
         <v>6</v>
       </c>
-      <c r="E34" t="s" s="168">
+      <c r="E34" t="s" s="218">
         <v>134</v>
       </c>
     </row>
@@ -3178,7 +3853,7 @@
       <c r="D35" t="s">
         <v>6</v>
       </c>
-      <c r="E35" t="s" s="169">
+      <c r="E35" t="s" s="219">
         <v>134</v>
       </c>
     </row>
@@ -3195,7 +3870,7 @@
       <c r="D36" t="s">
         <v>6</v>
       </c>
-      <c r="E36" t="s" s="170">
+      <c r="E36" t="s" s="220">
         <v>134</v>
       </c>
     </row>
@@ -3212,7 +3887,7 @@
       <c r="D37" t="s">
         <v>6</v>
       </c>
-      <c r="E37" t="s" s="171">
+      <c r="E37" t="s" s="221">
         <v>134</v>
       </c>
     </row>
@@ -3229,7 +3904,7 @@
       <c r="D38" t="s">
         <v>6</v>
       </c>
-      <c r="E38" t="s" s="172">
+      <c r="E38" t="s" s="222">
         <v>134</v>
       </c>
     </row>
@@ -3246,7 +3921,7 @@
       <c r="D39" t="s">
         <v>6</v>
       </c>
-      <c r="E39" t="s" s="173">
+      <c r="E39" t="s" s="223">
         <v>134</v>
       </c>
     </row>
@@ -3260,7 +3935,7 @@
       <c r="D40" t="s">
         <v>6</v>
       </c>
-      <c r="E40" t="s" s="174">
+      <c r="E40" t="s" s="224">
         <v>134</v>
       </c>
     </row>
@@ -3277,7 +3952,7 @@
       <c r="D41" t="s">
         <v>6</v>
       </c>
-      <c r="E41" t="s" s="175">
+      <c r="E41" t="s" s="225">
         <v>134</v>
       </c>
     </row>
@@ -3294,7 +3969,7 @@
       <c r="D42" t="s">
         <v>6</v>
       </c>
-      <c r="E42" t="s" s="176">
+      <c r="E42" t="s" s="226">
         <v>134</v>
       </c>
     </row>
@@ -3311,7 +3986,7 @@
       <c r="D43" t="s">
         <v>6</v>
       </c>
-      <c r="E43" t="s" s="177">
+      <c r="E43" t="s" s="227">
         <v>134</v>
       </c>
     </row>
@@ -3328,7 +4003,7 @@
       <c r="D44" t="s">
         <v>6</v>
       </c>
-      <c r="E44" t="s" s="178">
+      <c r="E44" t="s" s="228">
         <v>134</v>
       </c>
     </row>
@@ -3343,7 +4018,7 @@
       <c r="D45" t="s">
         <v>6</v>
       </c>
-      <c r="E45" t="s" s="179">
+      <c r="E45" t="s" s="229">
         <v>134</v>
       </c>
     </row>
@@ -3357,7 +4032,7 @@
       <c r="D46" t="s">
         <v>6</v>
       </c>
-      <c r="E46" t="s" s="180">
+      <c r="E46" t="s" s="230">
         <v>126</v>
       </c>
     </row>
@@ -3374,7 +4049,7 @@
       <c r="D47" t="s">
         <v>131</v>
       </c>
-      <c r="E47" t="s" s="181">
+      <c r="E47" t="s" s="231">
         <v>134</v>
       </c>
     </row>
@@ -3388,7 +4063,7 @@
       <c r="D48" t="s">
         <v>6</v>
       </c>
-      <c r="E48" t="s" s="182">
+      <c r="E48" t="s" s="232">
         <v>134</v>
       </c>
     </row>
@@ -3405,7 +4080,7 @@
       <c r="D49" t="s">
         <v>6</v>
       </c>
-      <c r="E49" t="s" s="183">
+      <c r="E49" t="s" s="233">
         <v>134</v>
       </c>
     </row>
@@ -3422,7 +4097,7 @@
       <c r="D50" t="s">
         <v>6</v>
       </c>
-      <c r="E50" t="s" s="184">
+      <c r="E50" t="s" s="234">
         <v>134</v>
       </c>
     </row>
@@ -3439,7 +4114,7 @@
       <c r="D51" t="s">
         <v>6</v>
       </c>
-      <c r="E51" t="s" s="185">
+      <c r="E51" t="s" s="235">
         <v>134</v>
       </c>
     </row>
@@ -3456,7 +4131,7 @@
       <c r="D52" t="s">
         <v>6</v>
       </c>
-      <c r="E52" t="s" s="186">
+      <c r="E52" t="s" s="236">
         <v>134</v>
       </c>
     </row>
@@ -3473,7 +4148,7 @@
       <c r="D53" t="s">
         <v>6</v>
       </c>
-      <c r="E53" t="s" s="187">
+      <c r="E53" t="s" s="237">
         <v>134</v>
       </c>
     </row>
@@ -3487,7 +4162,7 @@
       <c r="D54" t="s">
         <v>6</v>
       </c>
-      <c r="E54" t="s" s="188">
+      <c r="E54" t="s" s="238">
         <v>134</v>
       </c>
     </row>
@@ -3504,13 +4179,13 @@
       <c r="D55" t="s">
         <v>6</v>
       </c>
-      <c r="E55" t="s" s="189">
+      <c r="E55" t="s" s="239">
         <v>134</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B56" t="s">
         <v>74</v>
@@ -3521,7 +4196,7 @@
       <c r="D56" t="s">
         <v>6</v>
       </c>
-      <c r="E56" t="s" s="190">
+      <c r="E56" t="s" s="240">
         <v>134</v>
       </c>
     </row>
@@ -3538,7 +4213,7 @@
       <c r="D57" t="s">
         <v>6</v>
       </c>
-      <c r="E57" t="s" s="191">
+      <c r="E57" t="s" s="241">
         <v>134</v>
       </c>
     </row>
@@ -3555,7 +4230,7 @@
       <c r="D58" t="s">
         <v>6</v>
       </c>
-      <c r="E58" t="s" s="192">
+      <c r="E58" t="s" s="242">
         <v>134</v>
       </c>
     </row>
@@ -3567,12 +4242,12 @@
         <v>161</v>
       </c>
       <c r="C59" s="19" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D59" t="s">
         <v>6</v>
       </c>
-      <c r="E59" t="s" s="193">
+      <c r="E59" t="s" s="243">
         <v>134</v>
       </c>
     </row>
@@ -3589,7 +4264,7 @@
       <c r="D60" t="s">
         <v>184</v>
       </c>
-      <c r="E60" t="s" s="194">
+      <c r="E60" t="s" s="244">
         <v>134</v>
       </c>
     </row>
@@ -3606,24 +4281,24 @@
       <c r="D61" t="s">
         <v>6</v>
       </c>
-      <c r="E61" t="s" s="195">
+      <c r="E61" t="s" s="245">
         <v>134</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B62" t="s">
         <v>13</v>
       </c>
       <c r="C62" s="12" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D62" t="s">
         <v>6</v>
       </c>
-      <c r="E62" t="s" s="196">
+      <c r="E62" t="s" s="246">
         <v>134</v>
       </c>
     </row>
@@ -3632,7 +4307,7 @@
         <v>177</v>
       </c>
       <c r="B63" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C63" s="59" t="s">
         <v>186</v>
@@ -3640,24 +4315,24 @@
       <c r="D63" t="s">
         <v>6</v>
       </c>
-      <c r="E63" t="s" s="197">
+      <c r="E63" t="s" s="247">
         <v>134</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B64" t="s">
         <v>13</v>
       </c>
       <c r="C64" s="12" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D64" t="s">
         <v>6</v>
       </c>
-      <c r="E64" t="s" s="198">
+      <c r="E64" t="s" s="248">
         <v>134</v>
       </c>
     </row>
@@ -3666,7 +4341,7 @@
         <v>178</v>
       </c>
       <c r="B65" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C65" s="59" t="s">
         <v>187</v>
@@ -3674,7 +4349,7 @@
       <c r="D65" t="s">
         <v>6</v>
       </c>
-      <c r="E65" t="s" s="199">
+      <c r="E65" t="s" s="249">
         <v>134</v>
       </c>
     </row>
@@ -3691,7 +4366,7 @@
       <c r="D66" t="s">
         <v>6</v>
       </c>
-      <c r="E66" t="s" s="200">
+      <c r="E66" t="s" s="250">
         <v>134</v>
       </c>
     </row>
@@ -3708,11 +4383,11 @@
       <c r="D67" t="s">
         <v>6</v>
       </c>
-      <c r="E67" t="s" s="201">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E67" t="s" s="251">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>159</v>
       </c>
@@ -3722,13 +4397,13 @@
       <c r="D68" t="s">
         <v>6</v>
       </c>
-      <c r="E68" t="s" s="202">
+      <c r="E68" t="s" s="252">
         <v>134</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B69" t="s">
         <v>13</v>
@@ -3739,7 +4414,7 @@
       <c r="D69" t="s">
         <v>6</v>
       </c>
-      <c r="E69" t="s" s="203">
+      <c r="E69" t="s" s="253">
         <v>134</v>
       </c>
     </row>
@@ -3748,16 +4423,16 @@
         <v>179</v>
       </c>
       <c r="B70" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C70" t="s">
         <v>185</v>
       </c>
       <c r="D70" t="s">
+        <v>211</v>
+      </c>
+      <c r="E70" t="s" s="254">
         <v>210</v>
-      </c>
-      <c r="E70" t="s" s="204">
-        <v>200</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
@@ -3765,16 +4440,16 @@
         <v>180</v>
       </c>
       <c r="B71" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C71" s="59" t="s">
         <v>186</v>
       </c>
       <c r="D71" t="s">
-        <v>211</v>
-      </c>
-      <c r="E71" t="s" s="205">
-        <v>200</v>
+        <v>212</v>
+      </c>
+      <c r="E71" t="s" s="255">
+        <v>210</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
@@ -3782,16 +4457,16 @@
         <v>181</v>
       </c>
       <c r="B72" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C72" s="59" t="s">
         <v>187</v>
       </c>
       <c r="D72" t="s">
-        <v>212</v>
-      </c>
-      <c r="E72" t="s" s="206">
-        <v>200</v>
+        <v>213</v>
+      </c>
+      <c r="E72" t="s" s="256">
+        <v>210</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
@@ -3805,10 +4480,10 @@
         <v>188</v>
       </c>
       <c r="D73" t="s">
-        <v>213</v>
-      </c>
-      <c r="E73" t="s" s="207">
-        <v>200</v>
+        <v>214</v>
+      </c>
+      <c r="E73" t="s" s="257">
+        <v>210</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
@@ -3816,16 +4491,16 @@
         <v>183</v>
       </c>
       <c r="B74" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="C74" s="12" t="s">
         <v>189</v>
       </c>
       <c r="D74" t="s">
-        <v>213</v>
-      </c>
-      <c r="E74" t="s" s="208">
-        <v>200</v>
+        <v>214</v>
+      </c>
+      <c r="E74" t="s" s="258">
+        <v>210</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
@@ -3839,7 +4514,7 @@
       <c r="D75" t="s">
         <v>6</v>
       </c>
-      <c r="E75" t="s" s="209">
+      <c r="E75" t="s" s="259">
         <v>134</v>
       </c>
     </row>
@@ -3850,7 +4525,7 @@
       <c r="D76" t="s">
         <v>6</v>
       </c>
-      <c r="E76" t="s" s="210">
+      <c r="E76" t="s" s="260">
         <v>70</v>
       </c>
     </row>

--- a/TestCasesinExcell/Myhero/Myherotestdata1.xlsx
+++ b/TestCasesinExcell/Myhero/Myherotestdata1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M0137\git\repository3\MultipleBroswers\TestCasesinExcell\Myhero\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{023D24DA-E140-45F0-A791-23AFB0DD4048}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8551D4A5-F42E-4B7A-BC1E-F28D95BF1545}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GeneralInsurance" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1315" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="213">
   <si>
     <t>Description</t>
   </si>
@@ -441,241 +441,232 @@
     <t>MY TASKS</t>
   </si>
   <si>
+    <t>Click on add new row</t>
+  </si>
+  <si>
+    <t>//a[text()='Add new row']</t>
+  </si>
+  <si>
+    <t>//button[contains(@class,'Button---btn Button---default_direction Button---secondary')]</t>
+  </si>
+  <si>
+    <t>National Id</t>
+  </si>
+  <si>
+    <t>PAN Card</t>
+  </si>
+  <si>
+    <t>Enter document number</t>
+  </si>
+  <si>
+    <t>DZCPP6789U</t>
+  </si>
+  <si>
+    <t>My Cases</t>
+  </si>
+  <si>
+    <t>MY Tasks</t>
+  </si>
+  <si>
+    <t>Reports</t>
+  </si>
+  <si>
+    <t>Actions</t>
+  </si>
+  <si>
+    <t>Mobile</t>
+  </si>
+  <si>
+    <t>Scenario 001</t>
+  </si>
+  <si>
+    <t>Verify that enter valid mobile number</t>
+  </si>
+  <si>
+    <t>apk</t>
+  </si>
+  <si>
+    <t>Take myhero apk</t>
+  </si>
+  <si>
+    <t>Validate Address Details</t>
+  </si>
+  <si>
+    <t>//div[text()='Address Details']</t>
+  </si>
+  <si>
+    <t>Enter House number</t>
+  </si>
+  <si>
+    <t>Enter Pin code</t>
+  </si>
+  <si>
+    <t>Click on Yes</t>
+  </si>
+  <si>
+    <t>(//input[contains(@class,'TextInput---text TextInput')])[1]</t>
+  </si>
+  <si>
+    <t>(//input[contains(@class,'TextInput---text TextInput')])[2]</t>
+  </si>
+  <si>
+    <t>(//input[contains(@class,'TextInput---text TextInput')])[3]</t>
+  </si>
+  <si>
+    <t>(//input[contains(@class,'TextInput---text TextInput')])[4]</t>
+  </si>
+  <si>
+    <t>(//input[contains(@class,'TextInput---text TextInput')])[5]</t>
+  </si>
+  <si>
+    <t>//label[text()='Yes']</t>
+  </si>
+  <si>
+    <t>dropdown lob</t>
+  </si>
+  <si>
+    <t>dropdown Product Category</t>
+  </si>
+  <si>
+    <t>dropdown Product</t>
+  </si>
+  <si>
+    <t>dropdown Client Code</t>
+  </si>
+  <si>
+    <t>dropdown Sub Product</t>
+  </si>
+  <si>
+    <t>dropdown gender</t>
+  </si>
+  <si>
+    <t>dropdown Caste</t>
+  </si>
+  <si>
+    <t>dropdown religion</t>
+  </si>
+  <si>
+    <t>dropdown qualification</t>
+  </si>
+  <si>
+    <t>dropdown document name</t>
+  </si>
+  <si>
+    <t>dropdown country</t>
+  </si>
+  <si>
+    <t>dropdown State</t>
+  </si>
+  <si>
+    <t>dropdown City</t>
+  </si>
+  <si>
+    <t>Validate country</t>
+  </si>
+  <si>
+    <t>Validate State</t>
+  </si>
+  <si>
+    <t>Validate City</t>
+  </si>
+  <si>
+    <t>Validate House number</t>
+  </si>
+  <si>
+    <t>Validate Pin code</t>
+  </si>
+  <si>
+    <t>Address Details</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Andhra Pradesh</t>
+  </si>
+  <si>
+    <t>AMARAVATHI</t>
+  </si>
+  <si>
+    <t>1-118</t>
+  </si>
+  <si>
+    <t>533293</t>
+  </si>
+  <si>
+    <t>Chrome Result</t>
+  </si>
+  <si>
+    <t>Firefox Result</t>
+  </si>
+  <si>
+    <t>Edge Result</t>
+  </si>
+  <si>
+    <t>upload pancard</t>
+  </si>
+  <si>
+    <t>upload Aaadhar front</t>
+  </si>
+  <si>
+    <t>Address Proof</t>
+  </si>
+  <si>
+    <t>Aadhar Front</t>
+  </si>
+  <si>
+    <t>C:\Users\M0137\git\repository3\MultipleBroswers\documents\aadhar card.jpg</t>
+  </si>
+  <si>
+    <t>C:\Users\M0137\git\repository3\MultipleBroswers\documents\pan.jpg</t>
+  </si>
+  <si>
+    <t>dropdown document type</t>
+  </si>
+  <si>
+    <t>Wait</t>
+  </si>
+  <si>
+    <t>3000</t>
+  </si>
+  <si>
+    <t>123456780987</t>
+  </si>
+  <si>
+    <t>(//div[contains(@class,'DropdownWidget---dropdown_value')])[6]</t>
+  </si>
+  <si>
+    <t>(//div[contains(@class,'DropdownWidget---dropdown_value')])[7]</t>
+  </si>
+  <si>
+    <t>(//div[contains(@class,'DropdownWidget---dropdown_value')])[8]</t>
+  </si>
+  <si>
+    <t>(//div[contains(@class,'DropdownWidget---dropdown_value')])[9]</t>
+  </si>
+  <si>
+    <t>(//div[contains(@class,'DropdownWidget---dropdown_value')])[10]</t>
+  </si>
+  <si>
+    <t>(//input[contains(@class,'TextInput---text TextInput')])[6]</t>
+  </si>
+  <si>
+    <t>My Case</t>
+  </si>
+  <si>
+    <t>MY Task</t>
+  </si>
+  <si>
     <t>REPORTS</t>
   </si>
   <si>
     <t>ACTIONS</t>
   </si>
   <si>
-    <t>Click on add new row</t>
-  </si>
-  <si>
-    <t>//a[text()='Add new row']</t>
-  </si>
-  <si>
-    <t>//button[contains(@class,'Button---btn Button---default_direction Button---secondary')]</t>
-  </si>
-  <si>
-    <t>National Id</t>
-  </si>
-  <si>
-    <t>PAN Card</t>
-  </si>
-  <si>
-    <t>Enter document number</t>
-  </si>
-  <si>
-    <t>DZCPP6789U</t>
-  </si>
-  <si>
-    <t>My Cases</t>
-  </si>
-  <si>
-    <t>MY Tasks</t>
-  </si>
-  <si>
-    <t>Reports</t>
-  </si>
-  <si>
-    <t>Actions</t>
-  </si>
-  <si>
-    <t>Mobile</t>
-  </si>
-  <si>
-    <t>Scenario 001</t>
-  </si>
-  <si>
-    <t>Verify that enter valid mobile number</t>
-  </si>
-  <si>
-    <t>apk</t>
-  </si>
-  <si>
-    <t>Take myhero apk</t>
-  </si>
-  <si>
-    <t>Validate Address Details</t>
-  </si>
-  <si>
-    <t>//div[text()='Address Details']</t>
-  </si>
-  <si>
-    <t>Enter House number</t>
-  </si>
-  <si>
-    <t>Enter Pin code</t>
-  </si>
-  <si>
-    <t>Click on Yes</t>
-  </si>
-  <si>
-    <t>(//input[contains(@class,'TextInput---text TextInput')])[1]</t>
-  </si>
-  <si>
-    <t>(//input[contains(@class,'TextInput---text TextInput')])[2]</t>
-  </si>
-  <si>
-    <t>(//input[contains(@class,'TextInput---text TextInput')])[3]</t>
-  </si>
-  <si>
-    <t>(//input[contains(@class,'TextInput---text TextInput')])[4]</t>
-  </si>
-  <si>
-    <t>(//input[contains(@class,'TextInput---text TextInput')])[5]</t>
-  </si>
-  <si>
-    <t>//label[text()='Yes']</t>
-  </si>
-  <si>
-    <t>dropdown lob</t>
-  </si>
-  <si>
-    <t>dropdown Product Category</t>
-  </si>
-  <si>
-    <t>dropdown Product</t>
-  </si>
-  <si>
-    <t>dropdown Client Code</t>
-  </si>
-  <si>
-    <t>dropdown Sub Product</t>
-  </si>
-  <si>
-    <t>dropdown gender</t>
-  </si>
-  <si>
-    <t>dropdown Caste</t>
-  </si>
-  <si>
-    <t>dropdown religion</t>
-  </si>
-  <si>
-    <t>dropdown qualification</t>
-  </si>
-  <si>
-    <t>dropdown document name</t>
-  </si>
-  <si>
-    <t>dropdown country</t>
-  </si>
-  <si>
-    <t>dropdown State</t>
-  </si>
-  <si>
-    <t>dropdown City</t>
-  </si>
-  <si>
-    <t>Validate country</t>
-  </si>
-  <si>
-    <t>Validate State</t>
-  </si>
-  <si>
-    <t>Validate City</t>
-  </si>
-  <si>
-    <t>Validate House number</t>
-  </si>
-  <si>
-    <t>Validate Pin code</t>
-  </si>
-  <si>
-    <t>Address Details</t>
-  </si>
-  <si>
-    <t>India</t>
-  </si>
-  <si>
-    <t>Andhra Pradesh</t>
-  </si>
-  <si>
-    <t>AMARAVATHI</t>
-  </si>
-  <si>
-    <t>1-118</t>
-  </si>
-  <si>
-    <t>533293</t>
-  </si>
-  <si>
-    <t>Chrome Result</t>
-  </si>
-  <si>
-    <t>Firefox Result</t>
-  </si>
-  <si>
-    <t>Edge Result</t>
-  </si>
-  <si>
-    <t>upload pancard</t>
-  </si>
-  <si>
-    <t>upload Aaadhar front</t>
-  </si>
-  <si>
-    <t>Address Proof</t>
-  </si>
-  <si>
-    <t>Aadhar Front</t>
-  </si>
-  <si>
-    <t>C:\Users\M0137\git\repository3\MultipleBroswers\documents\aadhar card.jpg</t>
-  </si>
-  <si>
-    <t>C:\Users\M0137\git\repository3\MultipleBroswers\documents\pan.jpg</t>
-  </si>
-  <si>
-    <t>dropdown document</t>
-  </si>
-  <si>
-    <t>dropdown document type</t>
-  </si>
-  <si>
-    <t>Wait</t>
-  </si>
-  <si>
-    <t>3000</t>
-  </si>
-  <si>
-    <t>123456780987</t>
-  </si>
-  <si>
-    <t>(//div[contains(@class,'DropdownWidget---dropdown_value')])[6]</t>
-  </si>
-  <si>
-    <t>(//div[contains(@class,'DropdownWidget---dropdown_value')])[7]</t>
-  </si>
-  <si>
-    <t>(//div[contains(@class,'DropdownWidget---dropdown_value')])[8]</t>
-  </si>
-  <si>
-    <t>(//div[contains(@class,'DropdownWidget---dropdown_value')])[9]</t>
-  </si>
-  <si>
-    <t>(//div[contains(@class,'DropdownWidget---dropdown_value')])[10]</t>
-  </si>
-  <si>
-    <t>(//input[contains(@class,'TextInput---text TextInput')])[6]</t>
+    <t>Repor</t>
   </si>
   <si>
     <t>FAIL</t>
-  </si>
-  <si>
-    <t>India
-India</t>
-  </si>
-  <si>
-    <t>Andhra Pradesh
-Andhra Pradesh</t>
-  </si>
-  <si>
-    <t>AMARAVATHI
-AMARAVATHI</t>
-  </si>
-  <si>
-    <t/>
   </si>
 </sst>
 </file>
@@ -778,7 +769,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="378">
+  <fills count="67">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -882,32 +873,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
+        <fgColor indexed="52"/>
       </patternFill>
     </fill>
     <fill>
@@ -917,6 +883,11 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="50"/>
       </patternFill>
     </fill>
@@ -927,242 +898,57 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="50"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="50"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="50"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="50"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
       </patternFill>
     </fill>
     <fill>
@@ -1267,12 +1053,12 @@
     </fill>
     <fill>
       <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
       </patternFill>
     </fill>
     <fill>
@@ -1293,1356 +1079,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="50"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="50"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="50"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="50"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="50"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="50"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="50"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="50"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="50"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="50"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="50"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="50"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="50"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="50"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="50"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="50"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="50"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="50"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
       </patternFill>
     </fill>
     <fill>
@@ -2682,7 +1118,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="261">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2753,6 +1189,10 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
@@ -2768,10 +1208,6 @@
     <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="29" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="30" borderId="0" xfId="0" applyFill="1"/>
@@ -2781,197 +1217,21 @@
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="50" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="51" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="52" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="53" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="54" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="55" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="56" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="57" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="58" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="60" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="61" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="62" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="63" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="64" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="65" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="66" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="67" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="69" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="70" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="71" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="72" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="73" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="74" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="75" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="76" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="77" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="79" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="81" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="83" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="85" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="87" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="89" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="91" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="93" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="95" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="97" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="99" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="101" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="103" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="105" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="107" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="109" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="111" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="113" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="115" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="117" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="119" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="121" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="123" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="125" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="127" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="129" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="131" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="133" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="135" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="137" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="139" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="141" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="143" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="145" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="147" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="149" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="151" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="153" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="155" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="157" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="159" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="161" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="163" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="165" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="167" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="169" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="171" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="173" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="175" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="177" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="179" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="181" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="183" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="185" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="187" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="189" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="191" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="193" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="195" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="197" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="199" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="201" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="203" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="205" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="207" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="209" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="211" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="213" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="215" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="217" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="219" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="221" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="223" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="225" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="227" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="229" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="231" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="233" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="235" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="237" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="239" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="241" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="243" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="245" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="247" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="249" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="251" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="253" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="255" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="257" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="259" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="261" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="263" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="265" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="267" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="269" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="271" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="273" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="275" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="277" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="279" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="281" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="283" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="285" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="287" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="289" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="291" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="293" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="295" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="297" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="299" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="301" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="303" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="305" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="307" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="309" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="311" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="313" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="315" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="317" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="319" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="321" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="323" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="325" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="327" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="329" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="331" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="333" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="335" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="337" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="339" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="341" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="343" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="345" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="347" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="349" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="351" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="353" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="355" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="357" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="359" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="361" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="363" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="365" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="367" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="369" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="371" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="373" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="375" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="377" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="54" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="56" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="58" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="60" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="62" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="64" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="66" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3255,8 +1515,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+    <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3272,26 +1532,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="60" t="s">
+      <c r="B1" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="60" t="s">
+      <c r="C1" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="60" t="s">
+      <c r="D1" s="45" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="F1" s="45" t="s">
+        <v>189</v>
+      </c>
+      <c r="G1" s="45" t="s">
         <v>190</v>
-      </c>
-      <c r="F1" s="60" t="s">
-        <v>191</v>
-      </c>
-      <c r="G1" s="60" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -3307,7 +1567,7 @@
       <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" t="s" s="186">
+      <c r="E2" s="46" t="s">
         <v>5</v>
       </c>
     </row>
@@ -3322,7 +1582,7 @@
       <c r="D3" t="s">
         <v>6</v>
       </c>
-      <c r="E3" t="s" s="187">
+      <c r="E3" s="47" t="s">
         <v>134</v>
       </c>
     </row>
@@ -3337,7 +1597,7 @@
       <c r="D4" t="s">
         <v>6</v>
       </c>
-      <c r="E4" t="s" s="188">
+      <c r="E4" s="48" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3354,7 +1614,7 @@
       <c r="D5" t="s">
         <v>6</v>
       </c>
-      <c r="E5" t="s" s="189">
+      <c r="E5" s="49" t="s">
         <v>134</v>
       </c>
     </row>
@@ -3371,7 +1631,7 @@
       <c r="D6" t="s">
         <v>6</v>
       </c>
-      <c r="E6" t="s" s="190">
+      <c r="E6" s="50" t="s">
         <v>134</v>
       </c>
     </row>
@@ -3386,7 +1646,7 @@
       <c r="D7" t="s">
         <v>6</v>
       </c>
-      <c r="E7" t="s" s="191">
+      <c r="E7" s="51" t="s">
         <v>134</v>
       </c>
     </row>
@@ -3403,7 +1663,7 @@
       <c r="D8" t="s">
         <v>6</v>
       </c>
-      <c r="E8" t="s" s="192">
+      <c r="E8" s="52" t="s">
         <v>134</v>
       </c>
     </row>
@@ -3420,7 +1680,7 @@
       <c r="D9" t="s">
         <v>132</v>
       </c>
-      <c r="E9" t="s" s="193">
+      <c r="E9" s="53" t="s">
         <v>134</v>
       </c>
     </row>
@@ -3432,13 +1692,13 @@
         <v>23</v>
       </c>
       <c r="C10" s="29" t="s">
-        <v>146</v>
+        <v>207</v>
       </c>
       <c r="D10" t="s">
-        <v>135</v>
-      </c>
-      <c r="E10" t="s" s="194">
-        <v>134</v>
+        <v>6</v>
+      </c>
+      <c r="E10" s="54" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -3449,13 +1709,13 @@
         <v>26</v>
       </c>
       <c r="C11" s="29" t="s">
-        <v>147</v>
+        <v>208</v>
       </c>
       <c r="D11" t="s">
-        <v>136</v>
-      </c>
-      <c r="E11" t="s" s="195">
-        <v>134</v>
+        <v>6</v>
+      </c>
+      <c r="E11" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -3466,13 +1726,13 @@
         <v>27</v>
       </c>
       <c r="C12" s="29" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D12" t="s">
-        <v>137</v>
-      </c>
-      <c r="E12" t="s" s="196">
-        <v>134</v>
+        <v>6</v>
+      </c>
+      <c r="E12" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -3483,13 +1743,13 @@
         <v>29</v>
       </c>
       <c r="C13" s="29" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D13" t="s">
-        <v>138</v>
-      </c>
-      <c r="E13" t="s" s="197">
-        <v>134</v>
+        <v>6</v>
+      </c>
+      <c r="E13" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -3503,8 +1763,8 @@
       <c r="D14" t="s">
         <v>6</v>
       </c>
-      <c r="E14" t="s" s="198">
-        <v>134</v>
+      <c r="E14" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -3520,8 +1780,8 @@
       <c r="D15" t="s">
         <v>6</v>
       </c>
-      <c r="E15" t="s" s="199">
-        <v>134</v>
+      <c r="E15" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -3535,8 +1795,8 @@
       <c r="D16" t="s">
         <v>6</v>
       </c>
-      <c r="E16" t="s" s="200">
-        <v>123</v>
+      <c r="E16" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -3552,8 +1812,8 @@
       <c r="D17" t="s">
         <v>6</v>
       </c>
-      <c r="E17" t="s" s="201">
-        <v>134</v>
+      <c r="E17" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -3569,8 +1829,8 @@
       <c r="D18" t="s">
         <v>6</v>
       </c>
-      <c r="E18" t="s" s="202">
-        <v>134</v>
+      <c r="E18" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -3583,8 +1843,8 @@
       <c r="D19" t="s">
         <v>6</v>
       </c>
-      <c r="E19" t="s" s="203">
-        <v>134</v>
+      <c r="E19" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -3600,13 +1860,13 @@
       <c r="D20" t="s">
         <v>6</v>
       </c>
-      <c r="E20" t="s" s="204">
-        <v>134</v>
+      <c r="E20" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="31" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B21" s="32" t="s">
         <v>71</v>
@@ -3617,13 +1877,13 @@
       <c r="D21" t="s">
         <v>6</v>
       </c>
-      <c r="E21" t="s" s="205">
-        <v>134</v>
+      <c r="E21" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="33" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B22" s="32" t="s">
         <v>72</v>
@@ -3634,13 +1894,13 @@
       <c r="D22" t="s">
         <v>6</v>
       </c>
-      <c r="E22" t="s" s="206">
-        <v>134</v>
+      <c r="E22" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="31" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B23" t="s">
         <v>74</v>
@@ -3651,13 +1911,13 @@
       <c r="D23" t="s">
         <v>6</v>
       </c>
-      <c r="E23" t="s" s="207">
-        <v>134</v>
+      <c r="E23" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="33" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B24" t="s">
         <v>75</v>
@@ -3668,13 +1928,13 @@
       <c r="D24" t="s">
         <v>6</v>
       </c>
-      <c r="E24" t="s" s="208">
-        <v>134</v>
+      <c r="E24" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="33" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B25" t="s">
         <v>76</v>
@@ -3685,8 +1945,8 @@
       <c r="D25" t="s">
         <v>6</v>
       </c>
-      <c r="E25" t="s" s="209">
-        <v>134</v>
+      <c r="E25" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -3702,8 +1962,8 @@
       <c r="D26" t="s">
         <v>6</v>
       </c>
-      <c r="E26" t="s" s="210">
-        <v>134</v>
+      <c r="E26" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -3719,8 +1979,8 @@
       <c r="D27" t="s">
         <v>6</v>
       </c>
-      <c r="E27" t="s" s="211">
-        <v>134</v>
+      <c r="E27" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -3734,8 +1994,8 @@
       <c r="D28" t="s">
         <v>6</v>
       </c>
-      <c r="E28" t="s" s="212">
-        <v>126</v>
+      <c r="E28" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -3749,10 +2009,10 @@
         <v>133</v>
       </c>
       <c r="D29" t="s">
-        <v>133</v>
-      </c>
-      <c r="E29" t="s" s="213">
-        <v>134</v>
+        <v>6</v>
+      </c>
+      <c r="E29" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -3768,8 +2028,8 @@
       <c r="D30" t="s">
         <v>6</v>
       </c>
-      <c r="E30" t="s" s="214">
-        <v>134</v>
+      <c r="E30" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -3785,8 +2045,8 @@
       <c r="D31" t="s">
         <v>6</v>
       </c>
-      <c r="E31" t="s" s="215">
-        <v>134</v>
+      <c r="E31" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -3802,8 +2062,8 @@
       <c r="D32" t="s">
         <v>6</v>
       </c>
-      <c r="E32" t="s" s="216">
-        <v>134</v>
+      <c r="E32" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -3819,8 +2079,8 @@
       <c r="D33" t="s">
         <v>6</v>
       </c>
-      <c r="E33" t="s" s="217">
-        <v>134</v>
+      <c r="E33" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -3836,8 +2096,8 @@
       <c r="D34" t="s">
         <v>6</v>
       </c>
-      <c r="E34" t="s" s="218">
-        <v>134</v>
+      <c r="E34" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -3853,8 +2113,8 @@
       <c r="D35" t="s">
         <v>6</v>
       </c>
-      <c r="E35" t="s" s="219">
-        <v>134</v>
+      <c r="E35" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -3870,8 +2130,8 @@
       <c r="D36" t="s">
         <v>6</v>
       </c>
-      <c r="E36" t="s" s="220">
-        <v>134</v>
+      <c r="E36" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -3887,8 +2147,8 @@
       <c r="D37" t="s">
         <v>6</v>
       </c>
-      <c r="E37" t="s" s="221">
-        <v>134</v>
+      <c r="E37" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -3904,13 +2164,13 @@
       <c r="D38" t="s">
         <v>6</v>
       </c>
-      <c r="E38" t="s" s="222">
-        <v>134</v>
+      <c r="E38" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="18" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B39" s="18" t="s">
         <v>111</v>
@@ -3921,8 +2181,8 @@
       <c r="D39" t="s">
         <v>6</v>
       </c>
-      <c r="E39" t="s" s="223">
-        <v>134</v>
+      <c r="E39" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -3935,8 +2195,8 @@
       <c r="D40" t="s">
         <v>6</v>
       </c>
-      <c r="E40" t="s" s="224">
-        <v>134</v>
+      <c r="E40" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -3952,13 +2212,13 @@
       <c r="D41" t="s">
         <v>6</v>
       </c>
-      <c r="E41" t="s" s="225">
-        <v>134</v>
+      <c r="E41" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="18" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B42" s="18" t="s">
         <v>117</v>
@@ -3969,13 +2229,13 @@
       <c r="D42" t="s">
         <v>6</v>
       </c>
-      <c r="E42" t="s" s="226">
-        <v>134</v>
+      <c r="E42" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="18" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B43" t="s">
         <v>119</v>
@@ -3986,13 +2246,13 @@
       <c r="D43" t="s">
         <v>6</v>
       </c>
-      <c r="E43" t="s" s="227">
-        <v>134</v>
+      <c r="E43" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="18" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B44" t="s">
         <v>121</v>
@@ -4003,8 +2263,8 @@
       <c r="D44" t="s">
         <v>6</v>
       </c>
-      <c r="E44" t="s" s="228">
-        <v>134</v>
+      <c r="E44" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -4018,8 +2278,8 @@
       <c r="D45" t="s">
         <v>6</v>
       </c>
-      <c r="E45" t="s" s="229">
-        <v>134</v>
+      <c r="E45" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -4032,8 +2292,8 @@
       <c r="D46" t="s">
         <v>6</v>
       </c>
-      <c r="E46" t="s" s="230">
-        <v>126</v>
+      <c r="E46" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -4047,24 +2307,24 @@
         <v>131</v>
       </c>
       <c r="D47" t="s">
-        <v>131</v>
-      </c>
-      <c r="E47" t="s" s="231">
-        <v>134</v>
+        <v>6</v>
+      </c>
+      <c r="E47" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B48" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D48" t="s">
         <v>6</v>
       </c>
-      <c r="E48" t="s" s="232">
-        <v>134</v>
+      <c r="E48" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4080,90 +2340,90 @@
       <c r="D49" t="s">
         <v>6</v>
       </c>
-      <c r="E49" t="s" s="233">
-        <v>134</v>
+      <c r="E49" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B50" t="s">
         <v>71</v>
       </c>
       <c r="C50" s="15" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D50" t="s">
         <v>6</v>
       </c>
-      <c r="E50" t="s" s="234">
-        <v>134</v>
+      <c r="E50" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B51" t="s">
         <v>72</v>
       </c>
       <c r="C51" s="15" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D51" t="s">
         <v>6</v>
       </c>
-      <c r="E51" t="s" s="235">
-        <v>134</v>
+      <c r="E51" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B52" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C52" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D52" t="s">
         <v>6</v>
       </c>
-      <c r="E52" t="s" s="236">
-        <v>134</v>
+      <c r="E52" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B53" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C53" s="19" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D53" t="s">
         <v>6</v>
       </c>
-      <c r="E53" t="s" s="237">
-        <v>134</v>
+      <c r="E53" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B54" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D54" t="s">
         <v>6</v>
       </c>
-      <c r="E54" t="s" s="238">
-        <v>134</v>
+      <c r="E54" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -4179,231 +2439,231 @@
       <c r="D55" t="s">
         <v>6</v>
       </c>
-      <c r="E55" t="s" s="239">
-        <v>134</v>
+      <c r="E55" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B56" t="s">
         <v>74</v>
       </c>
       <c r="C56" s="15" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D56" t="s">
         <v>6</v>
       </c>
-      <c r="E56" t="s" s="240">
-        <v>134</v>
+      <c r="E56" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B57" t="s">
         <v>75</v>
       </c>
       <c r="C57" s="15" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D57" t="s">
         <v>6</v>
       </c>
-      <c r="E57" t="s" s="241">
-        <v>134</v>
+      <c r="E57" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B58" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C58" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D58" t="s">
         <v>6</v>
       </c>
-      <c r="E58" t="s" s="242">
-        <v>134</v>
+      <c r="E58" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B59" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C59" s="19" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D59" t="s">
         <v>6</v>
       </c>
-      <c r="E59" t="s" s="243">
-        <v>134</v>
+      <c r="E59" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B60" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C60" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D60" t="s">
-        <v>184</v>
-      </c>
-      <c r="E60" t="s" s="244">
-        <v>134</v>
+        <v>6</v>
+      </c>
+      <c r="E60" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B61" t="s">
         <v>76</v>
       </c>
       <c r="C61" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D61" t="s">
         <v>6</v>
       </c>
-      <c r="E61" t="s" s="245">
-        <v>134</v>
+      <c r="E61" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B62" t="s">
         <v>13</v>
       </c>
       <c r="C62" s="12" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D62" t="s">
         <v>6</v>
       </c>
-      <c r="E62" t="s" s="246">
-        <v>134</v>
+      <c r="E62" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B63" t="s">
-        <v>204</v>
-      </c>
-      <c r="C63" s="59" t="s">
-        <v>186</v>
+        <v>201</v>
+      </c>
+      <c r="C63" s="44" t="s">
+        <v>184</v>
       </c>
       <c r="D63" t="s">
         <v>6</v>
       </c>
-      <c r="E63" t="s" s="247">
-        <v>134</v>
+      <c r="E63" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B64" t="s">
         <v>13</v>
       </c>
       <c r="C64" s="12" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D64" t="s">
         <v>6</v>
       </c>
-      <c r="E64" t="s" s="248">
-        <v>134</v>
+      <c r="E64" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B65" t="s">
-        <v>205</v>
-      </c>
-      <c r="C65" s="59" t="s">
-        <v>187</v>
+        <v>202</v>
+      </c>
+      <c r="C65" s="44" t="s">
+        <v>185</v>
       </c>
       <c r="D65" t="s">
         <v>6</v>
       </c>
-      <c r="E65" t="s" s="249">
-        <v>134</v>
+      <c r="E65" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B66" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C66" s="12" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D66" t="s">
         <v>6</v>
       </c>
-      <c r="E66" t="s" s="250">
-        <v>134</v>
+      <c r="E66" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B67" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C67" s="12" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D67" t="s">
         <v>6</v>
       </c>
-      <c r="E67" t="s" s="251">
-        <v>134</v>
+      <c r="E67" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B68" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D68" t="s">
         <v>6</v>
       </c>
-      <c r="E68" t="s" s="252">
-        <v>134</v>
+      <c r="E68" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B69" t="s">
         <v>13</v>
@@ -4414,93 +2674,93 @@
       <c r="D69" t="s">
         <v>6</v>
       </c>
-      <c r="E69" t="s" s="253">
-        <v>134</v>
+      <c r="E69" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B70" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C70" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D70" t="s">
-        <v>211</v>
-      </c>
-      <c r="E70" t="s" s="254">
-        <v>210</v>
+        <v>6</v>
+      </c>
+      <c r="E70" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B71" t="s">
-        <v>207</v>
-      </c>
-      <c r="C71" s="59" t="s">
-        <v>186</v>
+        <v>204</v>
+      </c>
+      <c r="C71" s="44" t="s">
+        <v>184</v>
       </c>
       <c r="D71" t="s">
-        <v>212</v>
-      </c>
-      <c r="E71" t="s" s="255">
-        <v>210</v>
+        <v>6</v>
+      </c>
+      <c r="E71" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B72" t="s">
-        <v>208</v>
-      </c>
-      <c r="C72" s="59" t="s">
-        <v>187</v>
+        <v>205</v>
+      </c>
+      <c r="C72" s="44" t="s">
+        <v>185</v>
       </c>
       <c r="D72" t="s">
-        <v>213</v>
-      </c>
-      <c r="E72" t="s" s="256">
-        <v>210</v>
+        <v>6</v>
+      </c>
+      <c r="E72" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B73" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C73" s="12" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D73" t="s">
-        <v>214</v>
-      </c>
-      <c r="E73" t="s" s="257">
-        <v>210</v>
+        <v>6</v>
+      </c>
+      <c r="E73" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B74" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C74" s="12" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D74" t="s">
-        <v>214</v>
-      </c>
-      <c r="E74" t="s" s="258">
-        <v>210</v>
+        <v>6</v>
+      </c>
+      <c r="E74" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
@@ -4514,8 +2774,8 @@
       <c r="D75" t="s">
         <v>6</v>
       </c>
-      <c r="E75" t="s" s="259">
-        <v>134</v>
+      <c r="E75" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
@@ -4525,8 +2785,8 @@
       <c r="D76" t="s">
         <v>6</v>
       </c>
-      <c r="E76" t="s" s="260">
-        <v>70</v>
+      <c r="E76" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -4575,45 +2835,45 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="37" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B2" s="37" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C2" s="37" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
       </c>
       <c r="E2" s="40" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="38" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B3" s="39" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C3" s="10"/>
       <c r="D3" t="s">
         <v>6</v>
       </c>
       <c r="E3" s="41" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="37" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B4" s="37" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C4" s="37" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -4642,8 +2902,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A323026-F006-4D65-9EF7-259196EE06E3}">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4652,7 +2912,7 @@
     <col min="2" max="2" bestFit="true" customWidth="true" width="46.85546875" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="10.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="17.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -4685,7 +2945,7 @@
       <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="44" t="s">
+      <c r="E2" t="s" s="70">
         <v>5</v>
       </c>
     </row>
@@ -4702,7 +2962,7 @@
       <c r="D3" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="45" t="s">
+      <c r="E3" t="s" s="71">
         <v>134</v>
       </c>
     </row>
@@ -4719,7 +2979,7 @@
       <c r="D4" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="46" t="s">
+      <c r="E4" t="s" s="72">
         <v>9</v>
       </c>
     </row>
@@ -4736,7 +2996,7 @@
       <c r="D5" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="47" t="s">
+      <c r="E5" t="s" s="73">
         <v>134</v>
       </c>
     </row>
@@ -4753,7 +3013,7 @@
       <c r="D6" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="48" t="s">
+      <c r="E6" t="s" s="74">
         <v>134</v>
       </c>
     </row>
@@ -4770,7 +3030,7 @@
       <c r="D7" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="49" t="s">
+      <c r="E7" t="s" s="75">
         <v>134</v>
       </c>
     </row>
@@ -4787,7 +3047,7 @@
       <c r="D8" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="50" t="s">
+      <c r="E8" t="s" s="76">
         <v>134</v>
       </c>
     </row>
@@ -4804,7 +3064,7 @@
       <c r="D9" t="s">
         <v>132</v>
       </c>
-      <c r="E9" s="51" t="s">
+      <c r="E9" t="s" s="77">
         <v>134</v>
       </c>
     </row>
@@ -4816,12 +3076,12 @@
         <v>23</v>
       </c>
       <c r="C10" s="29" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D10" t="s">
         <v>135</v>
       </c>
-      <c r="E10" s="52" t="s">
+      <c r="E10" t="s" s="78">
         <v>134</v>
       </c>
     </row>
@@ -4833,12 +3093,12 @@
         <v>26</v>
       </c>
       <c r="C11" s="29" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D11" t="s">
         <v>136</v>
       </c>
-      <c r="E11" s="53" t="s">
+      <c r="E11" t="s" s="79">
         <v>134</v>
       </c>
     </row>
@@ -4850,13 +3110,13 @@
         <v>27</v>
       </c>
       <c r="C12" s="29" t="s">
-        <v>148</v>
+        <v>211</v>
       </c>
       <c r="D12" t="s">
-        <v>137</v>
-      </c>
-      <c r="E12" s="54" t="s">
-        <v>134</v>
+        <v>209</v>
+      </c>
+      <c r="E12" t="s" s="80">
+        <v>212</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -4867,12 +3127,12 @@
         <v>29</v>
       </c>
       <c r="C13" s="29" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D13" t="s">
-        <v>138</v>
-      </c>
-      <c r="E13" s="55" t="s">
+        <v>210</v>
+      </c>
+      <c r="E13" t="s" s="81">
         <v>134</v>
       </c>
     </row>
@@ -4889,7 +3149,7 @@
       <c r="D14" t="s">
         <v>6</v>
       </c>
-      <c r="E14" s="56" t="s">
+      <c r="E14" t="s" s="82">
         <v>134</v>
       </c>
     </row>
@@ -4906,7 +3166,7 @@
       <c r="D15" t="s">
         <v>6</v>
       </c>
-      <c r="E15" s="57" t="s">
+      <c r="E15" t="s" s="83">
         <v>134</v>
       </c>
     </row>
@@ -4917,7 +3177,7 @@
       <c r="D16" t="s">
         <v>6</v>
       </c>
-      <c r="E16" s="58" t="s">
+      <c r="E16" t="s" s="84">
         <v>107</v>
       </c>
     </row>

--- a/TestCasesinExcell/Myhero/Myherotestdata1.xlsx
+++ b/TestCasesinExcell/Myhero/Myherotestdata1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M0137\git\repository3\MultipleBroswers\TestCasesinExcell\Myhero\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8551D4A5-F42E-4B7A-BC1E-F28D95BF1545}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02DE414D-8268-4E86-8DB5-6924999BB62A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GeneralInsurance" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="937" uniqueCount="219">
   <si>
     <t>Description</t>
   </si>
@@ -435,238 +435,259 @@
     <t>PASS</t>
   </si>
   <si>
+    <t>Click on add new row</t>
+  </si>
+  <si>
+    <t>//a[text()='Add new row']</t>
+  </si>
+  <si>
+    <t>National Id</t>
+  </si>
+  <si>
+    <t>PAN Card</t>
+  </si>
+  <si>
+    <t>Enter document number</t>
+  </si>
+  <si>
+    <t>DZCPP6789U</t>
+  </si>
+  <si>
+    <t>My Cases</t>
+  </si>
+  <si>
+    <t>MY Tasks</t>
+  </si>
+  <si>
+    <t>Reports</t>
+  </si>
+  <si>
+    <t>Actions</t>
+  </si>
+  <si>
+    <t>Mobile</t>
+  </si>
+  <si>
+    <t>Scenario 001</t>
+  </si>
+  <si>
+    <t>Verify that enter valid mobile number</t>
+  </si>
+  <si>
+    <t>apk</t>
+  </si>
+  <si>
+    <t>Take myhero apk</t>
+  </si>
+  <si>
+    <t>Validate Address Details</t>
+  </si>
+  <si>
+    <t>//div[text()='Address Details']</t>
+  </si>
+  <si>
+    <t>Enter House number</t>
+  </si>
+  <si>
+    <t>Enter Pin code</t>
+  </si>
+  <si>
+    <t>Click on Yes</t>
+  </si>
+  <si>
+    <t>(//input[contains(@class,'TextInput---text TextInput')])[1]</t>
+  </si>
+  <si>
+    <t>(//input[contains(@class,'TextInput---text TextInput')])[2]</t>
+  </si>
+  <si>
+    <t>(//input[contains(@class,'TextInput---text TextInput')])[3]</t>
+  </si>
+  <si>
+    <t>(//input[contains(@class,'TextInput---text TextInput')])[4]</t>
+  </si>
+  <si>
+    <t>(//input[contains(@class,'TextInput---text TextInput')])[5]</t>
+  </si>
+  <si>
+    <t>//label[text()='Yes']</t>
+  </si>
+  <si>
+    <t>dropdown lob</t>
+  </si>
+  <si>
+    <t>dropdown Product Category</t>
+  </si>
+  <si>
+    <t>dropdown Product</t>
+  </si>
+  <si>
+    <t>dropdown Client Code</t>
+  </si>
+  <si>
+    <t>dropdown Sub Product</t>
+  </si>
+  <si>
+    <t>dropdown gender</t>
+  </si>
+  <si>
+    <t>dropdown Caste</t>
+  </si>
+  <si>
+    <t>dropdown religion</t>
+  </si>
+  <si>
+    <t>dropdown qualification</t>
+  </si>
+  <si>
+    <t>dropdown document name</t>
+  </si>
+  <si>
+    <t>dropdown country</t>
+  </si>
+  <si>
+    <t>dropdown State</t>
+  </si>
+  <si>
+    <t>dropdown City</t>
+  </si>
+  <si>
+    <t>Validate country</t>
+  </si>
+  <si>
+    <t>Validate State</t>
+  </si>
+  <si>
+    <t>Validate City</t>
+  </si>
+  <si>
+    <t>Validate House number</t>
+  </si>
+  <si>
+    <t>Validate Pin code</t>
+  </si>
+  <si>
+    <t>Address Details</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Andhra Pradesh</t>
+  </si>
+  <si>
+    <t>AMARAVATHI</t>
+  </si>
+  <si>
+    <t>1-118</t>
+  </si>
+  <si>
+    <t>533293</t>
+  </si>
+  <si>
+    <t>Chrome Result</t>
+  </si>
+  <si>
+    <t>Firefox Result</t>
+  </si>
+  <si>
+    <t>Edge Result</t>
+  </si>
+  <si>
+    <t>upload pancard</t>
+  </si>
+  <si>
+    <t>upload Aaadhar front</t>
+  </si>
+  <si>
+    <t>Address Proof</t>
+  </si>
+  <si>
+    <t>Aadhar Front</t>
+  </si>
+  <si>
+    <t>C:\Users\M0137\git\repository3\MultipleBroswers\documents\aadhar card.jpg</t>
+  </si>
+  <si>
+    <t>C:\Users\M0137\git\repository3\MultipleBroswers\documents\pan.jpg</t>
+  </si>
+  <si>
+    <t>dropdown document type</t>
+  </si>
+  <si>
+    <t>Wait</t>
+  </si>
+  <si>
+    <t>3000</t>
+  </si>
+  <si>
+    <t>123456780987</t>
+  </si>
+  <si>
+    <t>(//div[contains(@class,'DropdownWidget---dropdown_value')])[6]</t>
+  </si>
+  <si>
+    <t>(//div[contains(@class,'DropdownWidget---dropdown_value')])[7]</t>
+  </si>
+  <si>
+    <t>(//div[contains(@class,'DropdownWidget---dropdown_value')])[8]</t>
+  </si>
+  <si>
+    <t>(//div[contains(@class,'DropdownWidget---dropdown_value')])[9]</t>
+  </si>
+  <si>
+    <t>(//div[contains(@class,'DropdownWidget---dropdown_value')])[10]</t>
+  </si>
+  <si>
+    <t>(//input[contains(@class,'TextInput---text TextInput')])[6]</t>
+  </si>
+  <si>
+    <t>My Case</t>
+  </si>
+  <si>
+    <t>MY Task</t>
+  </si>
+  <si>
+    <t>Repor</t>
+  </si>
+  <si>
+    <t>//input[@type='file']</t>
+  </si>
+  <si>
+    <t>FAIL</t>
+  </si>
+  <si>
     <t>MY CASES</t>
   </si>
   <si>
     <t>MY TASKS</t>
   </si>
   <si>
-    <t>Click on add new row</t>
-  </si>
-  <si>
-    <t>//a[text()='Add new row']</t>
-  </si>
-  <si>
-    <t>//button[contains(@class,'Button---btn Button---default_direction Button---secondary')]</t>
-  </si>
-  <si>
-    <t>National Id</t>
-  </si>
-  <si>
-    <t>PAN Card</t>
-  </si>
-  <si>
-    <t>Enter document number</t>
-  </si>
-  <si>
-    <t>DZCPP6789U</t>
-  </si>
-  <si>
-    <t>My Cases</t>
-  </si>
-  <si>
-    <t>MY Tasks</t>
-  </si>
-  <si>
-    <t>Reports</t>
-  </si>
-  <si>
-    <t>Actions</t>
-  </si>
-  <si>
-    <t>Mobile</t>
-  </si>
-  <si>
-    <t>Scenario 001</t>
-  </si>
-  <si>
-    <t>Verify that enter valid mobile number</t>
-  </si>
-  <si>
-    <t>apk</t>
-  </si>
-  <si>
-    <t>Take myhero apk</t>
-  </si>
-  <si>
-    <t>Validate Address Details</t>
-  </si>
-  <si>
-    <t>//div[text()='Address Details']</t>
-  </si>
-  <si>
-    <t>Enter House number</t>
-  </si>
-  <si>
-    <t>Enter Pin code</t>
-  </si>
-  <si>
-    <t>Click on Yes</t>
-  </si>
-  <si>
-    <t>(//input[contains(@class,'TextInput---text TextInput')])[1]</t>
-  </si>
-  <si>
-    <t>(//input[contains(@class,'TextInput---text TextInput')])[2]</t>
-  </si>
-  <si>
-    <t>(//input[contains(@class,'TextInput---text TextInput')])[3]</t>
-  </si>
-  <si>
-    <t>(//input[contains(@class,'TextInput---text TextInput')])[4]</t>
-  </si>
-  <si>
-    <t>(//input[contains(@class,'TextInput---text TextInput')])[5]</t>
-  </si>
-  <si>
-    <t>//label[text()='Yes']</t>
-  </si>
-  <si>
-    <t>dropdown lob</t>
-  </si>
-  <si>
-    <t>dropdown Product Category</t>
-  </si>
-  <si>
-    <t>dropdown Product</t>
-  </si>
-  <si>
-    <t>dropdown Client Code</t>
-  </si>
-  <si>
-    <t>dropdown Sub Product</t>
-  </si>
-  <si>
-    <t>dropdown gender</t>
-  </si>
-  <si>
-    <t>dropdown Caste</t>
-  </si>
-  <si>
-    <t>dropdown religion</t>
-  </si>
-  <si>
-    <t>dropdown qualification</t>
-  </si>
-  <si>
-    <t>dropdown document name</t>
-  </si>
-  <si>
-    <t>dropdown country</t>
-  </si>
-  <si>
-    <t>dropdown State</t>
-  </si>
-  <si>
-    <t>dropdown City</t>
-  </si>
-  <si>
-    <t>Validate country</t>
-  </si>
-  <si>
-    <t>Validate State</t>
-  </si>
-  <si>
-    <t>Validate City</t>
-  </si>
-  <si>
-    <t>Validate House number</t>
-  </si>
-  <si>
-    <t>Validate Pin code</t>
-  </si>
-  <si>
-    <t>Address Details</t>
-  </si>
-  <si>
-    <t>India</t>
-  </si>
-  <si>
-    <t>Andhra Pradesh</t>
-  </si>
-  <si>
-    <t>AMARAVATHI</t>
-  </si>
-  <si>
-    <t>1-118</t>
-  </si>
-  <si>
-    <t>533293</t>
-  </si>
-  <si>
-    <t>Chrome Result</t>
-  </si>
-  <si>
-    <t>Firefox Result</t>
-  </si>
-  <si>
-    <t>Edge Result</t>
-  </si>
-  <si>
-    <t>upload pancard</t>
-  </si>
-  <si>
-    <t>upload Aaadhar front</t>
-  </si>
-  <si>
-    <t>Address Proof</t>
-  </si>
-  <si>
-    <t>Aadhar Front</t>
-  </si>
-  <si>
-    <t>C:\Users\M0137\git\repository3\MultipleBroswers\documents\aadhar card.jpg</t>
-  </si>
-  <si>
-    <t>C:\Users\M0137\git\repository3\MultipleBroswers\documents\pan.jpg</t>
-  </si>
-  <si>
-    <t>dropdown document type</t>
-  </si>
-  <si>
-    <t>Wait</t>
-  </si>
-  <si>
-    <t>3000</t>
-  </si>
-  <si>
-    <t>123456780987</t>
-  </si>
-  <si>
-    <t>(//div[contains(@class,'DropdownWidget---dropdown_value')])[6]</t>
-  </si>
-  <si>
-    <t>(//div[contains(@class,'DropdownWidget---dropdown_value')])[7]</t>
-  </si>
-  <si>
-    <t>(//div[contains(@class,'DropdownWidget---dropdown_value')])[8]</t>
-  </si>
-  <si>
-    <t>(//div[contains(@class,'DropdownWidget---dropdown_value')])[9]</t>
-  </si>
-  <si>
-    <t>(//div[contains(@class,'DropdownWidget---dropdown_value')])[10]</t>
-  </si>
-  <si>
-    <t>(//input[contains(@class,'TextInput---text TextInput')])[6]</t>
-  </si>
-  <si>
-    <t>My Case</t>
-  </si>
-  <si>
-    <t>MY Task</t>
-  </si>
-  <si>
     <t>REPORTS</t>
   </si>
   <si>
     <t>ACTIONS</t>
   </si>
   <si>
-    <t>Repor</t>
-  </si>
-  <si>
-    <t>FAIL</t>
+    <t>na</t>
+  </si>
+  <si>
+    <t>6000</t>
+  </si>
+  <si>
+    <t>India
+India</t>
+  </si>
+  <si>
+    <t>Andhra Pradesh
+Andhra Pradesh</t>
+  </si>
+  <si>
+    <t>AMARAVATHI
+AMARAVATHI</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
@@ -769,7 +790,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="67">
+  <fills count="234">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -868,11 +889,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="52"/>
       </patternFill>
     </fill>
@@ -918,12 +934,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
       </patternFill>
     </fill>
     <fill>
@@ -952,17 +968,227 @@
       </patternFill>
     </fill>
     <fill>
-      <patternFill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="50"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="50"/>
       </patternFill>
     </fill>
     <fill>
-      <patternFill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="42"/>
       </patternFill>
     </fill>
@@ -993,12 +1219,12 @@
     </fill>
     <fill>
       <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
       </patternFill>
     </fill>
     <fill>
@@ -1063,22 +1289,652 @@
     </fill>
     <fill>
       <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
       </patternFill>
     </fill>
     <fill>
@@ -1118,7 +1974,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="191">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1217,21 +2073,127 @@
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="50" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="52" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="54" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="56" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="58" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="60" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="62" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="64" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="66" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="51" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="53" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="54" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="55" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="56" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="57" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="58" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="60" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="61" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="62" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="63" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="64" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="65" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="66" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="67" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="69" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="70" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="71" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="72" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="73" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="74" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="75" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="76" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="77" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="78" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="79" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="80" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="81" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="83" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="85" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="87" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="89" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="91" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="93" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="95" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="97" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="99" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="101" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="103" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="105" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="107" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="109" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="111" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="113" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="115" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="117" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="119" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="121" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="123" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="125" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="127" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="129" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="131" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="133" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="135" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="137" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="139" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="141" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="143" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="145" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="147" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="149" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="151" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="153" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="155" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="157" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="159" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="161" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="163" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="165" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="167" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="169" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="171" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="173" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="175" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="177" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="179" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="181" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="183" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="185" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="187" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="189" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="191" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="193" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="195" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="197" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="199" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="201" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="203" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="205" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="207" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="209" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="211" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="213" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="215" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="217" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="219" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="221" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="223" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="225" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="227" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="229" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="231" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="233" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1513,10 +2475,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G76"/>
+  <dimension ref="A1:G77"/>
   <sheetViews>
-    <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1545,13 +2507,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F1" s="45" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="G1" s="45" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -1567,7 +2529,7 @@
       <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="46" t="s">
+      <c r="E2" t="s" s="115">
         <v>5</v>
       </c>
     </row>
@@ -1582,7 +2544,7 @@
       <c r="D3" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="47" t="s">
+      <c r="E3" t="s" s="116">
         <v>134</v>
       </c>
     </row>
@@ -1597,7 +2559,7 @@
       <c r="D4" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="48" t="s">
+      <c r="E4" t="s" s="117">
         <v>9</v>
       </c>
     </row>
@@ -1614,7 +2576,7 @@
       <c r="D5" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="49" t="s">
+      <c r="E5" t="s" s="118">
         <v>134</v>
       </c>
     </row>
@@ -1631,7 +2593,7 @@
       <c r="D6" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="50" t="s">
+      <c r="E6" t="s" s="119">
         <v>134</v>
       </c>
     </row>
@@ -1646,7 +2608,7 @@
       <c r="D7" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="51" t="s">
+      <c r="E7" t="s" s="120">
         <v>134</v>
       </c>
     </row>
@@ -1663,7 +2625,7 @@
       <c r="D8" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="52" t="s">
+      <c r="E8" t="s" s="121">
         <v>134</v>
       </c>
     </row>
@@ -1680,7 +2642,7 @@
       <c r="D9" t="s">
         <v>132</v>
       </c>
-      <c r="E9" s="53" t="s">
+      <c r="E9" t="s" s="122">
         <v>134</v>
       </c>
     </row>
@@ -1692,13 +2654,13 @@
         <v>23</v>
       </c>
       <c r="C10" s="29" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" s="54" t="s">
-        <v>109</v>
+        <v>209</v>
+      </c>
+      <c r="E10" t="s" s="123">
+        <v>208</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -1709,13 +2671,13 @@
         <v>26</v>
       </c>
       <c r="C11" s="29" t="s">
+        <v>205</v>
+      </c>
+      <c r="D11" t="s">
+        <v>210</v>
+      </c>
+      <c r="E11" t="s" s="124">
         <v>208</v>
-      </c>
-      <c r="D11" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -1726,13 +2688,13 @@
         <v>27</v>
       </c>
       <c r="C12" s="29" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D12" t="s">
-        <v>6</v>
-      </c>
-      <c r="E12" t="s">
-        <v>108</v>
+        <v>211</v>
+      </c>
+      <c r="E12" t="s" s="125">
+        <v>134</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -1743,13 +2705,13 @@
         <v>29</v>
       </c>
       <c r="C13" s="29" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D13" t="s">
-        <v>6</v>
-      </c>
-      <c r="E13" t="s">
-        <v>108</v>
+        <v>212</v>
+      </c>
+      <c r="E13" t="s" s="126">
+        <v>134</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -1763,8 +2725,8 @@
       <c r="D14" t="s">
         <v>6</v>
       </c>
-      <c r="E14" t="s">
-        <v>108</v>
+      <c r="E14" t="s" s="127">
+        <v>134</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -1780,8 +2742,8 @@
       <c r="D15" t="s">
         <v>6</v>
       </c>
-      <c r="E15" t="s">
-        <v>108</v>
+      <c r="E15" t="s" s="128">
+        <v>134</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -1795,8 +2757,8 @@
       <c r="D16" t="s">
         <v>6</v>
       </c>
-      <c r="E16" t="s">
-        <v>108</v>
+      <c r="E16" t="s" s="129">
+        <v>123</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -1812,8 +2774,8 @@
       <c r="D17" t="s">
         <v>6</v>
       </c>
-      <c r="E17" t="s">
-        <v>108</v>
+      <c r="E17" t="s" s="130">
+        <v>134</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -1829,8 +2791,8 @@
       <c r="D18" t="s">
         <v>6</v>
       </c>
-      <c r="E18" t="s">
-        <v>108</v>
+      <c r="E18" t="s" s="131">
+        <v>134</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -1843,8 +2805,8 @@
       <c r="D19" t="s">
         <v>6</v>
       </c>
-      <c r="E19" t="s">
-        <v>108</v>
+      <c r="E19" t="s" s="132">
+        <v>134</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -1860,13 +2822,13 @@
       <c r="D20" t="s">
         <v>6</v>
       </c>
-      <c r="E20" t="s">
-        <v>108</v>
+      <c r="E20" t="s" s="133">
+        <v>134</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="31" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B21" s="32" t="s">
         <v>71</v>
@@ -1877,13 +2839,13 @@
       <c r="D21" t="s">
         <v>6</v>
       </c>
-      <c r="E21" t="s">
-        <v>108</v>
+      <c r="E21" t="s" s="134">
+        <v>134</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="33" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B22" s="32" t="s">
         <v>72</v>
@@ -1894,13 +2856,13 @@
       <c r="D22" t="s">
         <v>6</v>
       </c>
-      <c r="E22" t="s">
-        <v>108</v>
+      <c r="E22" t="s" s="135">
+        <v>134</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="31" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B23" t="s">
         <v>74</v>
@@ -1911,13 +2873,13 @@
       <c r="D23" t="s">
         <v>6</v>
       </c>
-      <c r="E23" t="s">
-        <v>108</v>
+      <c r="E23" t="s" s="136">
+        <v>134</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="33" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B24" t="s">
         <v>75</v>
@@ -1928,13 +2890,13 @@
       <c r="D24" t="s">
         <v>6</v>
       </c>
-      <c r="E24" t="s">
-        <v>108</v>
+      <c r="E24" t="s" s="137">
+        <v>134</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="33" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B25" t="s">
         <v>76</v>
@@ -1945,8 +2907,8 @@
       <c r="D25" t="s">
         <v>6</v>
       </c>
-      <c r="E25" t="s">
-        <v>108</v>
+      <c r="E25" t="s" s="138">
+        <v>134</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -1962,8 +2924,8 @@
       <c r="D26" t="s">
         <v>6</v>
       </c>
-      <c r="E26" t="s">
-        <v>108</v>
+      <c r="E26" t="s" s="139">
+        <v>134</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -1979,8 +2941,8 @@
       <c r="D27" t="s">
         <v>6</v>
       </c>
-      <c r="E27" t="s">
-        <v>108</v>
+      <c r="E27" t="s" s="140">
+        <v>134</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -1994,8 +2956,8 @@
       <c r="D28" t="s">
         <v>6</v>
       </c>
-      <c r="E28" t="s">
-        <v>108</v>
+      <c r="E28" t="s" s="141">
+        <v>126</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -2009,10 +2971,10 @@
         <v>133</v>
       </c>
       <c r="D29" t="s">
-        <v>6</v>
-      </c>
-      <c r="E29" t="s">
-        <v>108</v>
+        <v>133</v>
+      </c>
+      <c r="E29" t="s" s="142">
+        <v>134</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -2028,8 +2990,8 @@
       <c r="D30" t="s">
         <v>6</v>
       </c>
-      <c r="E30" t="s">
-        <v>108</v>
+      <c r="E30" t="s" s="143">
+        <v>134</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -2045,8 +3007,8 @@
       <c r="D31" t="s">
         <v>6</v>
       </c>
-      <c r="E31" t="s">
-        <v>108</v>
+      <c r="E31" t="s" s="144">
+        <v>134</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -2062,8 +3024,8 @@
       <c r="D32" t="s">
         <v>6</v>
       </c>
-      <c r="E32" t="s">
-        <v>108</v>
+      <c r="E32" t="s" s="145">
+        <v>134</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -2079,8 +3041,8 @@
       <c r="D33" t="s">
         <v>6</v>
       </c>
-      <c r="E33" t="s">
-        <v>108</v>
+      <c r="E33" t="s" s="146">
+        <v>134</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -2096,8 +3058,8 @@
       <c r="D34" t="s">
         <v>6</v>
       </c>
-      <c r="E34" t="s">
-        <v>108</v>
+      <c r="E34" t="s" s="147">
+        <v>134</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -2113,8 +3075,8 @@
       <c r="D35" t="s">
         <v>6</v>
       </c>
-      <c r="E35" t="s">
-        <v>108</v>
+      <c r="E35" t="s" s="148">
+        <v>134</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -2130,8 +3092,8 @@
       <c r="D36" t="s">
         <v>6</v>
       </c>
-      <c r="E36" t="s">
-        <v>108</v>
+      <c r="E36" t="s" s="149">
+        <v>134</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -2147,8 +3109,8 @@
       <c r="D37" t="s">
         <v>6</v>
       </c>
-      <c r="E37" t="s">
-        <v>108</v>
+      <c r="E37" t="s" s="150">
+        <v>134</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -2164,13 +3126,13 @@
       <c r="D38" t="s">
         <v>6</v>
       </c>
-      <c r="E38" t="s">
-        <v>108</v>
+      <c r="E38" t="s" s="151">
+        <v>134</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="18" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B39" s="18" t="s">
         <v>111</v>
@@ -2181,8 +3143,8 @@
       <c r="D39" t="s">
         <v>6</v>
       </c>
-      <c r="E39" t="s">
-        <v>108</v>
+      <c r="E39" t="s" s="152">
+        <v>134</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -2195,8 +3157,8 @@
       <c r="D40" t="s">
         <v>6</v>
       </c>
-      <c r="E40" t="s">
-        <v>108</v>
+      <c r="E40" t="s" s="153">
+        <v>134</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -2212,13 +3174,13 @@
       <c r="D41" t="s">
         <v>6</v>
       </c>
-      <c r="E41" t="s">
-        <v>108</v>
+      <c r="E41" t="s" s="154">
+        <v>134</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="18" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B42" s="18" t="s">
         <v>117</v>
@@ -2229,13 +3191,13 @@
       <c r="D42" t="s">
         <v>6</v>
       </c>
-      <c r="E42" t="s">
-        <v>108</v>
+      <c r="E42" t="s" s="155">
+        <v>134</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="18" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B43" t="s">
         <v>119</v>
@@ -2246,13 +3208,13 @@
       <c r="D43" t="s">
         <v>6</v>
       </c>
-      <c r="E43" t="s">
-        <v>108</v>
+      <c r="E43" t="s" s="156">
+        <v>134</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="18" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B44" t="s">
         <v>121</v>
@@ -2263,8 +3225,8 @@
       <c r="D44" t="s">
         <v>6</v>
       </c>
-      <c r="E44" t="s">
-        <v>108</v>
+      <c r="E44" t="s" s="157">
+        <v>134</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -2278,8 +3240,8 @@
       <c r="D45" t="s">
         <v>6</v>
       </c>
-      <c r="E45" t="s">
-        <v>108</v>
+      <c r="E45" t="s" s="158">
+        <v>134</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -2292,8 +3254,8 @@
       <c r="D46" t="s">
         <v>6</v>
       </c>
-      <c r="E46" t="s">
-        <v>108</v>
+      <c r="E46" t="s" s="159">
+        <v>126</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -2307,24 +3269,24 @@
         <v>131</v>
       </c>
       <c r="D47" t="s">
-        <v>6</v>
-      </c>
-      <c r="E47" t="s">
-        <v>108</v>
+        <v>131</v>
+      </c>
+      <c r="E47" t="s" s="160">
+        <v>134</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B48" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D48" t="s">
         <v>6</v>
       </c>
-      <c r="E48" t="s">
-        <v>108</v>
+      <c r="E48" t="s" s="161">
+        <v>134</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2340,453 +3302,470 @@
       <c r="D49" t="s">
         <v>6</v>
       </c>
-      <c r="E49" t="s">
-        <v>108</v>
+      <c r="E49" t="s" s="162">
+        <v>134</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B50" t="s">
         <v>71</v>
       </c>
       <c r="C50" s="15" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D50" t="s">
         <v>6</v>
       </c>
-      <c r="E50" t="s">
-        <v>108</v>
+      <c r="E50" t="s" s="163">
+        <v>134</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B51" t="s">
         <v>72</v>
       </c>
       <c r="C51" s="15" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D51" t="s">
         <v>6</v>
       </c>
-      <c r="E51" t="s">
-        <v>108</v>
+      <c r="E51" t="s" s="164">
+        <v>134</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="B52" t="s">
-        <v>139</v>
-      </c>
-      <c r="C52" t="s">
-        <v>196</v>
+        <v>213</v>
+      </c>
+      <c r="C52" s="19" t="s">
+        <v>214</v>
       </c>
       <c r="D52" t="s">
         <v>6</v>
       </c>
-      <c r="E52" t="s">
-        <v>108</v>
+      <c r="E52" t="s" s="165">
+        <v>134</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>142</v>
+        <v>188</v>
       </c>
       <c r="B53" t="s">
-        <v>158</v>
-      </c>
-      <c r="C53" s="19" t="s">
-        <v>143</v>
+        <v>207</v>
+      </c>
+      <c r="C53" t="s">
+        <v>193</v>
       </c>
       <c r="D53" t="s">
         <v>6</v>
       </c>
-      <c r="E53" t="s">
-        <v>108</v>
+      <c r="E53" t="s" s="166">
+        <v>134</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B54" t="s">
-        <v>138</v>
+        <v>155</v>
+      </c>
+      <c r="C54" s="19" t="s">
+        <v>140</v>
       </c>
       <c r="D54" t="s">
         <v>6</v>
       </c>
-      <c r="E54" t="s">
-        <v>108</v>
+      <c r="E54" t="s" s="167">
+        <v>134</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="27" t="s">
+      <c r="A55" t="s">
+        <v>135</v>
+      </c>
+      <c r="B55" t="s">
+        <v>136</v>
+      </c>
+      <c r="D55" t="s">
+        <v>6</v>
+      </c>
+      <c r="E55" t="s" s="168">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="B55" s="28" t="s">
+      <c r="B56" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="C55" s="29" t="s">
+      <c r="C56" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="D55" t="s">
-        <v>6</v>
-      </c>
-      <c r="E55" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>197</v>
-      </c>
-      <c r="B56" t="s">
-        <v>74</v>
-      </c>
-      <c r="C56" s="15" t="s">
-        <v>193</v>
-      </c>
       <c r="D56" t="s">
         <v>6</v>
       </c>
-      <c r="E56" t="s">
-        <v>108</v>
+      <c r="E56" t="s" s="169">
+        <v>134</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>173</v>
+        <v>194</v>
       </c>
       <c r="B57" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C57" s="15" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="D57" t="s">
         <v>6</v>
       </c>
-      <c r="E57" t="s">
-        <v>108</v>
+      <c r="E57" t="s" s="170">
+        <v>134</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="B58" t="s">
-        <v>139</v>
-      </c>
-      <c r="C58" t="s">
-        <v>195</v>
+        <v>75</v>
+      </c>
+      <c r="C58" s="15" t="s">
+        <v>191</v>
       </c>
       <c r="D58" t="s">
         <v>6</v>
       </c>
-      <c r="E58" t="s">
-        <v>108</v>
+      <c r="E58" t="s" s="171">
+        <v>134</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>142</v>
+        <v>189</v>
       </c>
       <c r="B59" t="s">
-        <v>159</v>
-      </c>
-      <c r="C59" s="19" t="s">
-        <v>200</v>
+        <v>207</v>
+      </c>
+      <c r="C59" t="s">
+        <v>192</v>
       </c>
       <c r="D59" t="s">
         <v>6</v>
       </c>
-      <c r="E59" t="s">
-        <v>108</v>
+      <c r="E59" t="s" s="172">
+        <v>134</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="B60" t="s">
-        <v>154</v>
-      </c>
-      <c r="C60" t="s">
-        <v>182</v>
+        <v>156</v>
+      </c>
+      <c r="C60" s="19" t="s">
+        <v>197</v>
       </c>
       <c r="D60" t="s">
         <v>6</v>
       </c>
-      <c r="E60" t="s">
-        <v>108</v>
+      <c r="E60" t="s" s="173">
+        <v>134</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>174</v>
+        <v>150</v>
       </c>
       <c r="B61" t="s">
-        <v>76</v>
+        <v>151</v>
       </c>
       <c r="C61" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="D61" t="s">
-        <v>6</v>
-      </c>
-      <c r="E61" t="s">
-        <v>108</v>
+        <v>179</v>
+      </c>
+      <c r="E61" t="s" s="174">
+        <v>134</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>198</v>
+        <v>171</v>
       </c>
       <c r="B62" t="s">
-        <v>13</v>
-      </c>
-      <c r="C62" s="12" t="s">
-        <v>199</v>
+        <v>76</v>
+      </c>
+      <c r="C62" t="s">
+        <v>180</v>
       </c>
       <c r="D62" t="s">
         <v>6</v>
       </c>
-      <c r="E62" t="s">
-        <v>108</v>
+      <c r="E62" t="s" s="175">
+        <v>134</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="B63" t="s">
-        <v>201</v>
-      </c>
-      <c r="C63" s="44" t="s">
-        <v>184</v>
+        <v>13</v>
+      </c>
+      <c r="C63" s="12" t="s">
+        <v>196</v>
       </c>
       <c r="D63" t="s">
         <v>6</v>
       </c>
-      <c r="E63" t="s">
-        <v>108</v>
+      <c r="E63" t="s" s="176">
+        <v>134</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
+        <v>172</v>
+      </c>
+      <c r="B64" t="s">
         <v>198</v>
       </c>
-      <c r="B64" t="s">
-        <v>13</v>
-      </c>
-      <c r="C64" s="12" t="s">
-        <v>199</v>
+      <c r="C64" s="44" t="s">
+        <v>181</v>
       </c>
       <c r="D64" t="s">
         <v>6</v>
       </c>
-      <c r="E64" t="s">
-        <v>108</v>
+      <c r="E64" t="s" s="177">
+        <v>134</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>176</v>
+        <v>195</v>
       </c>
       <c r="B65" t="s">
-        <v>202</v>
-      </c>
-      <c r="C65" s="44" t="s">
-        <v>185</v>
+        <v>13</v>
+      </c>
+      <c r="C65" s="12" t="s">
+        <v>196</v>
       </c>
       <c r="D65" t="s">
         <v>6</v>
       </c>
-      <c r="E65" t="s">
-        <v>108</v>
+      <c r="E65" t="s" s="178">
+        <v>134</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="B66" t="s">
-        <v>160</v>
-      </c>
-      <c r="C66" s="12" t="s">
-        <v>186</v>
+        <v>199</v>
+      </c>
+      <c r="C66" s="44" t="s">
+        <v>182</v>
       </c>
       <c r="D66" t="s">
         <v>6</v>
       </c>
-      <c r="E66" t="s">
-        <v>108</v>
+      <c r="E66" t="s" s="179">
+        <v>134</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B67" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C67" s="12" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="D67" t="s">
         <v>6</v>
       </c>
-      <c r="E67" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E67" t="s" s="180">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B68" t="s">
-        <v>163</v>
+        <v>158</v>
+      </c>
+      <c r="C68" s="12" t="s">
+        <v>184</v>
       </c>
       <c r="D68" t="s">
         <v>6</v>
       </c>
-      <c r="E68" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E68" t="s" s="181">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>198</v>
+        <v>154</v>
       </c>
       <c r="B69" t="s">
-        <v>13</v>
-      </c>
-      <c r="C69" s="12" t="s">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="D69" t="s">
         <v>6</v>
       </c>
-      <c r="E69" t="s">
-        <v>108</v>
+      <c r="E69" t="s" s="182">
+        <v>134</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>177</v>
+        <v>195</v>
       </c>
       <c r="B70" t="s">
-        <v>203</v>
-      </c>
-      <c r="C70" t="s">
-        <v>183</v>
+        <v>13</v>
+      </c>
+      <c r="C70" s="12" t="s">
+        <v>20</v>
       </c>
       <c r="D70" t="s">
         <v>6</v>
       </c>
-      <c r="E70" t="s">
-        <v>108</v>
+      <c r="E70" t="s" s="183">
+        <v>134</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B71" t="s">
-        <v>204</v>
-      </c>
-      <c r="C71" s="44" t="s">
-        <v>184</v>
+        <v>200</v>
+      </c>
+      <c r="C71" t="s">
+        <v>180</v>
       </c>
       <c r="D71" t="s">
-        <v>6</v>
-      </c>
-      <c r="E71" t="s">
-        <v>108</v>
+        <v>215</v>
+      </c>
+      <c r="E71" t="s" s="184">
+        <v>208</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B72" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C72" s="44" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D72" t="s">
-        <v>6</v>
-      </c>
-      <c r="E72" t="s">
-        <v>108</v>
+        <v>216</v>
+      </c>
+      <c r="E72" t="s" s="185">
+        <v>208</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B73" t="s">
-        <v>162</v>
-      </c>
-      <c r="C73" s="12" t="s">
-        <v>186</v>
+        <v>202</v>
+      </c>
+      <c r="C73" s="44" t="s">
+        <v>182</v>
       </c>
       <c r="D73" t="s">
-        <v>6</v>
-      </c>
-      <c r="E73" t="s">
-        <v>108</v>
+        <v>217</v>
+      </c>
+      <c r="E73" t="s" s="186">
+        <v>208</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B74" t="s">
-        <v>206</v>
+        <v>159</v>
       </c>
       <c r="C74" s="12" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="D74" t="s">
-        <v>6</v>
-      </c>
-      <c r="E74" t="s">
-        <v>108</v>
+        <v>218</v>
+      </c>
+      <c r="E74" t="s" s="187">
+        <v>208</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" s="18" t="s">
+      <c r="A75" t="s">
+        <v>178</v>
+      </c>
+      <c r="B75" t="s">
+        <v>203</v>
+      </c>
+      <c r="C75" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="D75" t="s">
+        <v>218</v>
+      </c>
+      <c r="E75" t="s" s="188">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="B75" s="16" t="s">
+      <c r="B76" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="C75" s="15"/>
-      <c r="D75" t="s">
-        <v>6</v>
-      </c>
-      <c r="E75" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
+      <c r="C76" s="15"/>
+      <c r="D76" t="s">
+        <v>6</v>
+      </c>
+      <c r="E76" t="s" s="189">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
         <v>70</v>
       </c>
-      <c r="D76" t="s">
-        <v>6</v>
-      </c>
-      <c r="E76" t="s">
-        <v>108</v>
+      <c r="D77" t="s">
+        <v>6</v>
+      </c>
+      <c r="E77" t="s" s="190">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -2835,45 +3814,45 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="37" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B2" s="37" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C2" s="37" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
       </c>
       <c r="E2" s="40" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="38" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B3" s="39" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C3" s="10"/>
       <c r="D3" t="s">
         <v>6</v>
       </c>
       <c r="E3" s="41" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="37" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B4" s="37" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C4" s="37" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -2902,7 +3881,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A323026-F006-4D65-9EF7-259196EE06E3}">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
@@ -2945,7 +3924,7 @@
       <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" t="s" s="70">
+      <c r="E2" s="46" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2962,7 +3941,7 @@
       <c r="D3" t="s">
         <v>6</v>
       </c>
-      <c r="E3" t="s" s="71">
+      <c r="E3" s="47" t="s">
         <v>134</v>
       </c>
     </row>
@@ -2979,7 +3958,7 @@
       <c r="D4" t="s">
         <v>6</v>
       </c>
-      <c r="E4" t="s" s="72">
+      <c r="E4" s="48" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2996,7 +3975,7 @@
       <c r="D5" t="s">
         <v>6</v>
       </c>
-      <c r="E5" t="s" s="73">
+      <c r="E5" s="49" t="s">
         <v>134</v>
       </c>
     </row>
@@ -3013,7 +3992,7 @@
       <c r="D6" t="s">
         <v>6</v>
       </c>
-      <c r="E6" t="s" s="74">
+      <c r="E6" s="50" t="s">
         <v>134</v>
       </c>
     </row>
@@ -3030,7 +4009,7 @@
       <c r="D7" t="s">
         <v>6</v>
       </c>
-      <c r="E7" t="s" s="75">
+      <c r="E7" s="51" t="s">
         <v>134</v>
       </c>
     </row>
@@ -3047,7 +4026,7 @@
       <c r="D8" t="s">
         <v>6</v>
       </c>
-      <c r="E8" t="s" s="76">
+      <c r="E8" s="52" t="s">
         <v>134</v>
       </c>
     </row>
@@ -3062,10 +4041,10 @@
         <v>132</v>
       </c>
       <c r="D9" t="s">
-        <v>132</v>
-      </c>
-      <c r="E9" t="s" s="77">
-        <v>134</v>
+        <v>6</v>
+      </c>
+      <c r="E9" s="53" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -3076,13 +4055,13 @@
         <v>23</v>
       </c>
       <c r="C10" s="29" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D10" t="s">
-        <v>135</v>
-      </c>
-      <c r="E10" t="s" s="78">
-        <v>134</v>
+        <v>6</v>
+      </c>
+      <c r="E10" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -3093,13 +4072,13 @@
         <v>26</v>
       </c>
       <c r="C11" s="29" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D11" t="s">
-        <v>136</v>
-      </c>
-      <c r="E11" t="s" s="79">
-        <v>134</v>
+        <v>6</v>
+      </c>
+      <c r="E11" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -3110,13 +4089,13 @@
         <v>27</v>
       </c>
       <c r="C12" s="29" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="D12" t="s">
-        <v>209</v>
-      </c>
-      <c r="E12" t="s" s="80">
-        <v>212</v>
+        <v>6</v>
+      </c>
+      <c r="E12" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -3127,13 +4106,13 @@
         <v>29</v>
       </c>
       <c r="C13" s="29" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D13" t="s">
-        <v>210</v>
-      </c>
-      <c r="E13" t="s" s="81">
-        <v>134</v>
+        <v>6</v>
+      </c>
+      <c r="E13" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -3149,8 +4128,8 @@
       <c r="D14" t="s">
         <v>6</v>
       </c>
-      <c r="E14" t="s" s="82">
-        <v>134</v>
+      <c r="E14" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -3166,8 +4145,8 @@
       <c r="D15" t="s">
         <v>6</v>
       </c>
-      <c r="E15" t="s" s="83">
-        <v>134</v>
+      <c r="E15" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -3177,8 +4156,8 @@
       <c r="D16" t="s">
         <v>6</v>
       </c>
-      <c r="E16" t="s" s="84">
-        <v>107</v>
+      <c r="E16" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>

--- a/TestCasesinExcell/Myhero/Myherotestdata1.xlsx
+++ b/TestCasesinExcell/Myhero/Myherotestdata1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M0137\git\repository3\MultipleBroswers\TestCasesinExcell\Myhero\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02DE414D-8268-4E86-8DB5-6924999BB62A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17DB7EFE-131C-4086-B7C4-B7E613708544}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="937" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="217">
   <si>
     <t>Description</t>
   </si>
@@ -667,12 +667,6 @@
   </si>
   <si>
     <t>ACTIONS</t>
-  </si>
-  <si>
-    <t>na</t>
-  </si>
-  <si>
-    <t>6000</t>
   </si>
   <si>
     <t>India
@@ -790,7 +784,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="234">
+  <fills count="152">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1198,6 +1192,76 @@
       </patternFill>
     </fill>
     <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
       <patternFill>
         <fgColor indexed="50"/>
       </patternFill>
@@ -1469,492 +1533,12 @@
     </fill>
     <fill>
       <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="50"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="50"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="50"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="50"/>
+        <fgColor indexed="52"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="52"/>
       </patternFill>
     </fill>
   </fills>
@@ -1974,7 +1558,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="191">
+  <cellXfs count="157">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2118,13 +1702,20 @@
     <xf numFmtId="0" fontId="0" fillId="79" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="80" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="81" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="83" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="85" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="87" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="89" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="91" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="93" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="95" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="82" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="83" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="84" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="85" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="86" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="87" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="88" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="89" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="90" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="91" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="92" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="93" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="94" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="95" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="97" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="99" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="101" borderId="0" xfId="0" applyFill="true"/>
@@ -2153,47 +1744,6 @@
     <xf numFmtId="0" fontId="0" fillId="147" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="149" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="151" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="153" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="155" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="157" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="159" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="161" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="163" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="165" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="167" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="169" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="171" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="173" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="175" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="177" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="179" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="181" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="183" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="185" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="187" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="189" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="191" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="193" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="195" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="197" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="199" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="201" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="203" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="205" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="207" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="209" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="211" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="213" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="215" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="217" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="219" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="221" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="223" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="225" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="227" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="229" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="231" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="233" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2475,10 +2025,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G77"/>
+  <dimension ref="A1:G76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="B59" sqref="B59"/>
+    <sheetView tabSelected="1" topLeftCell="C73" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2529,7 +2079,7 @@
       <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" t="s" s="115">
+      <c r="E2" t="s" s="129">
         <v>5</v>
       </c>
     </row>
@@ -2544,7 +2094,7 @@
       <c r="D3" t="s">
         <v>6</v>
       </c>
-      <c r="E3" t="s" s="116">
+      <c r="E3" t="s" s="130">
         <v>134</v>
       </c>
     </row>
@@ -2559,7 +2109,7 @@
       <c r="D4" t="s">
         <v>6</v>
       </c>
-      <c r="E4" t="s" s="117">
+      <c r="E4" t="s" s="131">
         <v>9</v>
       </c>
     </row>
@@ -2576,7 +2126,7 @@
       <c r="D5" t="s">
         <v>6</v>
       </c>
-      <c r="E5" t="s" s="118">
+      <c r="E5" t="s" s="132">
         <v>134</v>
       </c>
     </row>
@@ -2593,7 +2143,7 @@
       <c r="D6" t="s">
         <v>6</v>
       </c>
-      <c r="E6" t="s" s="119">
+      <c r="E6" t="s" s="133">
         <v>134</v>
       </c>
     </row>
@@ -2608,7 +2158,7 @@
       <c r="D7" t="s">
         <v>6</v>
       </c>
-      <c r="E7" t="s" s="120">
+      <c r="E7" t="s" s="134">
         <v>134</v>
       </c>
     </row>
@@ -2625,7 +2175,7 @@
       <c r="D8" t="s">
         <v>6</v>
       </c>
-      <c r="E8" t="s" s="121">
+      <c r="E8" t="s" s="135">
         <v>134</v>
       </c>
     </row>
@@ -2642,7 +2192,7 @@
       <c r="D9" t="s">
         <v>132</v>
       </c>
-      <c r="E9" t="s" s="122">
+      <c r="E9" t="s" s="136">
         <v>134</v>
       </c>
     </row>
@@ -2659,7 +2209,7 @@
       <c r="D10" t="s">
         <v>209</v>
       </c>
-      <c r="E10" t="s" s="123">
+      <c r="E10" t="s" s="137">
         <v>208</v>
       </c>
     </row>
@@ -2676,7 +2226,7 @@
       <c r="D11" t="s">
         <v>210</v>
       </c>
-      <c r="E11" t="s" s="124">
+      <c r="E11" t="s" s="138">
         <v>208</v>
       </c>
     </row>
@@ -2693,7 +2243,7 @@
       <c r="D12" t="s">
         <v>211</v>
       </c>
-      <c r="E12" t="s" s="125">
+      <c r="E12" t="s" s="139">
         <v>134</v>
       </c>
     </row>
@@ -2710,7 +2260,7 @@
       <c r="D13" t="s">
         <v>212</v>
       </c>
-      <c r="E13" t="s" s="126">
+      <c r="E13" t="s" s="140">
         <v>134</v>
       </c>
     </row>
@@ -2725,7 +2275,7 @@
       <c r="D14" t="s">
         <v>6</v>
       </c>
-      <c r="E14" t="s" s="127">
+      <c r="E14" t="s" s="141">
         <v>134</v>
       </c>
     </row>
@@ -2742,7 +2292,7 @@
       <c r="D15" t="s">
         <v>6</v>
       </c>
-      <c r="E15" t="s" s="128">
+      <c r="E15" t="s" s="142">
         <v>134</v>
       </c>
     </row>
@@ -2757,7 +2307,7 @@
       <c r="D16" t="s">
         <v>6</v>
       </c>
-      <c r="E16" t="s" s="129">
+      <c r="E16" t="s" s="143">
         <v>123</v>
       </c>
     </row>
@@ -2774,7 +2324,7 @@
       <c r="D17" t="s">
         <v>6</v>
       </c>
-      <c r="E17" t="s" s="130">
+      <c r="E17" t="s" s="144">
         <v>134</v>
       </c>
     </row>
@@ -2791,7 +2341,7 @@
       <c r="D18" t="s">
         <v>6</v>
       </c>
-      <c r="E18" t="s" s="131">
+      <c r="E18" t="s" s="145">
         <v>134</v>
       </c>
     </row>
@@ -2805,7 +2355,7 @@
       <c r="D19" t="s">
         <v>6</v>
       </c>
-      <c r="E19" t="s" s="132">
+      <c r="E19" t="s" s="146">
         <v>134</v>
       </c>
     </row>
@@ -2822,7 +2372,7 @@
       <c r="D20" t="s">
         <v>6</v>
       </c>
-      <c r="E20" t="s" s="133">
+      <c r="E20" t="s" s="147">
         <v>134</v>
       </c>
     </row>
@@ -2839,7 +2389,7 @@
       <c r="D21" t="s">
         <v>6</v>
       </c>
-      <c r="E21" t="s" s="134">
+      <c r="E21" t="s" s="148">
         <v>134</v>
       </c>
     </row>
@@ -2856,7 +2406,7 @@
       <c r="D22" t="s">
         <v>6</v>
       </c>
-      <c r="E22" t="s" s="135">
+      <c r="E22" t="s" s="149">
         <v>134</v>
       </c>
     </row>
@@ -2873,7 +2423,7 @@
       <c r="D23" t="s">
         <v>6</v>
       </c>
-      <c r="E23" t="s" s="136">
+      <c r="E23" t="s" s="150">
         <v>134</v>
       </c>
     </row>
@@ -2890,7 +2440,7 @@
       <c r="D24" t="s">
         <v>6</v>
       </c>
-      <c r="E24" t="s" s="137">
+      <c r="E24" t="s" s="151">
         <v>134</v>
       </c>
     </row>
@@ -2907,7 +2457,7 @@
       <c r="D25" t="s">
         <v>6</v>
       </c>
-      <c r="E25" t="s" s="138">
+      <c r="E25" t="s" s="152">
         <v>134</v>
       </c>
     </row>
@@ -2924,7 +2474,7 @@
       <c r="D26" t="s">
         <v>6</v>
       </c>
-      <c r="E26" t="s" s="139">
+      <c r="E26" t="s" s="153">
         <v>134</v>
       </c>
     </row>
@@ -2941,7 +2491,7 @@
       <c r="D27" t="s">
         <v>6</v>
       </c>
-      <c r="E27" t="s" s="140">
+      <c r="E27" t="s" s="154">
         <v>134</v>
       </c>
     </row>
@@ -2956,7 +2506,7 @@
       <c r="D28" t="s">
         <v>6</v>
       </c>
-      <c r="E28" t="s" s="141">
+      <c r="E28" t="s" s="155">
         <v>126</v>
       </c>
     </row>
@@ -2971,10 +2521,10 @@
         <v>133</v>
       </c>
       <c r="D29" t="s">
-        <v>133</v>
-      </c>
-      <c r="E29" t="s" s="142">
-        <v>134</v>
+        <v>6</v>
+      </c>
+      <c r="E29" t="s" s="156">
+        <v>109</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -2990,8 +2540,8 @@
       <c r="D30" t="s">
         <v>6</v>
       </c>
-      <c r="E30" t="s" s="143">
-        <v>134</v>
+      <c r="E30" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -3007,8 +2557,8 @@
       <c r="D31" t="s">
         <v>6</v>
       </c>
-      <c r="E31" t="s" s="144">
-        <v>134</v>
+      <c r="E31" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -3024,8 +2574,8 @@
       <c r="D32" t="s">
         <v>6</v>
       </c>
-      <c r="E32" t="s" s="145">
-        <v>134</v>
+      <c r="E32" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -3041,8 +2591,8 @@
       <c r="D33" t="s">
         <v>6</v>
       </c>
-      <c r="E33" t="s" s="146">
-        <v>134</v>
+      <c r="E33" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -3058,8 +2608,8 @@
       <c r="D34" t="s">
         <v>6</v>
       </c>
-      <c r="E34" t="s" s="147">
-        <v>134</v>
+      <c r="E34" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -3075,8 +2625,8 @@
       <c r="D35" t="s">
         <v>6</v>
       </c>
-      <c r="E35" t="s" s="148">
-        <v>134</v>
+      <c r="E35" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -3092,8 +2642,8 @@
       <c r="D36" t="s">
         <v>6</v>
       </c>
-      <c r="E36" t="s" s="149">
-        <v>134</v>
+      <c r="E36" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -3109,8 +2659,8 @@
       <c r="D37" t="s">
         <v>6</v>
       </c>
-      <c r="E37" t="s" s="150">
-        <v>134</v>
+      <c r="E37" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -3126,8 +2676,8 @@
       <c r="D38" t="s">
         <v>6</v>
       </c>
-      <c r="E38" t="s" s="151">
-        <v>134</v>
+      <c r="E38" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -3143,8 +2693,8 @@
       <c r="D39" t="s">
         <v>6</v>
       </c>
-      <c r="E39" t="s" s="152">
-        <v>134</v>
+      <c r="E39" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -3157,8 +2707,8 @@
       <c r="D40" t="s">
         <v>6</v>
       </c>
-      <c r="E40" t="s" s="153">
-        <v>134</v>
+      <c r="E40" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -3174,8 +2724,8 @@
       <c r="D41" t="s">
         <v>6</v>
       </c>
-      <c r="E41" t="s" s="154">
-        <v>134</v>
+      <c r="E41" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -3191,8 +2741,8 @@
       <c r="D42" t="s">
         <v>6</v>
       </c>
-      <c r="E42" t="s" s="155">
-        <v>134</v>
+      <c r="E42" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -3208,8 +2758,8 @@
       <c r="D43" t="s">
         <v>6</v>
       </c>
-      <c r="E43" t="s" s="156">
-        <v>134</v>
+      <c r="E43" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -3225,8 +2775,8 @@
       <c r="D44" t="s">
         <v>6</v>
       </c>
-      <c r="E44" t="s" s="157">
-        <v>134</v>
+      <c r="E44" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -3240,8 +2790,8 @@
       <c r="D45" t="s">
         <v>6</v>
       </c>
-      <c r="E45" t="s" s="158">
-        <v>134</v>
+      <c r="E45" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -3254,8 +2804,8 @@
       <c r="D46" t="s">
         <v>6</v>
       </c>
-      <c r="E46" t="s" s="159">
-        <v>126</v>
+      <c r="E46" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -3269,10 +2819,10 @@
         <v>131</v>
       </c>
       <c r="D47" t="s">
-        <v>131</v>
-      </c>
-      <c r="E47" t="s" s="160">
-        <v>134</v>
+        <v>6</v>
+      </c>
+      <c r="E47" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -3285,8 +2835,8 @@
       <c r="D48" t="s">
         <v>6</v>
       </c>
-      <c r="E48" t="s" s="161">
-        <v>134</v>
+      <c r="E48" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3302,8 +2852,8 @@
       <c r="D49" t="s">
         <v>6</v>
       </c>
-      <c r="E49" t="s" s="162">
-        <v>134</v>
+      <c r="E49" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -3319,8 +2869,8 @@
       <c r="D50" t="s">
         <v>6</v>
       </c>
-      <c r="E50" t="s" s="163">
-        <v>134</v>
+      <c r="E50" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -3336,436 +2886,419 @@
       <c r="D51" t="s">
         <v>6</v>
       </c>
-      <c r="E51" t="s" s="164">
-        <v>134</v>
+      <c r="E51" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="B52" t="s">
-        <v>213</v>
-      </c>
-      <c r="C52" s="19" t="s">
-        <v>214</v>
+        <v>207</v>
+      </c>
+      <c r="C52" t="s">
+        <v>193</v>
       </c>
       <c r="D52" t="s">
         <v>6</v>
       </c>
-      <c r="E52" t="s" s="165">
-        <v>134</v>
+      <c r="E52" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>188</v>
+        <v>139</v>
       </c>
       <c r="B53" t="s">
-        <v>207</v>
-      </c>
-      <c r="C53" t="s">
-        <v>193</v>
+        <v>155</v>
+      </c>
+      <c r="C53" s="19" t="s">
+        <v>140</v>
       </c>
       <c r="D53" t="s">
         <v>6</v>
       </c>
-      <c r="E53" t="s" s="166">
-        <v>134</v>
+      <c r="E53" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B54" t="s">
-        <v>155</v>
-      </c>
-      <c r="C54" s="19" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D54" t="s">
         <v>6</v>
       </c>
-      <c r="E54" t="s" s="167">
-        <v>134</v>
+      <c r="E54" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>135</v>
-      </c>
-      <c r="B55" t="s">
-        <v>136</v>
+      <c r="A55" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="B55" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="C55" s="29" t="s">
+        <v>20</v>
       </c>
       <c r="D55" t="s">
         <v>6</v>
       </c>
-      <c r="E55" t="s" s="168">
-        <v>134</v>
+      <c r="E55" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="B56" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="C56" s="29" t="s">
-        <v>20</v>
+      <c r="A56" t="s">
+        <v>194</v>
+      </c>
+      <c r="B56" t="s">
+        <v>74</v>
+      </c>
+      <c r="C56" s="15" t="s">
+        <v>190</v>
       </c>
       <c r="D56" t="s">
         <v>6</v>
       </c>
-      <c r="E56" t="s" s="169">
-        <v>134</v>
+      <c r="E56" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>194</v>
+        <v>170</v>
       </c>
       <c r="B57" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C57" s="15" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D57" t="s">
         <v>6</v>
       </c>
-      <c r="E57" t="s" s="170">
-        <v>134</v>
+      <c r="E57" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="B58" t="s">
-        <v>75</v>
-      </c>
-      <c r="C58" s="15" t="s">
-        <v>191</v>
+        <v>207</v>
+      </c>
+      <c r="C58" t="s">
+        <v>192</v>
       </c>
       <c r="D58" t="s">
         <v>6</v>
       </c>
-      <c r="E58" t="s" s="171">
-        <v>134</v>
+      <c r="E58" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>189</v>
+        <v>139</v>
       </c>
       <c r="B59" t="s">
-        <v>207</v>
-      </c>
-      <c r="C59" t="s">
-        <v>192</v>
+        <v>156</v>
+      </c>
+      <c r="C59" s="19" t="s">
+        <v>197</v>
       </c>
       <c r="D59" t="s">
         <v>6</v>
       </c>
-      <c r="E59" t="s" s="172">
-        <v>134</v>
+      <c r="E59" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="B60" t="s">
-        <v>156</v>
-      </c>
-      <c r="C60" s="19" t="s">
-        <v>197</v>
+        <v>151</v>
+      </c>
+      <c r="C60" t="s">
+        <v>179</v>
       </c>
       <c r="D60" t="s">
         <v>6</v>
       </c>
-      <c r="E60" t="s" s="173">
-        <v>134</v>
+      <c r="E60" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>150</v>
+        <v>171</v>
       </c>
       <c r="B61" t="s">
-        <v>151</v>
+        <v>76</v>
       </c>
       <c r="C61" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D61" t="s">
-        <v>179</v>
-      </c>
-      <c r="E61" t="s" s="174">
-        <v>134</v>
+        <v>6</v>
+      </c>
+      <c r="E61" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>171</v>
+        <v>195</v>
       </c>
       <c r="B62" t="s">
-        <v>76</v>
-      </c>
-      <c r="C62" t="s">
-        <v>180</v>
+        <v>13</v>
+      </c>
+      <c r="C62" s="12" t="s">
+        <v>196</v>
       </c>
       <c r="D62" t="s">
         <v>6</v>
       </c>
-      <c r="E62" t="s" s="175">
-        <v>134</v>
+      <c r="E62" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>195</v>
+        <v>172</v>
       </c>
       <c r="B63" t="s">
-        <v>13</v>
-      </c>
-      <c r="C63" s="12" t="s">
-        <v>196</v>
+        <v>198</v>
+      </c>
+      <c r="C63" s="44" t="s">
+        <v>181</v>
       </c>
       <c r="D63" t="s">
         <v>6</v>
       </c>
-      <c r="E63" t="s" s="176">
-        <v>134</v>
+      <c r="E63" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>172</v>
+        <v>195</v>
       </c>
       <c r="B64" t="s">
-        <v>198</v>
-      </c>
-      <c r="C64" s="44" t="s">
-        <v>181</v>
+        <v>13</v>
+      </c>
+      <c r="C64" s="12" t="s">
+        <v>196</v>
       </c>
       <c r="D64" t="s">
         <v>6</v>
       </c>
-      <c r="E64" t="s" s="177">
-        <v>134</v>
+      <c r="E64" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>195</v>
+        <v>173</v>
       </c>
       <c r="B65" t="s">
-        <v>13</v>
-      </c>
-      <c r="C65" s="12" t="s">
-        <v>196</v>
+        <v>199</v>
+      </c>
+      <c r="C65" s="44" t="s">
+        <v>182</v>
       </c>
       <c r="D65" t="s">
         <v>6</v>
       </c>
-      <c r="E65" t="s" s="178">
-        <v>134</v>
+      <c r="E65" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>173</v>
+        <v>152</v>
       </c>
       <c r="B66" t="s">
-        <v>199</v>
-      </c>
-      <c r="C66" s="44" t="s">
-        <v>182</v>
+        <v>157</v>
+      </c>
+      <c r="C66" s="12" t="s">
+        <v>183</v>
       </c>
       <c r="D66" t="s">
         <v>6</v>
       </c>
-      <c r="E66" t="s" s="179">
-        <v>134</v>
+      <c r="E66" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B67" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C67" s="12" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D67" t="s">
         <v>6</v>
       </c>
-      <c r="E67" t="s" s="180">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E67" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B68" t="s">
-        <v>158</v>
-      </c>
-      <c r="C68" s="12" t="s">
-        <v>184</v>
+        <v>160</v>
       </c>
       <c r="D68" t="s">
         <v>6</v>
       </c>
-      <c r="E68" t="s" s="181">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E68" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>154</v>
+        <v>195</v>
       </c>
       <c r="B69" t="s">
-        <v>160</v>
+        <v>13</v>
+      </c>
+      <c r="C69" s="12" t="s">
+        <v>20</v>
       </c>
       <c r="D69" t="s">
         <v>6</v>
       </c>
-      <c r="E69" t="s" s="182">
-        <v>134</v>
+      <c r="E69" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>195</v>
+        <v>174</v>
       </c>
       <c r="B70" t="s">
-        <v>13</v>
-      </c>
-      <c r="C70" s="12" t="s">
-        <v>20</v>
+        <v>200</v>
+      </c>
+      <c r="C70" t="s">
+        <v>180</v>
       </c>
       <c r="D70" t="s">
         <v>6</v>
       </c>
-      <c r="E70" t="s" s="183">
-        <v>134</v>
+      <c r="E70" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B71" t="s">
-        <v>200</v>
-      </c>
-      <c r="C71" t="s">
-        <v>180</v>
+        <v>201</v>
+      </c>
+      <c r="C71" s="44" t="s">
+        <v>181</v>
       </c>
       <c r="D71" t="s">
-        <v>215</v>
-      </c>
-      <c r="E71" t="s" s="184">
-        <v>208</v>
+        <v>6</v>
+      </c>
+      <c r="E71" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B72" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C72" s="44" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D72" t="s">
-        <v>216</v>
-      </c>
-      <c r="E72" t="s" s="185">
-        <v>208</v>
+        <v>6</v>
+      </c>
+      <c r="E72" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B73" t="s">
-        <v>202</v>
-      </c>
-      <c r="C73" s="44" t="s">
-        <v>182</v>
+        <v>159</v>
+      </c>
+      <c r="C73" s="12" t="s">
+        <v>183</v>
       </c>
       <c r="D73" t="s">
-        <v>217</v>
-      </c>
-      <c r="E73" t="s" s="186">
-        <v>208</v>
+        <v>6</v>
+      </c>
+      <c r="E73" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B74" t="s">
-        <v>159</v>
+        <v>203</v>
       </c>
       <c r="C74" s="12" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D74" t="s">
-        <v>218</v>
-      </c>
-      <c r="E74" t="s" s="187">
-        <v>208</v>
+        <v>6</v>
+      </c>
+      <c r="E74" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>178</v>
-      </c>
-      <c r="B75" t="s">
-        <v>203</v>
-      </c>
-      <c r="C75" s="12" t="s">
-        <v>184</v>
-      </c>
+      <c r="A75" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="B75" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="C75" s="15"/>
       <c r="D75" t="s">
-        <v>218</v>
-      </c>
-      <c r="E75" t="s" s="188">
-        <v>208</v>
+        <v>6</v>
+      </c>
+      <c r="E75" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="B76" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="C76" s="15"/>
+      <c r="A76" t="s">
+        <v>70</v>
+      </c>
       <c r="D76" t="s">
         <v>6</v>
       </c>
-      <c r="E76" t="s" s="189">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>70</v>
-      </c>
-      <c r="D77" t="s">
-        <v>6</v>
-      </c>
-      <c r="E77" t="s" s="190">
-        <v>70</v>
+      <c r="E76" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>

--- a/TestCasesinExcell/Myhero/Myherotestdata1.xlsx
+++ b/TestCasesinExcell/Myhero/Myherotestdata1.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1230" uniqueCount="217">
   <si>
     <t>Description</t>
   </si>
@@ -784,7 +784,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="152">
+  <fills count="254">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1529,6 +1529,516 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="52"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="52"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
       </patternFill>
     </fill>
     <fill>
@@ -1558,7 +2068,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="157">
+  <cellXfs count="208">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1744,6 +2254,57 @@
     <xf numFmtId="0" fontId="0" fillId="147" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="149" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="151" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="153" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="155" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="157" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="159" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="161" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="163" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="165" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="167" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="169" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="171" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="173" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="175" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="177" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="179" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="181" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="183" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="185" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="187" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="189" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="191" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="193" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="195" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="197" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="199" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="201" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="203" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="205" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="207" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="209" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="211" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="213" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="215" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="217" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="219" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="221" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="223" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="225" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="227" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="229" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="231" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="233" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="235" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="237" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="239" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="241" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="243" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="245" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="247" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="249" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="251" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="253" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2079,7 +2640,7 @@
       <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" t="s" s="129">
+      <c r="E2" t="s" s="157">
         <v>5</v>
       </c>
     </row>
@@ -2094,7 +2655,7 @@
       <c r="D3" t="s">
         <v>6</v>
       </c>
-      <c r="E3" t="s" s="130">
+      <c r="E3" t="s" s="158">
         <v>134</v>
       </c>
     </row>
@@ -2109,7 +2670,7 @@
       <c r="D4" t="s">
         <v>6</v>
       </c>
-      <c r="E4" t="s" s="131">
+      <c r="E4" t="s" s="159">
         <v>9</v>
       </c>
     </row>
@@ -2126,7 +2687,7 @@
       <c r="D5" t="s">
         <v>6</v>
       </c>
-      <c r="E5" t="s" s="132">
+      <c r="E5" t="s" s="160">
         <v>134</v>
       </c>
     </row>
@@ -2143,7 +2704,7 @@
       <c r="D6" t="s">
         <v>6</v>
       </c>
-      <c r="E6" t="s" s="133">
+      <c r="E6" t="s" s="161">
         <v>134</v>
       </c>
     </row>
@@ -2158,7 +2719,7 @@
       <c r="D7" t="s">
         <v>6</v>
       </c>
-      <c r="E7" t="s" s="134">
+      <c r="E7" t="s" s="162">
         <v>134</v>
       </c>
     </row>
@@ -2175,7 +2736,7 @@
       <c r="D8" t="s">
         <v>6</v>
       </c>
-      <c r="E8" t="s" s="135">
+      <c r="E8" t="s" s="163">
         <v>134</v>
       </c>
     </row>
@@ -2192,7 +2753,7 @@
       <c r="D9" t="s">
         <v>132</v>
       </c>
-      <c r="E9" t="s" s="136">
+      <c r="E9" t="s" s="164">
         <v>134</v>
       </c>
     </row>
@@ -2209,7 +2770,7 @@
       <c r="D10" t="s">
         <v>209</v>
       </c>
-      <c r="E10" t="s" s="137">
+      <c r="E10" t="s" s="165">
         <v>208</v>
       </c>
     </row>
@@ -2226,7 +2787,7 @@
       <c r="D11" t="s">
         <v>210</v>
       </c>
-      <c r="E11" t="s" s="138">
+      <c r="E11" t="s" s="166">
         <v>208</v>
       </c>
     </row>
@@ -2243,7 +2804,7 @@
       <c r="D12" t="s">
         <v>211</v>
       </c>
-      <c r="E12" t="s" s="139">
+      <c r="E12" t="s" s="167">
         <v>134</v>
       </c>
     </row>
@@ -2260,7 +2821,7 @@
       <c r="D13" t="s">
         <v>212</v>
       </c>
-      <c r="E13" t="s" s="140">
+      <c r="E13" t="s" s="168">
         <v>134</v>
       </c>
     </row>
@@ -2275,7 +2836,7 @@
       <c r="D14" t="s">
         <v>6</v>
       </c>
-      <c r="E14" t="s" s="141">
+      <c r="E14" t="s" s="169">
         <v>134</v>
       </c>
     </row>
@@ -2292,7 +2853,7 @@
       <c r="D15" t="s">
         <v>6</v>
       </c>
-      <c r="E15" t="s" s="142">
+      <c r="E15" t="s" s="170">
         <v>134</v>
       </c>
     </row>
@@ -2307,7 +2868,7 @@
       <c r="D16" t="s">
         <v>6</v>
       </c>
-      <c r="E16" t="s" s="143">
+      <c r="E16" t="s" s="171">
         <v>123</v>
       </c>
     </row>
@@ -2324,7 +2885,7 @@
       <c r="D17" t="s">
         <v>6</v>
       </c>
-      <c r="E17" t="s" s="144">
+      <c r="E17" t="s" s="172">
         <v>134</v>
       </c>
     </row>
@@ -2341,7 +2902,7 @@
       <c r="D18" t="s">
         <v>6</v>
       </c>
-      <c r="E18" t="s" s="145">
+      <c r="E18" t="s" s="173">
         <v>134</v>
       </c>
     </row>
@@ -2355,7 +2916,7 @@
       <c r="D19" t="s">
         <v>6</v>
       </c>
-      <c r="E19" t="s" s="146">
+      <c r="E19" t="s" s="174">
         <v>134</v>
       </c>
     </row>
@@ -2372,7 +2933,7 @@
       <c r="D20" t="s">
         <v>6</v>
       </c>
-      <c r="E20" t="s" s="147">
+      <c r="E20" t="s" s="175">
         <v>134</v>
       </c>
     </row>
@@ -2389,7 +2950,7 @@
       <c r="D21" t="s">
         <v>6</v>
       </c>
-      <c r="E21" t="s" s="148">
+      <c r="E21" t="s" s="176">
         <v>134</v>
       </c>
     </row>
@@ -2406,7 +2967,7 @@
       <c r="D22" t="s">
         <v>6</v>
       </c>
-      <c r="E22" t="s" s="149">
+      <c r="E22" t="s" s="177">
         <v>134</v>
       </c>
     </row>
@@ -2423,7 +2984,7 @@
       <c r="D23" t="s">
         <v>6</v>
       </c>
-      <c r="E23" t="s" s="150">
+      <c r="E23" t="s" s="178">
         <v>134</v>
       </c>
     </row>
@@ -2440,7 +3001,7 @@
       <c r="D24" t="s">
         <v>6</v>
       </c>
-      <c r="E24" t="s" s="151">
+      <c r="E24" t="s" s="179">
         <v>134</v>
       </c>
     </row>
@@ -2457,7 +3018,7 @@
       <c r="D25" t="s">
         <v>6</v>
       </c>
-      <c r="E25" t="s" s="152">
+      <c r="E25" t="s" s="180">
         <v>134</v>
       </c>
     </row>
@@ -2474,7 +3035,7 @@
       <c r="D26" t="s">
         <v>6</v>
       </c>
-      <c r="E26" t="s" s="153">
+      <c r="E26" t="s" s="181">
         <v>134</v>
       </c>
     </row>
@@ -2491,7 +3052,7 @@
       <c r="D27" t="s">
         <v>6</v>
       </c>
-      <c r="E27" t="s" s="154">
+      <c r="E27" t="s" s="182">
         <v>134</v>
       </c>
     </row>
@@ -2506,7 +3067,7 @@
       <c r="D28" t="s">
         <v>6</v>
       </c>
-      <c r="E28" t="s" s="155">
+      <c r="E28" t="s" s="183">
         <v>126</v>
       </c>
     </row>
@@ -2521,10 +3082,10 @@
         <v>133</v>
       </c>
       <c r="D29" t="s">
-        <v>6</v>
-      </c>
-      <c r="E29" t="s" s="156">
-        <v>109</v>
+        <v>133</v>
+      </c>
+      <c r="E29" t="s" s="184">
+        <v>134</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -2540,8 +3101,8 @@
       <c r="D30" t="s">
         <v>6</v>
       </c>
-      <c r="E30" t="s">
-        <v>108</v>
+      <c r="E30" t="s" s="185">
+        <v>134</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -2557,8 +3118,8 @@
       <c r="D31" t="s">
         <v>6</v>
       </c>
-      <c r="E31" t="s">
-        <v>108</v>
+      <c r="E31" t="s" s="186">
+        <v>134</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -2574,8 +3135,8 @@
       <c r="D32" t="s">
         <v>6</v>
       </c>
-      <c r="E32" t="s">
-        <v>108</v>
+      <c r="E32" t="s" s="187">
+        <v>134</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -2591,8 +3152,8 @@
       <c r="D33" t="s">
         <v>6</v>
       </c>
-      <c r="E33" t="s">
-        <v>108</v>
+      <c r="E33" t="s" s="188">
+        <v>134</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -2608,8 +3169,8 @@
       <c r="D34" t="s">
         <v>6</v>
       </c>
-      <c r="E34" t="s">
-        <v>108</v>
+      <c r="E34" t="s" s="189">
+        <v>134</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -2625,8 +3186,8 @@
       <c r="D35" t="s">
         <v>6</v>
       </c>
-      <c r="E35" t="s">
-        <v>108</v>
+      <c r="E35" t="s" s="190">
+        <v>134</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -2642,8 +3203,8 @@
       <c r="D36" t="s">
         <v>6</v>
       </c>
-      <c r="E36" t="s">
-        <v>108</v>
+      <c r="E36" t="s" s="191">
+        <v>134</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -2659,8 +3220,8 @@
       <c r="D37" t="s">
         <v>6</v>
       </c>
-      <c r="E37" t="s">
-        <v>108</v>
+      <c r="E37" t="s" s="192">
+        <v>134</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -2676,8 +3237,8 @@
       <c r="D38" t="s">
         <v>6</v>
       </c>
-      <c r="E38" t="s">
-        <v>108</v>
+      <c r="E38" t="s" s="193">
+        <v>134</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -2693,8 +3254,8 @@
       <c r="D39" t="s">
         <v>6</v>
       </c>
-      <c r="E39" t="s">
-        <v>108</v>
+      <c r="E39" t="s" s="194">
+        <v>134</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -2707,8 +3268,8 @@
       <c r="D40" t="s">
         <v>6</v>
       </c>
-      <c r="E40" t="s">
-        <v>108</v>
+      <c r="E40" t="s" s="195">
+        <v>134</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -2724,8 +3285,8 @@
       <c r="D41" t="s">
         <v>6</v>
       </c>
-      <c r="E41" t="s">
-        <v>108</v>
+      <c r="E41" t="s" s="196">
+        <v>134</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -2741,8 +3302,8 @@
       <c r="D42" t="s">
         <v>6</v>
       </c>
-      <c r="E42" t="s">
-        <v>108</v>
+      <c r="E42" t="s" s="197">
+        <v>134</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -2758,8 +3319,8 @@
       <c r="D43" t="s">
         <v>6</v>
       </c>
-      <c r="E43" t="s">
-        <v>108</v>
+      <c r="E43" t="s" s="198">
+        <v>134</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -2775,8 +3336,8 @@
       <c r="D44" t="s">
         <v>6</v>
       </c>
-      <c r="E44" t="s">
-        <v>108</v>
+      <c r="E44" t="s" s="199">
+        <v>134</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -2790,8 +3351,8 @@
       <c r="D45" t="s">
         <v>6</v>
       </c>
-      <c r="E45" t="s">
-        <v>108</v>
+      <c r="E45" t="s" s="200">
+        <v>134</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -2804,8 +3365,8 @@
       <c r="D46" t="s">
         <v>6</v>
       </c>
-      <c r="E46" t="s">
-        <v>108</v>
+      <c r="E46" t="s" s="201">
+        <v>126</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -2819,10 +3380,10 @@
         <v>131</v>
       </c>
       <c r="D47" t="s">
-        <v>6</v>
-      </c>
-      <c r="E47" t="s">
-        <v>108</v>
+        <v>131</v>
+      </c>
+      <c r="E47" t="s" s="202">
+        <v>134</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -2835,8 +3396,8 @@
       <c r="D48" t="s">
         <v>6</v>
       </c>
-      <c r="E48" t="s">
-        <v>108</v>
+      <c r="E48" t="s" s="203">
+        <v>134</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2852,8 +3413,8 @@
       <c r="D49" t="s">
         <v>6</v>
       </c>
-      <c r="E49" t="s">
-        <v>108</v>
+      <c r="E49" t="s" s="204">
+        <v>134</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -2869,8 +3430,8 @@
       <c r="D50" t="s">
         <v>6</v>
       </c>
-      <c r="E50" t="s">
-        <v>108</v>
+      <c r="E50" t="s" s="205">
+        <v>134</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -2886,8 +3447,8 @@
       <c r="D51" t="s">
         <v>6</v>
       </c>
-      <c r="E51" t="s">
-        <v>108</v>
+      <c r="E51" t="s" s="206">
+        <v>134</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -2903,8 +3464,8 @@
       <c r="D52" t="s">
         <v>6</v>
       </c>
-      <c r="E52" t="s">
-        <v>108</v>
+      <c r="E52" t="s" s="207">
+        <v>109</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">

--- a/TestCasesinExcell/Myhero/Myherotestdata1.xlsx
+++ b/TestCasesinExcell/Myhero/Myherotestdata1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20375"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M0137\git\repository3\MultipleBroswers\TestCasesinExcell\Myhero\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC.DESKTOP-Q8L0TS6\Documents\GitHub\MultipleBroswers\TestCasesinExcell\Myhero\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17DB7EFE-131C-4086-B7C4-B7E613708544}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4A6AE1A-0D11-4B70-BABF-04BEE6AFC879}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GeneralInsurance" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1230" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="207">
   <si>
     <t>Description</t>
   </si>
@@ -477,9 +477,6 @@
     <t>apk</t>
   </si>
   <si>
-    <t>Take myhero apk</t>
-  </si>
-  <si>
     <t>Validate Address Details</t>
   </si>
   <si>
@@ -652,44 +649,13 @@
   </si>
   <si>
     <t>//input[@type='file']</t>
-  </si>
-  <si>
-    <t>FAIL</t>
-  </si>
-  <si>
-    <t>MY CASES</t>
-  </si>
-  <si>
-    <t>MY TASKS</t>
-  </si>
-  <si>
-    <t>REPORTS</t>
-  </si>
-  <si>
-    <t>ACTIONS</t>
-  </si>
-  <si>
-    <t>India
-India</t>
-  </si>
-  <si>
-    <t>Andhra Pradesh
-Andhra Pradesh</t>
-  </si>
-  <si>
-    <t>AMARAVATHI
-AMARAVATHI</t>
-  </si>
-  <si>
-    <t/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="13">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -784,7 +750,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="254">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -824,26 +790,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="52"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="50"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="50"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="50"/>
       </patternFill>
     </fill>
     <fill>
@@ -893,1162 +839,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="50"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="50"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="50"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="50"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="50"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
         <fgColor indexed="50"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="50"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="50"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="50"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="50"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="50"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="50"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="50"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="52"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="52"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="50"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="50"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="50"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="50"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="50"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="50"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="50"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="50"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="50"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="50"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="52"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="52"/>
       </patternFill>
     </fill>
   </fills>
@@ -2068,7 +864,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="208">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2135,14 +931,14 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
@@ -2150,161 +946,6 @@
     <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="50" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="51" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="52" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="53" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="54" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="55" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="56" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="57" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="58" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="60" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="61" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="62" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="63" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="64" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="65" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="66" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="67" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="69" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="70" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="71" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="72" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="73" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="74" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="75" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="76" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="77" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="78" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="79" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="80" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="81" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="82" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="83" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="84" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="85" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="86" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="87" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="88" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="89" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="90" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="91" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="92" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="93" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="94" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="95" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="97" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="99" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="101" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="103" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="105" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="107" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="109" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="111" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="113" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="115" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="117" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="119" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="121" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="123" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="125" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="127" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="129" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="131" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="133" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="135" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="137" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="139" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="141" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="143" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="145" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="147" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="149" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="151" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="153" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="155" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="157" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="159" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="161" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="163" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="165" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="167" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="169" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="171" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="173" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="175" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="177" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="179" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="181" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="183" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="185" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="187" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="189" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="191" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="193" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="195" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="197" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="199" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="201" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="203" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="205" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="207" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="209" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="211" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="213" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="215" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="217" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="219" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="221" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="223" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="225" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="227" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="229" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="231" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="233" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="235" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="237" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="239" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="241" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="243" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="245" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="247" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="249" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="251" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="253" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2588,46 +1229,46 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C73" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+    <sheetView topLeftCell="C13" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
       <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="26.5703125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="83.85546875" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="75.140625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="30.85546875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="21.28515625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="13.42578125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="8" max="16384" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="26.54296875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="83.81640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="75.1796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="30.81640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="21.26953125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="13.453125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="11.26953125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="16384" width="9.1796875" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="45" t="s">
+      <c r="C1" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="45" t="s">
+      <c r="D1" s="41" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="F1" s="41" t="s">
         <v>185</v>
       </c>
-      <c r="F1" s="45" t="s">
+      <c r="G1" s="41" t="s">
         <v>186</v>
       </c>
-      <c r="G1" s="45" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="27" t="s">
         <v>5</v>
       </c>
@@ -2640,11 +1281,11 @@
       <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" t="s" s="157">
+      <c r="E2" s="50" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="27" t="s">
         <v>7</v>
       </c>
@@ -2655,11 +1296,11 @@
       <c r="D3" t="s">
         <v>6</v>
       </c>
-      <c r="E3" t="s" s="158">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
         <v>9</v>
       </c>
@@ -2670,11 +1311,11 @@
       <c r="D4" t="s">
         <v>6</v>
       </c>
-      <c r="E4" t="s" s="159">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="27" t="s">
         <v>10</v>
       </c>
@@ -2687,11 +1328,11 @@
       <c r="D5" t="s">
         <v>6</v>
       </c>
-      <c r="E5" t="s" s="160">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="27" t="s">
         <v>11</v>
       </c>
@@ -2704,11 +1345,11 @@
       <c r="D6" t="s">
         <v>6</v>
       </c>
-      <c r="E6" t="s" s="161">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="27" t="s">
         <v>12</v>
       </c>
@@ -2719,11 +1360,11 @@
       <c r="D7" t="s">
         <v>6</v>
       </c>
-      <c r="E7" t="s" s="162">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="27" t="s">
         <v>13</v>
       </c>
@@ -2736,11 +1377,11 @@
       <c r="D8" t="s">
         <v>6</v>
       </c>
-      <c r="E8" t="s" s="163">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="27" t="s">
         <v>22</v>
       </c>
@@ -2751,13 +1392,13 @@
         <v>132</v>
       </c>
       <c r="D9" t="s">
-        <v>132</v>
-      </c>
-      <c r="E9" t="s" s="164">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="E9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="27" t="s">
         <v>24</v>
       </c>
@@ -2765,16 +1406,16 @@
         <v>23</v>
       </c>
       <c r="C10" s="29" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D10" t="s">
-        <v>209</v>
-      </c>
-      <c r="E10" t="s" s="165">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="E10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="27" t="s">
         <v>25</v>
       </c>
@@ -2782,16 +1423,16 @@
         <v>26</v>
       </c>
       <c r="C11" s="29" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D11" t="s">
-        <v>210</v>
-      </c>
-      <c r="E11" t="s" s="166">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="E11" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="27" t="s">
         <v>28</v>
       </c>
@@ -2802,13 +1443,13 @@
         <v>143</v>
       </c>
       <c r="D12" t="s">
-        <v>211</v>
-      </c>
-      <c r="E12" t="s" s="167">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="E12" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="27" t="s">
         <v>30</v>
       </c>
@@ -2819,13 +1460,13 @@
         <v>144</v>
       </c>
       <c r="D13" t="s">
-        <v>212</v>
-      </c>
-      <c r="E13" t="s" s="168">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="E13" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="27" t="s">
         <v>14</v>
       </c>
@@ -2836,11 +1477,11 @@
       <c r="D14" t="s">
         <v>6</v>
       </c>
-      <c r="E14" t="s" s="169">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E14" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>13</v>
       </c>
@@ -2853,11 +1494,11 @@
       <c r="D15" t="s">
         <v>6</v>
       </c>
-      <c r="E15" t="s" s="170">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E15" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="22" t="s">
         <v>123</v>
       </c>
@@ -2868,11 +1509,11 @@
       <c r="D16" t="s">
         <v>6</v>
       </c>
-      <c r="E16" t="s" s="171">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E16" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="27" t="s">
         <v>15</v>
       </c>
@@ -2885,11 +1526,11 @@
       <c r="D17" t="s">
         <v>6</v>
       </c>
-      <c r="E17" t="s" s="172">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E17" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="27" t="s">
         <v>13</v>
       </c>
@@ -2902,11 +1543,11 @@
       <c r="D18" t="s">
         <v>6</v>
       </c>
-      <c r="E18" t="s" s="173">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E18" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="27" t="s">
         <v>34</v>
       </c>
@@ -2916,11 +1557,11 @@
       <c r="D19" t="s">
         <v>6</v>
       </c>
-      <c r="E19" t="s" s="174">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E19" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="27" t="s">
         <v>13</v>
       </c>
@@ -2933,13 +1574,13 @@
       <c r="D20" t="s">
         <v>6</v>
       </c>
-      <c r="E20" t="s" s="175">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E20" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="31" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B21" s="32" t="s">
         <v>71</v>
@@ -2950,13 +1591,13 @@
       <c r="D21" t="s">
         <v>6</v>
       </c>
-      <c r="E21" t="s" s="176">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E21" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="33" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B22" s="32" t="s">
         <v>72</v>
@@ -2967,13 +1608,13 @@
       <c r="D22" t="s">
         <v>6</v>
       </c>
-      <c r="E22" t="s" s="177">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E22" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="31" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B23" t="s">
         <v>74</v>
@@ -2984,13 +1625,13 @@
       <c r="D23" t="s">
         <v>6</v>
       </c>
-      <c r="E23" t="s" s="178">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E23" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="33" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B24" t="s">
         <v>75</v>
@@ -3001,13 +1642,13 @@
       <c r="D24" t="s">
         <v>6</v>
       </c>
-      <c r="E24" t="s" s="179">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E24" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="33" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B25" t="s">
         <v>76</v>
@@ -3018,11 +1659,11 @@
       <c r="D25" t="s">
         <v>6</v>
       </c>
-      <c r="E25" t="s" s="180">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E25" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="33" t="s">
         <v>80</v>
       </c>
@@ -3035,11 +1676,11 @@
       <c r="D26" t="s">
         <v>6</v>
       </c>
-      <c r="E26" t="s" s="181">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E26" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="27" t="s">
         <v>13</v>
       </c>
@@ -3052,11 +1693,11 @@
       <c r="D27" t="s">
         <v>6</v>
       </c>
-      <c r="E27" t="s" s="182">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E27" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="22" t="s">
         <v>126</v>
       </c>
@@ -3067,11 +1708,11 @@
       <c r="D28" t="s">
         <v>6</v>
       </c>
-      <c r="E28" t="s" s="183">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E28" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="24" t="s">
         <v>83</v>
       </c>
@@ -3082,13 +1723,13 @@
         <v>133</v>
       </c>
       <c r="D29" t="s">
-        <v>133</v>
-      </c>
-      <c r="E29" t="s" s="184">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="E29" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>84</v>
       </c>
@@ -3101,11 +1742,11 @@
       <c r="D30" t="s">
         <v>6</v>
       </c>
-      <c r="E30" t="s" s="185">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E30" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>86</v>
       </c>
@@ -3118,11 +1759,11 @@
       <c r="D31" t="s">
         <v>6</v>
       </c>
-      <c r="E31" t="s" s="186">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E31" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>87</v>
       </c>
@@ -3135,11 +1776,11 @@
       <c r="D32" t="s">
         <v>6</v>
       </c>
-      <c r="E32" t="s" s="187">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E32" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="18" t="s">
         <v>88</v>
       </c>
@@ -3152,11 +1793,11 @@
       <c r="D33" t="s">
         <v>6</v>
       </c>
-      <c r="E33" t="s" s="188">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E33" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="27" t="s">
         <v>13</v>
       </c>
@@ -3169,11 +1810,11 @@
       <c r="D34" t="s">
         <v>6</v>
       </c>
-      <c r="E34" t="s" s="189">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E34" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>95</v>
       </c>
@@ -3186,11 +1827,11 @@
       <c r="D35" t="s">
         <v>6</v>
       </c>
-      <c r="E35" t="s" s="190">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E35" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>101</v>
       </c>
@@ -3203,11 +1844,11 @@
       <c r="D36" t="s">
         <v>6</v>
       </c>
-      <c r="E36" t="s" s="191">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E36" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>102</v>
       </c>
@@ -3220,11 +1861,11 @@
       <c r="D37" t="s">
         <v>6</v>
       </c>
-      <c r="E37" t="s" s="192">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E37" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>103</v>
       </c>
@@ -3237,13 +1878,13 @@
       <c r="D38" t="s">
         <v>6</v>
       </c>
-      <c r="E38" t="s" s="193">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E38" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" s="18" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B39" s="18" t="s">
         <v>111</v>
@@ -3254,11 +1895,11 @@
       <c r="D39" t="s">
         <v>6</v>
       </c>
-      <c r="E39" t="s" s="194">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E39" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" s="18" t="s">
         <v>113</v>
       </c>
@@ -3268,11 +1909,11 @@
       <c r="D40" t="s">
         <v>6</v>
       </c>
-      <c r="E40" t="s" s="195">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E40" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" s="18" t="s">
         <v>115</v>
       </c>
@@ -3285,13 +1926,13 @@
       <c r="D41" t="s">
         <v>6</v>
       </c>
-      <c r="E41" t="s" s="196">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E41" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" s="18" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B42" s="18" t="s">
         <v>117</v>
@@ -3302,13 +1943,13 @@
       <c r="D42" t="s">
         <v>6</v>
       </c>
-      <c r="E42" t="s" s="197">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E42" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" s="18" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B43" t="s">
         <v>119</v>
@@ -3319,13 +1960,13 @@
       <c r="D43" t="s">
         <v>6</v>
       </c>
-      <c r="E43" t="s" s="198">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E43" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" s="18" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B44" t="s">
         <v>121</v>
@@ -3336,11 +1977,11 @@
       <c r="D44" t="s">
         <v>6</v>
       </c>
-      <c r="E44" t="s" s="199">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E44" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" s="18" t="s">
         <v>80</v>
       </c>
@@ -3351,11 +1992,11 @@
       <c r="D45" t="s">
         <v>6</v>
       </c>
-      <c r="E45" t="s" s="200">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E45" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" s="22" t="s">
         <v>126</v>
       </c>
@@ -3365,11 +2006,11 @@
       <c r="D46" t="s">
         <v>6</v>
       </c>
-      <c r="E46" t="s" s="201">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E46" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>129</v>
       </c>
@@ -3380,13 +2021,13 @@
         <v>131</v>
       </c>
       <c r="D47" t="s">
-        <v>131</v>
-      </c>
-      <c r="E47" t="s" s="202">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="E47" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>135</v>
       </c>
@@ -3396,11 +2037,11 @@
       <c r="D48" t="s">
         <v>6</v>
       </c>
-      <c r="E48" t="s" s="203">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E48" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="27" t="s">
         <v>13</v>
       </c>
@@ -3413,13 +2054,13 @@
       <c r="D49" t="s">
         <v>6</v>
       </c>
-      <c r="E49" t="s" s="204">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E49" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B50" t="s">
         <v>71</v>
@@ -3430,13 +2071,13 @@
       <c r="D50" t="s">
         <v>6</v>
       </c>
-      <c r="E50" t="s" s="205">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E50" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B51" t="s">
         <v>72</v>
@@ -3447,33 +2088,33 @@
       <c r="D51" t="s">
         <v>6</v>
       </c>
-      <c r="E51" t="s" s="206">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E51" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B52" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C52" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D52" t="s">
         <v>6</v>
       </c>
-      <c r="E52" t="s" s="207">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E52" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>139</v>
       </c>
       <c r="B53" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C53" s="19" t="s">
         <v>140</v>
@@ -3485,7 +2126,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>135</v>
       </c>
@@ -3499,7 +2140,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" s="27" t="s">
         <v>13</v>
       </c>
@@ -3516,15 +2157,15 @@
         <v>108</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B56" t="s">
         <v>74</v>
       </c>
       <c r="C56" s="15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D56" t="s">
         <v>6</v>
@@ -3533,33 +2174,33 @@
         <v>108</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B57" t="s">
         <v>75</v>
       </c>
       <c r="C57" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="D57" t="s">
+        <v>6</v>
+      </c>
+      <c r="E57" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>188</v>
+      </c>
+      <c r="B58" t="s">
+        <v>206</v>
+      </c>
+      <c r="C58" t="s">
         <v>191</v>
       </c>
-      <c r="D57" t="s">
-        <v>6</v>
-      </c>
-      <c r="E57" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>189</v>
-      </c>
-      <c r="B58" t="s">
-        <v>207</v>
-      </c>
-      <c r="C58" t="s">
-        <v>192</v>
-      </c>
       <c r="D58" t="s">
         <v>6</v>
       </c>
@@ -3567,15 +2208,15 @@
         <v>108</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>139</v>
       </c>
       <c r="B59" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C59" s="19" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D59" t="s">
         <v>6</v>
@@ -3584,15 +2225,15 @@
         <v>108</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
+        <v>149</v>
+      </c>
+      <c r="B60" t="s">
         <v>150</v>
       </c>
-      <c r="B60" t="s">
-        <v>151</v>
-      </c>
       <c r="C60" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D60" t="s">
         <v>6</v>
@@ -3601,15 +2242,15 @@
         <v>108</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B61" t="s">
         <v>76</v>
       </c>
       <c r="C61" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D61" t="s">
         <v>6</v>
@@ -3618,15 +2259,15 @@
         <v>108</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B62" t="s">
         <v>13</v>
       </c>
       <c r="C62" s="12" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D62" t="s">
         <v>6</v>
@@ -3635,15 +2276,15 @@
         <v>108</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B63" t="s">
-        <v>198</v>
-      </c>
-      <c r="C63" s="44" t="s">
-        <v>181</v>
+        <v>197</v>
+      </c>
+      <c r="C63" s="40" t="s">
+        <v>180</v>
       </c>
       <c r="D63" t="s">
         <v>6</v>
@@ -3652,15 +2293,15 @@
         <v>108</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B64" t="s">
         <v>13</v>
       </c>
       <c r="C64" s="12" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D64" t="s">
         <v>6</v>
@@ -3669,63 +2310,63 @@
         <v>108</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B65" t="s">
-        <v>199</v>
-      </c>
-      <c r="C65" s="44" t="s">
+        <v>198</v>
+      </c>
+      <c r="C65" s="40" t="s">
+        <v>181</v>
+      </c>
+      <c r="D65" t="s">
+        <v>6</v>
+      </c>
+      <c r="E65" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>151</v>
+      </c>
+      <c r="B66" t="s">
+        <v>156</v>
+      </c>
+      <c r="C66" s="12" t="s">
         <v>182</v>
       </c>
-      <c r="D65" t="s">
-        <v>6</v>
-      </c>
-      <c r="E65" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
+      <c r="D66" t="s">
+        <v>6</v>
+      </c>
+      <c r="E66" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
         <v>152</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B67" t="s">
         <v>157</v>
       </c>
-      <c r="C66" s="12" t="s">
+      <c r="C67" s="12" t="s">
         <v>183</v>
       </c>
-      <c r="D66" t="s">
-        <v>6</v>
-      </c>
-      <c r="E66" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
+      <c r="D67" t="s">
+        <v>6</v>
+      </c>
+      <c r="E67" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
         <v>153</v>
       </c>
-      <c r="B67" t="s">
-        <v>158</v>
-      </c>
-      <c r="C67" s="12" t="s">
-        <v>184</v>
-      </c>
-      <c r="D67" t="s">
-        <v>6</v>
-      </c>
-      <c r="E67" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>154</v>
-      </c>
       <c r="B68" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D68" t="s">
         <v>6</v>
@@ -3734,9 +2375,9 @@
         <v>108</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B69" t="s">
         <v>13</v>
@@ -3751,84 +2392,84 @@
         <v>108</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
+        <v>173</v>
+      </c>
+      <c r="B70" t="s">
+        <v>199</v>
+      </c>
+      <c r="C70" t="s">
+        <v>179</v>
+      </c>
+      <c r="D70" t="s">
+        <v>6</v>
+      </c>
+      <c r="E70" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
         <v>174</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B71" t="s">
         <v>200</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C71" s="40" t="s">
         <v>180</v>
       </c>
-      <c r="D70" t="s">
-        <v>6</v>
-      </c>
-      <c r="E70" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
+      <c r="D71" t="s">
+        <v>6</v>
+      </c>
+      <c r="E71" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
         <v>175</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B72" t="s">
         <v>201</v>
       </c>
-      <c r="C71" s="44" t="s">
+      <c r="C72" s="40" t="s">
         <v>181</v>
       </c>
-      <c r="D71" t="s">
-        <v>6</v>
-      </c>
-      <c r="E71" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
+      <c r="D72" t="s">
+        <v>6</v>
+      </c>
+      <c r="E72" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
         <v>176</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B73" t="s">
+        <v>158</v>
+      </c>
+      <c r="C73" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="D73" t="s">
+        <v>6</v>
+      </c>
+      <c r="E73" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>177</v>
+      </c>
+      <c r="B74" t="s">
         <v>202</v>
       </c>
-      <c r="C72" s="44" t="s">
-        <v>182</v>
-      </c>
-      <c r="D72" t="s">
-        <v>6</v>
-      </c>
-      <c r="E72" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>177</v>
-      </c>
-      <c r="B73" t="s">
-        <v>159</v>
-      </c>
-      <c r="C73" s="12" t="s">
+      <c r="C74" s="12" t="s">
         <v>183</v>
       </c>
-      <c r="D73" t="s">
-        <v>6</v>
-      </c>
-      <c r="E73" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>178</v>
-      </c>
-      <c r="B74" t="s">
-        <v>203</v>
-      </c>
-      <c r="C74" s="12" t="s">
-        <v>184</v>
-      </c>
       <c r="D74" t="s">
         <v>6</v>
       </c>
@@ -3836,7 +2477,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75" s="18" t="s">
         <v>80</v>
       </c>
@@ -3851,7 +2492,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>70</v>
       </c>
@@ -3875,21 +2516,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E1B0D16-7702-4E2D-A433-8917A7C95725}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="24.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="35.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="8.7109375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="6" max="16384" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="24.26953125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="35.453125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="8.7265625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14.26953125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="16384" width="9.1796875" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -3906,7 +2547,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="37" t="s">
         <v>145</v>
       </c>
@@ -3919,11 +2560,11 @@
       <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="40" t="s">
+      <c r="E2" s="51" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="38" t="s">
         <v>146</v>
       </c>
@@ -3934,13 +2575,13 @@
       <c r="D3" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="41" t="s">
+      <c r="E3" s="52" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="37" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B4" s="37" t="s">
         <v>148</v>
@@ -3951,19 +2592,19 @@
       <c r="D4" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="42" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>70</v>
       </c>
       <c r="D5" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="43" t="s">
-        <v>70</v>
+      <c r="E5" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -3979,16 +2620,16 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="46.85546875" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="17.7109375" collapsed="true"/>
+    <col min="1" max="1" width="21" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="46.81640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14.1796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14.26953125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="17.7265625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4005,7 +2646,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="27" t="s">
         <v>5</v>
       </c>
@@ -4018,11 +2659,11 @@
       <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="46" t="s">
+      <c r="E2" s="42" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="27" t="s">
         <v>7</v>
       </c>
@@ -4035,11 +2676,11 @@
       <c r="D3" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="47" t="s">
+      <c r="E3" s="43" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
         <v>9</v>
       </c>
@@ -4052,11 +2693,11 @@
       <c r="D4" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="48" t="s">
+      <c r="E4" s="44" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="27" t="s">
         <v>10</v>
       </c>
@@ -4069,11 +2710,11 @@
       <c r="D5" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="49" t="s">
+      <c r="E5" s="45" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="27" t="s">
         <v>11</v>
       </c>
@@ -4086,11 +2727,11 @@
       <c r="D6" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="50" t="s">
+      <c r="E6" s="46" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="27" t="s">
         <v>12</v>
       </c>
@@ -4103,11 +2744,11 @@
       <c r="D7" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="51" t="s">
+      <c r="E7" s="47" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="27" t="s">
         <v>13</v>
       </c>
@@ -4120,11 +2761,11 @@
       <c r="D8" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="52" t="s">
+      <c r="E8" s="48" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="27" t="s">
         <v>22</v>
       </c>
@@ -4137,11 +2778,11 @@
       <c r="D9" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="53" t="s">
+      <c r="E9" s="49" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="27" t="s">
         <v>24</v>
       </c>
@@ -4158,7 +2799,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="27" t="s">
         <v>25</v>
       </c>
@@ -4175,7 +2816,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="27" t="s">
         <v>28</v>
       </c>
@@ -4183,7 +2824,7 @@
         <v>27</v>
       </c>
       <c r="C12" s="29" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D12" t="s">
         <v>6</v>
@@ -4192,7 +2833,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="27" t="s">
         <v>30</v>
       </c>
@@ -4209,7 +2850,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="27" t="s">
         <v>14</v>
       </c>
@@ -4226,7 +2867,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>13</v>
       </c>
@@ -4243,7 +2884,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="27" t="s">
         <v>107</v>
       </c>
@@ -4271,17 +2912,17 @@
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="48.85546875" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="29.85546875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="18.0" collapsed="true"/>
-    <col min="6" max="7" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="21" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="48.81640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="29.81640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14.26953125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="18" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="7" width="9.1796875" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -4298,7 +2939,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="10" t="s">
         <v>36</v>
       </c>
@@ -4315,7 +2956,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="35" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" s="35" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="35" t="s">
         <v>38</v>
       </c>
@@ -4332,7 +2973,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>40</v>
       </c>
@@ -4349,7 +2990,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>43</v>
       </c>
@@ -4366,7 +3007,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>45</v>
       </c>
@@ -4383,7 +3024,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>48</v>
       </c>
@@ -4400,7 +3041,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>51</v>
       </c>
@@ -4417,7 +3058,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -4434,7 +3075,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>55</v>
       </c>
@@ -4451,7 +3092,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>58</v>
       </c>
@@ -4468,7 +3109,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>60</v>
       </c>
@@ -4485,7 +3126,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>62</v>
       </c>
@@ -4502,7 +3143,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>64</v>
       </c>
@@ -4519,7 +3160,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="14" t="s">
         <v>70</v>
       </c>

--- a/TestCasesinExcell/Myhero/Myherotestdata1.xlsx
+++ b/TestCasesinExcell/Myhero/Myherotestdata1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20375"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC.DESKTOP-Q8L0TS6\Documents\GitHub\MultipleBroswers\TestCasesinExcell\Myhero\"/>
     </mc:Choice>
@@ -20,7 +20,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1025" uniqueCount="207">
   <si>
     <t>Description</t>
   </si>
@@ -655,7 +655,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -750,7 +751,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="20">
+  <fills count="128">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -839,6 +840,546 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
         <fgColor indexed="50"/>
       </patternFill>
     </fill>
@@ -864,7 +1405,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -946,6 +1487,60 @@
     <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="51" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="53" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="55" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="57" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="61" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="63" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="65" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="67" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="69" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="71" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="73" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="75" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="77" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="79" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="81" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="83" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="85" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="87" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="89" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="91" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="93" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="95" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="97" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="99" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="101" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="103" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="105" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="107" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="109" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="111" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="113" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="115" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="117" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="119" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="121" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="123" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="125" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="127" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1235,14 +1830,14 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="26.54296875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="83.81640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="75.1796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="30.81640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="21.26953125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="13.453125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="11.26953125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="16384" width="9.1796875" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="26.54296875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="83.81640625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="75.1796875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="30.81640625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="21.26953125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="13.453125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="11.26953125" collapsed="true"/>
+    <col min="8" max="16384" width="9.1796875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
@@ -2522,12 +3117,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.26953125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.453125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="8.7265625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.26953125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="16384" width="9.1796875" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="24.26953125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="35.453125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="8.7265625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="14.26953125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="6" max="16384" width="9.1796875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
@@ -2560,7 +3155,7 @@
       <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="51" t="s">
+      <c r="E2" t="s" s="105">
         <v>145</v>
       </c>
     </row>
@@ -2575,7 +3170,7 @@
       <c r="D3" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="52" t="s">
+      <c r="E3" t="s" s="106">
         <v>146</v>
       </c>
     </row>
@@ -2622,11 +3217,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="46.81640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.1796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.26953125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="17.7265625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="46.81640625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="14.1796875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="14.26953125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="17.7265625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
@@ -2914,12 +3509,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="48.81640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="29.81640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.26953125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="18" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="7" width="9.1796875" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="48.81640625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="29.81640625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="14.26953125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="6" max="7" width="9.1796875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">

--- a/TestCasesinExcell/Myhero/Myherotestdata1.xlsx
+++ b/TestCasesinExcell/Myhero/Myherotestdata1.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1025" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1079" uniqueCount="207">
   <si>
     <t>Description</t>
   </si>
@@ -751,7 +751,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="128">
+  <fills count="140">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -840,6 +840,66 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
         <fgColor indexed="50"/>
       </patternFill>
     </fill>
@@ -1405,7 +1465,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1541,6 +1601,12 @@
     <xf numFmtId="0" fontId="0" fillId="123" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="125" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="127" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="129" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="131" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="133" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="135" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="137" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="139" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3155,7 +3221,7 @@
       <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" t="s" s="105">
+      <c r="E2" t="s" s="111">
         <v>145</v>
       </c>
     </row>
@@ -3170,7 +3236,7 @@
       <c r="D3" t="s">
         <v>6</v>
       </c>
-      <c r="E3" t="s" s="106">
+      <c r="E3" t="s" s="112">
         <v>146</v>
       </c>
     </row>

--- a/TestCasesinExcell/Myhero/Myherotestdata1.xlsx
+++ b/TestCasesinExcell/Myhero/Myherotestdata1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20375"/>
   <workbookPr/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M0137\git\repository3\MultipleBroswers\TestCasesinExcell\Myhero\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC.DESKTOP-Q8L0TS6\Documents\GitHub\MultipleBroswers\TestCasesinExcell\Myhero\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17DB7EFE-131C-4086-B7C4-B7E613708544}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4A6AE1A-0D11-4B70-BABF-04BEE6AFC879}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GeneralInsurance" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1079" uniqueCount="207">
   <si>
     <t>Description</t>
   </si>
@@ -477,9 +477,6 @@
     <t>apk</t>
   </si>
   <si>
-    <t>Take myhero apk</t>
-  </si>
-  <si>
     <t>Validate Address Details</t>
   </si>
   <si>
@@ -652,36 +649,6 @@
   </si>
   <si>
     <t>//input[@type='file']</t>
-  </si>
-  <si>
-    <t>FAIL</t>
-  </si>
-  <si>
-    <t>MY CASES</t>
-  </si>
-  <si>
-    <t>MY TASKS</t>
-  </si>
-  <si>
-    <t>REPORTS</t>
-  </si>
-  <si>
-    <t>ACTIONS</t>
-  </si>
-  <si>
-    <t>India
-India</t>
-  </si>
-  <si>
-    <t>Andhra Pradesh
-Andhra Pradesh</t>
-  </si>
-  <si>
-    <t>AMARAVATHI
-AMARAVATHI</t>
-  </si>
-  <si>
-    <t/>
   </si>
 </sst>
 </file>
@@ -784,7 +751,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="152">
+  <fills count="140">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -833,11 +800,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="50"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="42"/>
       </patternFill>
     </fill>
@@ -848,21 +810,11 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="50"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="42"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="50"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="42"/>
       </patternFill>
     </fill>
@@ -878,11 +830,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="52"/>
       </patternFill>
     </fill>
@@ -893,652 +840,612 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="50"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="50"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="50"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="50"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="50"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="50"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="50"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="50"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="50"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="50"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="50"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="50"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="50"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="52"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="52"/>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
       </patternFill>
     </fill>
   </fills>
@@ -1558,7 +1465,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="157">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1625,14 +1532,14 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
@@ -1640,82 +1547,44 @@
     <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="50" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="51" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="52" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="53" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="54" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="55" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="56" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="57" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="58" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="60" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="61" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="62" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="63" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="64" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="65" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="66" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="67" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="69" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="70" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="71" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="72" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="73" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="74" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="75" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="76" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="77" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="78" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="79" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="80" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="81" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="82" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="83" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="84" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="85" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="86" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="87" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="88" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="89" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="90" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="91" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="92" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="93" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="94" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="95" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="51" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="53" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="55" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="57" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="61" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="63" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="65" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="67" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="69" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="71" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="73" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="75" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="77" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="79" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="81" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="83" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="85" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="87" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="89" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="91" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="93" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="95" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="97" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="99" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="101" borderId="0" xfId="0" applyFill="true"/>
@@ -1738,12 +1607,6 @@
     <xf numFmtId="0" fontId="0" fillId="135" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="137" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="139" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="141" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="143" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="145" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="147" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="149" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="151" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2027,46 +1890,46 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C73" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+    <sheetView topLeftCell="C13" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
       <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="26.5703125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="83.85546875" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="75.140625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="30.85546875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="21.28515625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="13.42578125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="8" max="16384" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="26.54296875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="83.81640625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="75.1796875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="30.81640625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="21.26953125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="13.453125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="11.26953125" collapsed="true"/>
+    <col min="8" max="16384" width="9.1796875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="45" t="s">
+      <c r="C1" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="45" t="s">
+      <c r="D1" s="41" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="F1" s="41" t="s">
         <v>185</v>
       </c>
-      <c r="F1" s="45" t="s">
+      <c r="G1" s="41" t="s">
         <v>186</v>
       </c>
-      <c r="G1" s="45" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="27" t="s">
         <v>5</v>
       </c>
@@ -2079,11 +1942,11 @@
       <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" t="s" s="129">
+      <c r="E2" s="50" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="27" t="s">
         <v>7</v>
       </c>
@@ -2094,11 +1957,11 @@
       <c r="D3" t="s">
         <v>6</v>
       </c>
-      <c r="E3" t="s" s="130">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
         <v>9</v>
       </c>
@@ -2109,11 +1972,11 @@
       <c r="D4" t="s">
         <v>6</v>
       </c>
-      <c r="E4" t="s" s="131">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="27" t="s">
         <v>10</v>
       </c>
@@ -2126,11 +1989,11 @@
       <c r="D5" t="s">
         <v>6</v>
       </c>
-      <c r="E5" t="s" s="132">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="27" t="s">
         <v>11</v>
       </c>
@@ -2143,11 +2006,11 @@
       <c r="D6" t="s">
         <v>6</v>
       </c>
-      <c r="E6" t="s" s="133">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="27" t="s">
         <v>12</v>
       </c>
@@ -2158,11 +2021,11 @@
       <c r="D7" t="s">
         <v>6</v>
       </c>
-      <c r="E7" t="s" s="134">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="27" t="s">
         <v>13</v>
       </c>
@@ -2175,11 +2038,11 @@
       <c r="D8" t="s">
         <v>6</v>
       </c>
-      <c r="E8" t="s" s="135">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="27" t="s">
         <v>22</v>
       </c>
@@ -2190,13 +2053,13 @@
         <v>132</v>
       </c>
       <c r="D9" t="s">
-        <v>132</v>
-      </c>
-      <c r="E9" t="s" s="136">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="E9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="27" t="s">
         <v>24</v>
       </c>
@@ -2204,16 +2067,16 @@
         <v>23</v>
       </c>
       <c r="C10" s="29" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D10" t="s">
-        <v>209</v>
-      </c>
-      <c r="E10" t="s" s="137">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="E10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="27" t="s">
         <v>25</v>
       </c>
@@ -2221,16 +2084,16 @@
         <v>26</v>
       </c>
       <c r="C11" s="29" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D11" t="s">
-        <v>210</v>
-      </c>
-      <c r="E11" t="s" s="138">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="E11" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="27" t="s">
         <v>28</v>
       </c>
@@ -2241,13 +2104,13 @@
         <v>143</v>
       </c>
       <c r="D12" t="s">
-        <v>211</v>
-      </c>
-      <c r="E12" t="s" s="139">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="E12" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="27" t="s">
         <v>30</v>
       </c>
@@ -2258,13 +2121,13 @@
         <v>144</v>
       </c>
       <c r="D13" t="s">
-        <v>212</v>
-      </c>
-      <c r="E13" t="s" s="140">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="E13" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="27" t="s">
         <v>14</v>
       </c>
@@ -2275,11 +2138,11 @@
       <c r="D14" t="s">
         <v>6</v>
       </c>
-      <c r="E14" t="s" s="141">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E14" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>13</v>
       </c>
@@ -2292,11 +2155,11 @@
       <c r="D15" t="s">
         <v>6</v>
       </c>
-      <c r="E15" t="s" s="142">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E15" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="22" t="s">
         <v>123</v>
       </c>
@@ -2307,11 +2170,11 @@
       <c r="D16" t="s">
         <v>6</v>
       </c>
-      <c r="E16" t="s" s="143">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E16" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="27" t="s">
         <v>15</v>
       </c>
@@ -2324,11 +2187,11 @@
       <c r="D17" t="s">
         <v>6</v>
       </c>
-      <c r="E17" t="s" s="144">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E17" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="27" t="s">
         <v>13</v>
       </c>
@@ -2341,11 +2204,11 @@
       <c r="D18" t="s">
         <v>6</v>
       </c>
-      <c r="E18" t="s" s="145">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E18" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="27" t="s">
         <v>34</v>
       </c>
@@ -2355,11 +2218,11 @@
       <c r="D19" t="s">
         <v>6</v>
       </c>
-      <c r="E19" t="s" s="146">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E19" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="27" t="s">
         <v>13</v>
       </c>
@@ -2372,13 +2235,13 @@
       <c r="D20" t="s">
         <v>6</v>
       </c>
-      <c r="E20" t="s" s="147">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E20" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="31" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B21" s="32" t="s">
         <v>71</v>
@@ -2389,13 +2252,13 @@
       <c r="D21" t="s">
         <v>6</v>
       </c>
-      <c r="E21" t="s" s="148">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E21" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="33" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B22" s="32" t="s">
         <v>72</v>
@@ -2406,13 +2269,13 @@
       <c r="D22" t="s">
         <v>6</v>
       </c>
-      <c r="E22" t="s" s="149">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E22" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="31" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B23" t="s">
         <v>74</v>
@@ -2423,13 +2286,13 @@
       <c r="D23" t="s">
         <v>6</v>
       </c>
-      <c r="E23" t="s" s="150">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E23" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="33" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B24" t="s">
         <v>75</v>
@@ -2440,13 +2303,13 @@
       <c r="D24" t="s">
         <v>6</v>
       </c>
-      <c r="E24" t="s" s="151">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E24" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="33" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B25" t="s">
         <v>76</v>
@@ -2457,11 +2320,11 @@
       <c r="D25" t="s">
         <v>6</v>
       </c>
-      <c r="E25" t="s" s="152">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E25" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="33" t="s">
         <v>80</v>
       </c>
@@ -2474,11 +2337,11 @@
       <c r="D26" t="s">
         <v>6</v>
       </c>
-      <c r="E26" t="s" s="153">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E26" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="27" t="s">
         <v>13</v>
       </c>
@@ -2491,11 +2354,11 @@
       <c r="D27" t="s">
         <v>6</v>
       </c>
-      <c r="E27" t="s" s="154">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E27" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="22" t="s">
         <v>126</v>
       </c>
@@ -2506,11 +2369,11 @@
       <c r="D28" t="s">
         <v>6</v>
       </c>
-      <c r="E28" t="s" s="155">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E28" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="24" t="s">
         <v>83</v>
       </c>
@@ -2523,11 +2386,11 @@
       <c r="D29" t="s">
         <v>6</v>
       </c>
-      <c r="E29" t="s" s="156">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E29" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>84</v>
       </c>
@@ -2544,7 +2407,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>86</v>
       </c>
@@ -2561,7 +2424,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>87</v>
       </c>
@@ -2578,7 +2441,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="18" t="s">
         <v>88</v>
       </c>
@@ -2595,7 +2458,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="27" t="s">
         <v>13</v>
       </c>
@@ -2612,7 +2475,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>95</v>
       </c>
@@ -2629,7 +2492,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>101</v>
       </c>
@@ -2646,7 +2509,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>102</v>
       </c>
@@ -2663,7 +2526,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>103</v>
       </c>
@@ -2680,9 +2543,9 @@
         <v>108</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" s="18" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B39" s="18" t="s">
         <v>111</v>
@@ -2697,7 +2560,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" s="18" t="s">
         <v>113</v>
       </c>
@@ -2711,7 +2574,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" s="18" t="s">
         <v>115</v>
       </c>
@@ -2728,9 +2591,9 @@
         <v>108</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" s="18" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B42" s="18" t="s">
         <v>117</v>
@@ -2745,9 +2608,9 @@
         <v>108</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" s="18" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B43" t="s">
         <v>119</v>
@@ -2762,9 +2625,9 @@
         <v>108</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" s="18" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B44" t="s">
         <v>121</v>
@@ -2779,7 +2642,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" s="18" t="s">
         <v>80</v>
       </c>
@@ -2794,7 +2657,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" s="22" t="s">
         <v>126</v>
       </c>
@@ -2808,7 +2671,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>129</v>
       </c>
@@ -2825,7 +2688,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>135</v>
       </c>
@@ -2839,7 +2702,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="27" t="s">
         <v>13</v>
       </c>
@@ -2856,9 +2719,9 @@
         <v>108</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B50" t="s">
         <v>71</v>
@@ -2873,9 +2736,9 @@
         <v>108</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B51" t="s">
         <v>72</v>
@@ -2890,15 +2753,15 @@
         <v>108</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B52" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C52" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D52" t="s">
         <v>6</v>
@@ -2907,12 +2770,12 @@
         <v>108</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>139</v>
       </c>
       <c r="B53" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C53" s="19" t="s">
         <v>140</v>
@@ -2924,7 +2787,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>135</v>
       </c>
@@ -2938,7 +2801,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" s="27" t="s">
         <v>13</v>
       </c>
@@ -2955,15 +2818,15 @@
         <v>108</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B56" t="s">
         <v>74</v>
       </c>
       <c r="C56" s="15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D56" t="s">
         <v>6</v>
@@ -2972,33 +2835,33 @@
         <v>108</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B57" t="s">
         <v>75</v>
       </c>
       <c r="C57" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="D57" t="s">
+        <v>6</v>
+      </c>
+      <c r="E57" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>188</v>
+      </c>
+      <c r="B58" t="s">
+        <v>206</v>
+      </c>
+      <c r="C58" t="s">
         <v>191</v>
       </c>
-      <c r="D57" t="s">
-        <v>6</v>
-      </c>
-      <c r="E57" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>189</v>
-      </c>
-      <c r="B58" t="s">
-        <v>207</v>
-      </c>
-      <c r="C58" t="s">
-        <v>192</v>
-      </c>
       <c r="D58" t="s">
         <v>6</v>
       </c>
@@ -3006,15 +2869,15 @@
         <v>108</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>139</v>
       </c>
       <c r="B59" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C59" s="19" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D59" t="s">
         <v>6</v>
@@ -3023,15 +2886,15 @@
         <v>108</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
+        <v>149</v>
+      </c>
+      <c r="B60" t="s">
         <v>150</v>
       </c>
-      <c r="B60" t="s">
-        <v>151</v>
-      </c>
       <c r="C60" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D60" t="s">
         <v>6</v>
@@ -3040,15 +2903,15 @@
         <v>108</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B61" t="s">
         <v>76</v>
       </c>
       <c r="C61" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D61" t="s">
         <v>6</v>
@@ -3057,15 +2920,15 @@
         <v>108</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B62" t="s">
         <v>13</v>
       </c>
       <c r="C62" s="12" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D62" t="s">
         <v>6</v>
@@ -3074,15 +2937,15 @@
         <v>108</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B63" t="s">
-        <v>198</v>
-      </c>
-      <c r="C63" s="44" t="s">
-        <v>181</v>
+        <v>197</v>
+      </c>
+      <c r="C63" s="40" t="s">
+        <v>180</v>
       </c>
       <c r="D63" t="s">
         <v>6</v>
@@ -3091,15 +2954,15 @@
         <v>108</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B64" t="s">
         <v>13</v>
       </c>
       <c r="C64" s="12" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D64" t="s">
         <v>6</v>
@@ -3108,63 +2971,63 @@
         <v>108</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B65" t="s">
-        <v>199</v>
-      </c>
-      <c r="C65" s="44" t="s">
+        <v>198</v>
+      </c>
+      <c r="C65" s="40" t="s">
+        <v>181</v>
+      </c>
+      <c r="D65" t="s">
+        <v>6</v>
+      </c>
+      <c r="E65" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>151</v>
+      </c>
+      <c r="B66" t="s">
+        <v>156</v>
+      </c>
+      <c r="C66" s="12" t="s">
         <v>182</v>
       </c>
-      <c r="D65" t="s">
-        <v>6</v>
-      </c>
-      <c r="E65" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
+      <c r="D66" t="s">
+        <v>6</v>
+      </c>
+      <c r="E66" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
         <v>152</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B67" t="s">
         <v>157</v>
       </c>
-      <c r="C66" s="12" t="s">
+      <c r="C67" s="12" t="s">
         <v>183</v>
       </c>
-      <c r="D66" t="s">
-        <v>6</v>
-      </c>
-      <c r="E66" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
+      <c r="D67" t="s">
+        <v>6</v>
+      </c>
+      <c r="E67" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
         <v>153</v>
       </c>
-      <c r="B67" t="s">
-        <v>158</v>
-      </c>
-      <c r="C67" s="12" t="s">
-        <v>184</v>
-      </c>
-      <c r="D67" t="s">
-        <v>6</v>
-      </c>
-      <c r="E67" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>154</v>
-      </c>
       <c r="B68" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D68" t="s">
         <v>6</v>
@@ -3173,9 +3036,9 @@
         <v>108</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B69" t="s">
         <v>13</v>
@@ -3190,84 +3053,84 @@
         <v>108</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
+        <v>173</v>
+      </c>
+      <c r="B70" t="s">
+        <v>199</v>
+      </c>
+      <c r="C70" t="s">
+        <v>179</v>
+      </c>
+      <c r="D70" t="s">
+        <v>6</v>
+      </c>
+      <c r="E70" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
         <v>174</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B71" t="s">
         <v>200</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C71" s="40" t="s">
         <v>180</v>
       </c>
-      <c r="D70" t="s">
-        <v>6</v>
-      </c>
-      <c r="E70" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
+      <c r="D71" t="s">
+        <v>6</v>
+      </c>
+      <c r="E71" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
         <v>175</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B72" t="s">
         <v>201</v>
       </c>
-      <c r="C71" s="44" t="s">
+      <c r="C72" s="40" t="s">
         <v>181</v>
       </c>
-      <c r="D71" t="s">
-        <v>6</v>
-      </c>
-      <c r="E71" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
+      <c r="D72" t="s">
+        <v>6</v>
+      </c>
+      <c r="E72" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
         <v>176</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B73" t="s">
+        <v>158</v>
+      </c>
+      <c r="C73" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="D73" t="s">
+        <v>6</v>
+      </c>
+      <c r="E73" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>177</v>
+      </c>
+      <c r="B74" t="s">
         <v>202</v>
       </c>
-      <c r="C72" s="44" t="s">
-        <v>182</v>
-      </c>
-      <c r="D72" t="s">
-        <v>6</v>
-      </c>
-      <c r="E72" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>177</v>
-      </c>
-      <c r="B73" t="s">
-        <v>159</v>
-      </c>
-      <c r="C73" s="12" t="s">
+      <c r="C74" s="12" t="s">
         <v>183</v>
       </c>
-      <c r="D73" t="s">
-        <v>6</v>
-      </c>
-      <c r="E73" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>178</v>
-      </c>
-      <c r="B74" t="s">
-        <v>203</v>
-      </c>
-      <c r="C74" s="12" t="s">
-        <v>184</v>
-      </c>
       <c r="D74" t="s">
         <v>6</v>
       </c>
@@ -3275,7 +3138,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75" s="18" t="s">
         <v>80</v>
       </c>
@@ -3290,7 +3153,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>70</v>
       </c>
@@ -3314,21 +3177,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E1B0D16-7702-4E2D-A433-8917A7C95725}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="24.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="35.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="8.7109375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="24.26953125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="35.453125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="8.7265625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="14.26953125" collapsed="true"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="6" max="16384" width="9.140625" collapsed="true"/>
+    <col min="6" max="16384" width="9.1796875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -3345,7 +3208,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="37" t="s">
         <v>145</v>
       </c>
@@ -3358,11 +3221,11 @@
       <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="40" t="s">
+      <c r="E2" t="s" s="111">
         <v>145</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="38" t="s">
         <v>146</v>
       </c>
@@ -3373,13 +3236,13 @@
       <c r="D3" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="41" t="s">
+      <c r="E3" t="s" s="112">
         <v>146</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="37" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B4" s="37" t="s">
         <v>148</v>
@@ -3390,19 +3253,19 @@
       <c r="D4" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="42" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>70</v>
       </c>
       <c r="D5" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="43" t="s">
-        <v>70</v>
+      <c r="E5" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -3418,16 +3281,16 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="46.85546875" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="17.7109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="46.81640625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="14.1796875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="14.26953125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="17.7265625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3444,7 +3307,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="27" t="s">
         <v>5</v>
       </c>
@@ -3457,11 +3320,11 @@
       <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="46" t="s">
+      <c r="E2" s="42" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="27" t="s">
         <v>7</v>
       </c>
@@ -3474,11 +3337,11 @@
       <c r="D3" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="47" t="s">
+      <c r="E3" s="43" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
         <v>9</v>
       </c>
@@ -3491,11 +3354,11 @@
       <c r="D4" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="48" t="s">
+      <c r="E4" s="44" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="27" t="s">
         <v>10</v>
       </c>
@@ -3508,11 +3371,11 @@
       <c r="D5" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="49" t="s">
+      <c r="E5" s="45" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="27" t="s">
         <v>11</v>
       </c>
@@ -3525,11 +3388,11 @@
       <c r="D6" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="50" t="s">
+      <c r="E6" s="46" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="27" t="s">
         <v>12</v>
       </c>
@@ -3542,11 +3405,11 @@
       <c r="D7" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="51" t="s">
+      <c r="E7" s="47" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="27" t="s">
         <v>13</v>
       </c>
@@ -3559,11 +3422,11 @@
       <c r="D8" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="52" t="s">
+      <c r="E8" s="48" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="27" t="s">
         <v>22</v>
       </c>
@@ -3576,11 +3439,11 @@
       <c r="D9" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="53" t="s">
+      <c r="E9" s="49" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="27" t="s">
         <v>24</v>
       </c>
@@ -3597,7 +3460,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="27" t="s">
         <v>25</v>
       </c>
@@ -3614,7 +3477,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="27" t="s">
         <v>28</v>
       </c>
@@ -3622,7 +3485,7 @@
         <v>27</v>
       </c>
       <c r="C12" s="29" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D12" t="s">
         <v>6</v>
@@ -3631,7 +3494,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="27" t="s">
         <v>30</v>
       </c>
@@ -3648,7 +3511,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="27" t="s">
         <v>14</v>
       </c>
@@ -3665,7 +3528,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>13</v>
       </c>
@@ -3682,7 +3545,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="27" t="s">
         <v>107</v>
       </c>
@@ -3710,17 +3573,17 @@
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="48.85546875" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="29.85546875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="48.81640625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="29.81640625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="14.26953125" collapsed="true"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="18.0" collapsed="true"/>
-    <col min="6" max="7" width="9.140625" collapsed="true"/>
+    <col min="6" max="7" width="9.1796875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -3737,7 +3600,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="10" t="s">
         <v>36</v>
       </c>
@@ -3754,7 +3617,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="35" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" s="35" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="35" t="s">
         <v>38</v>
       </c>
@@ -3771,7 +3634,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>40</v>
       </c>
@@ -3788,7 +3651,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>43</v>
       </c>
@@ -3805,7 +3668,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>45</v>
       </c>
@@ -3822,7 +3685,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>48</v>
       </c>
@@ -3839,7 +3702,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>51</v>
       </c>
@@ -3856,7 +3719,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -3873,7 +3736,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>55</v>
       </c>
@@ -3890,7 +3753,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>58</v>
       </c>
@@ -3907,7 +3770,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>60</v>
       </c>
@@ -3924,7 +3787,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>62</v>
       </c>
@@ -3941,7 +3804,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>64</v>
       </c>
@@ -3958,7 +3821,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="14" t="s">
         <v>70</v>
       </c>

--- a/TestCasesinExcell/Myhero/Myherotestdata1.xlsx
+++ b/TestCasesinExcell/Myhero/Myherotestdata1.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1079" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1187" uniqueCount="207">
   <si>
     <t>Description</t>
   </si>
@@ -751,7 +751,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="140">
+  <fills count="164">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -840,6 +840,126 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
         <fgColor indexed="50"/>
       </patternFill>
     </fill>
@@ -1465,7 +1585,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1607,6 +1727,18 @@
     <xf numFmtId="0" fontId="0" fillId="135" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="137" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="139" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="141" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="143" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="145" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="147" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="149" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="151" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="153" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="155" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="157" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="159" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="161" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="163" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3221,7 +3353,7 @@
       <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" t="s" s="111">
+      <c r="E2" t="s" s="123">
         <v>145</v>
       </c>
     </row>
@@ -3236,7 +3368,7 @@
       <c r="D3" t="s">
         <v>6</v>
       </c>
-      <c r="E3" t="s" s="112">
+      <c r="E3" t="s" s="124">
         <v>146</v>
       </c>
     </row>

--- a/TestCasesinExcell/Myhero/Myherotestdata1.xlsx
+++ b/TestCasesinExcell/Myhero/Myherotestdata1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20375"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20393"/>
   <workbookPr/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC.DESKTOP-Q8L0TS6\Documents\GitHub\MultipleBroswers\TestCasesinExcell\Myhero\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4A6AE1A-0D11-4B70-BABF-04BEE6AFC879}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86934ED2-6ABA-438A-8AB2-5FD103BCEA28}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GeneralInsurance" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1187" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="216">
   <si>
     <t>Description</t>
   </si>
@@ -603,12 +603,6 @@
     <t>Aadhar Front</t>
   </si>
   <si>
-    <t>C:\Users\M0137\git\repository3\MultipleBroswers\documents\aadhar card.jpg</t>
-  </si>
-  <si>
-    <t>C:\Users\M0137\git\repository3\MultipleBroswers\documents\pan.jpg</t>
-  </si>
-  <si>
     <t>dropdown document type</t>
   </si>
   <si>
@@ -649,6 +643,42 @@
   </si>
   <si>
     <t>//input[@type='file']</t>
+  </si>
+  <si>
+    <t>C:\Users\PC.DESKTOP-Q8L0TS6\Documents\GitHub\MultipleBroswers\documents\pan.jpg</t>
+  </si>
+  <si>
+    <t>C:\Users\PC.DESKTOP-Q8L0TS6\Documents\GitHub\MultipleBroswers\documents\aadhar card.jpg</t>
+  </si>
+  <si>
+    <t>FAIL</t>
+  </si>
+  <si>
+    <t>MY CASES</t>
+  </si>
+  <si>
+    <t>MY TASKS</t>
+  </si>
+  <si>
+    <t>REPORTS</t>
+  </si>
+  <si>
+    <t>ACTIONS</t>
+  </si>
+  <si>
+    <t>India
+India</t>
+  </si>
+  <si>
+    <t>Andhra Pradesh
+Andhra Pradesh</t>
+  </si>
+  <si>
+    <t>AMARAVATHI
+AMARAVATHI</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
@@ -751,7 +781,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="164">
+  <fills count="172">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -860,6 +890,16 @@
     </fill>
     <fill>
       <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
         <fgColor indexed="50"/>
       </patternFill>
     </fill>
@@ -870,6 +910,116 @@
     </fill>
     <fill>
       <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
         <fgColor indexed="50"/>
       </patternFill>
     </fill>
@@ -880,6 +1030,116 @@
     </fill>
     <fill>
       <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
         <fgColor indexed="50"/>
       </patternFill>
     </fill>
@@ -890,6 +1150,176 @@
     </fill>
     <fill>
       <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
         <fgColor indexed="50"/>
       </patternFill>
     </fill>
@@ -900,652 +1330,292 @@
     </fill>
     <fill>
       <patternFill>
-        <fgColor indexed="50"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="50"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="50"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="50"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="50"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="50"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="50"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="50"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="50"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="50"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="50"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="50"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="50"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="50"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="50"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="50"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="50"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="50"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="50"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="50"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="50"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="50"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="50"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="50"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="50"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="50"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="50"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="50"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="50"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="50"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="50"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="50"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="50"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="50"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="50"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="50"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="50"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="50"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="50"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="50"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="50"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="50"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="50"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="50"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="50"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="50"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="50"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="50"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="50"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="50"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="50"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="50"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="50"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="50"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="50"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="50"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="50"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="50"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="50"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="50"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="50"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="50"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="50"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="50"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="50"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="50"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="50"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="50"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="50"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="50"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="50"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="50"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="50"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="50"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="50"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="50"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="50"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="50"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="50"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="50"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="50"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="50"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="50"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="50"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="50"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="50"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="50"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="50"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="50"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="50"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="50"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="50"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="50"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="50"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="50"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="50"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="50"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="50"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="50"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="50"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="50"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="50"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="50"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="50"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="50"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="50"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="50"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="50"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="50"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="50"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="50"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="50"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="50"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="50"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="50"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="50"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="50"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="50"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="50"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="50"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="50"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="50"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="50"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="50"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="50"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="50"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="50"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="50"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="50"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="50"/>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
       </patternFill>
     </fill>
     <fill>
@@ -1585,7 +1655,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="125">
+  <cellXfs count="129">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1739,6 +1809,10 @@
     <xf numFmtId="0" fontId="0" fillId="159" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="161" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="163" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="165" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="167" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="169" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="171" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2022,8 +2096,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G76"/>
   <sheetViews>
-    <sheetView topLeftCell="C13" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+    <sheetView tabSelected="1" topLeftCell="B46" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2074,7 +2148,7 @@
       <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="50" t="s">
+      <c r="E2" t="s" s="128">
         <v>5</v>
       </c>
     </row>
@@ -2199,7 +2273,7 @@
         <v>23</v>
       </c>
       <c r="C10" s="29" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D10" t="s">
         <v>6</v>
@@ -2216,7 +2290,7 @@
         <v>26</v>
       </c>
       <c r="C11" s="29" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D11" t="s">
         <v>6</v>
@@ -2853,7 +2927,7 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B50" t="s">
         <v>71</v>
@@ -2890,10 +2964,10 @@
         <v>187</v>
       </c>
       <c r="B52" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C52" t="s">
-        <v>192</v>
+        <v>205</v>
       </c>
       <c r="D52" t="s">
         <v>6</v>
@@ -2952,7 +3026,7 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B56" t="s">
         <v>74</v>
@@ -2989,10 +3063,10 @@
         <v>188</v>
       </c>
       <c r="B58" t="s">
+        <v>204</v>
+      </c>
+      <c r="C58" t="s">
         <v>206</v>
-      </c>
-      <c r="C58" t="s">
-        <v>191</v>
       </c>
       <c r="D58" t="s">
         <v>6</v>
@@ -3009,7 +3083,7 @@
         <v>155</v>
       </c>
       <c r="C59" s="19" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D59" t="s">
         <v>6</v>
@@ -3054,13 +3128,13 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B62" t="s">
         <v>13</v>
       </c>
       <c r="C62" s="12" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D62" t="s">
         <v>6</v>
@@ -3074,7 +3148,7 @@
         <v>171</v>
       </c>
       <c r="B63" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C63" s="40" t="s">
         <v>180</v>
@@ -3088,13 +3162,13 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B64" t="s">
         <v>13</v>
       </c>
       <c r="C64" s="12" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D64" t="s">
         <v>6</v>
@@ -3108,7 +3182,7 @@
         <v>172</v>
       </c>
       <c r="B65" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C65" s="40" t="s">
         <v>181</v>
@@ -3170,7 +3244,7 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B69" t="s">
         <v>13</v>
@@ -3190,7 +3264,7 @@
         <v>173</v>
       </c>
       <c r="B70" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C70" t="s">
         <v>179</v>
@@ -3207,7 +3281,7 @@
         <v>174</v>
       </c>
       <c r="B71" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C71" s="40" t="s">
         <v>180</v>
@@ -3224,7 +3298,7 @@
         <v>175</v>
       </c>
       <c r="B72" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C72" s="40" t="s">
         <v>181</v>
@@ -3258,7 +3332,7 @@
         <v>177</v>
       </c>
       <c r="B74" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C74" s="12" t="s">
         <v>183</v>
@@ -3309,8 +3383,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E1B0D16-7702-4E2D-A433-8917A7C95725}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3353,7 +3427,7 @@
       <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" t="s" s="123">
+      <c r="E2" s="51" t="s">
         <v>145</v>
       </c>
     </row>
@@ -3368,7 +3442,7 @@
       <c r="D3" t="s">
         <v>6</v>
       </c>
-      <c r="E3" t="s" s="124">
+      <c r="E3" s="52" t="s">
         <v>146</v>
       </c>
     </row>
@@ -3617,7 +3691,7 @@
         <v>27</v>
       </c>
       <c r="C12" s="29" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D12" t="s">
         <v>6</v>

--- a/TestCasesinExcell/Myhero/Myherotestdata1.xlsx
+++ b/TestCasesinExcell/Myhero/Myherotestdata1.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1537" uniqueCount="216">
   <si>
     <t>Description</t>
   </si>
@@ -781,7 +781,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="172">
+  <fills count="188">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1636,6 +1636,86 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
       </patternFill>
     </fill>
   </fills>
@@ -1655,7 +1735,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="129">
+  <cellXfs count="137">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1813,6 +1893,14 @@
     <xf numFmtId="0" fontId="0" fillId="167" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="169" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="171" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="173" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="175" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="177" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="179" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="181" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="183" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="185" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="187" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2148,7 +2236,7 @@
       <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" t="s" s="128">
+      <c r="E2" t="s" s="129">
         <v>5</v>
       </c>
     </row>
@@ -2163,8 +2251,8 @@
       <c r="D3" t="s">
         <v>6</v>
       </c>
-      <c r="E3" t="s">
-        <v>108</v>
+      <c r="E3" t="s" s="130">
+        <v>134</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
@@ -2178,8 +2266,8 @@
       <c r="D4" t="s">
         <v>6</v>
       </c>
-      <c r="E4" t="s">
-        <v>108</v>
+      <c r="E4" t="s" s="131">
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
@@ -2195,8 +2283,8 @@
       <c r="D5" t="s">
         <v>6</v>
       </c>
-      <c r="E5" t="s">
-        <v>108</v>
+      <c r="E5" t="s" s="132">
+        <v>134</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
@@ -2212,8 +2300,8 @@
       <c r="D6" t="s">
         <v>6</v>
       </c>
-      <c r="E6" t="s">
-        <v>108</v>
+      <c r="E6" t="s" s="133">
+        <v>134</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
@@ -2227,8 +2315,8 @@
       <c r="D7" t="s">
         <v>6</v>
       </c>
-      <c r="E7" t="s">
-        <v>108</v>
+      <c r="E7" t="s" s="134">
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
@@ -2244,8 +2332,8 @@
       <c r="D8" t="s">
         <v>6</v>
       </c>
-      <c r="E8" t="s">
-        <v>108</v>
+      <c r="E8" t="s" s="135">
+        <v>134</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
@@ -2259,10 +2347,10 @@
         <v>132</v>
       </c>
       <c r="D9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" t="s">
-        <v>108</v>
+        <v>132</v>
+      </c>
+      <c r="E9" t="s" s="136">
+        <v>134</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">

--- a/TestCasesinExcell/Myhero/Myherotestdata1.xlsx
+++ b/TestCasesinExcell/Myhero/Myherotestdata1.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1537" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1616" uniqueCount="216">
   <si>
     <t>Description</t>
   </si>
@@ -781,7 +781,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="188">
+  <fills count="322">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1716,6 +1716,676 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
       </patternFill>
     </fill>
   </fills>
@@ -1735,7 +2405,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="137">
+  <cellXfs count="204">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1901,6 +2571,73 @@
     <xf numFmtId="0" fontId="0" fillId="183" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="185" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="187" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="189" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="191" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="193" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="195" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="197" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="199" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="201" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="203" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="205" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="207" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="209" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="211" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="213" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="215" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="217" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="219" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="221" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="223" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="225" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="227" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="229" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="231" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="233" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="235" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="237" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="239" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="241" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="243" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="245" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="247" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="249" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="251" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="253" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="255" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="257" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="259" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="261" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="263" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="265" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="267" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="269" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="271" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="273" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="275" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="277" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="279" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="281" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="283" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="285" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="287" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="289" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="291" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="293" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="295" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="297" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="299" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="301" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="303" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="305" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="307" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="309" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="311" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="313" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="315" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="317" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="319" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="321" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2364,10 +3101,10 @@
         <v>201</v>
       </c>
       <c r="D10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" t="s">
-        <v>108</v>
+        <v>208</v>
+      </c>
+      <c r="E10" t="s" s="137">
+        <v>207</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
@@ -2381,10 +3118,10 @@
         <v>202</v>
       </c>
       <c r="D11" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11" t="s">
-        <v>108</v>
+        <v>209</v>
+      </c>
+      <c r="E11" t="s" s="138">
+        <v>207</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
@@ -2398,10 +3135,10 @@
         <v>143</v>
       </c>
       <c r="D12" t="s">
-        <v>6</v>
-      </c>
-      <c r="E12" t="s">
-        <v>108</v>
+        <v>210</v>
+      </c>
+      <c r="E12" t="s" s="139">
+        <v>134</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
@@ -2415,10 +3152,10 @@
         <v>144</v>
       </c>
       <c r="D13" t="s">
-        <v>6</v>
-      </c>
-      <c r="E13" t="s">
-        <v>108</v>
+        <v>211</v>
+      </c>
+      <c r="E13" t="s" s="140">
+        <v>134</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
@@ -2432,8 +3169,8 @@
       <c r="D14" t="s">
         <v>6</v>
       </c>
-      <c r="E14" t="s">
-        <v>108</v>
+      <c r="E14" t="s" s="141">
+        <v>134</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
@@ -2449,8 +3186,8 @@
       <c r="D15" t="s">
         <v>6</v>
       </c>
-      <c r="E15" t="s">
-        <v>108</v>
+      <c r="E15" t="s" s="142">
+        <v>134</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
@@ -2464,8 +3201,8 @@
       <c r="D16" t="s">
         <v>6</v>
       </c>
-      <c r="E16" t="s">
-        <v>108</v>
+      <c r="E16" t="s" s="143">
+        <v>123</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
@@ -2481,8 +3218,8 @@
       <c r="D17" t="s">
         <v>6</v>
       </c>
-      <c r="E17" t="s">
-        <v>108</v>
+      <c r="E17" t="s" s="144">
+        <v>134</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
@@ -2498,8 +3235,8 @@
       <c r="D18" t="s">
         <v>6</v>
       </c>
-      <c r="E18" t="s">
-        <v>108</v>
+      <c r="E18" t="s" s="145">
+        <v>134</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
@@ -2512,8 +3249,8 @@
       <c r="D19" t="s">
         <v>6</v>
       </c>
-      <c r="E19" t="s">
-        <v>108</v>
+      <c r="E19" t="s" s="146">
+        <v>134</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
@@ -2529,8 +3266,8 @@
       <c r="D20" t="s">
         <v>6</v>
       </c>
-      <c r="E20" t="s">
-        <v>108</v>
+      <c r="E20" t="s" s="147">
+        <v>134</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
@@ -2546,8 +3283,8 @@
       <c r="D21" t="s">
         <v>6</v>
       </c>
-      <c r="E21" t="s">
-        <v>108</v>
+      <c r="E21" t="s" s="148">
+        <v>134</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
@@ -2563,8 +3300,8 @@
       <c r="D22" t="s">
         <v>6</v>
       </c>
-      <c r="E22" t="s">
-        <v>108</v>
+      <c r="E22" t="s" s="149">
+        <v>134</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
@@ -2580,8 +3317,8 @@
       <c r="D23" t="s">
         <v>6</v>
       </c>
-      <c r="E23" t="s">
-        <v>108</v>
+      <c r="E23" t="s" s="150">
+        <v>134</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
@@ -2597,8 +3334,8 @@
       <c r="D24" t="s">
         <v>6</v>
       </c>
-      <c r="E24" t="s">
-        <v>108</v>
+      <c r="E24" t="s" s="151">
+        <v>134</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
@@ -2614,8 +3351,8 @@
       <c r="D25" t="s">
         <v>6</v>
       </c>
-      <c r="E25" t="s">
-        <v>108</v>
+      <c r="E25" t="s" s="152">
+        <v>134</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
@@ -2631,8 +3368,8 @@
       <c r="D26" t="s">
         <v>6</v>
       </c>
-      <c r="E26" t="s">
-        <v>108</v>
+      <c r="E26" t="s" s="153">
+        <v>134</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
@@ -2648,8 +3385,8 @@
       <c r="D27" t="s">
         <v>6</v>
       </c>
-      <c r="E27" t="s">
-        <v>108</v>
+      <c r="E27" t="s" s="154">
+        <v>134</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
@@ -2663,8 +3400,8 @@
       <c r="D28" t="s">
         <v>6</v>
       </c>
-      <c r="E28" t="s">
-        <v>108</v>
+      <c r="E28" t="s" s="155">
+        <v>126</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
@@ -2678,10 +3415,10 @@
         <v>133</v>
       </c>
       <c r="D29" t="s">
-        <v>6</v>
-      </c>
-      <c r="E29" t="s">
-        <v>108</v>
+        <v>133</v>
+      </c>
+      <c r="E29" t="s" s="156">
+        <v>134</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
@@ -2697,8 +3434,8 @@
       <c r="D30" t="s">
         <v>6</v>
       </c>
-      <c r="E30" t="s">
-        <v>108</v>
+      <c r="E30" t="s" s="157">
+        <v>134</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
@@ -2714,8 +3451,8 @@
       <c r="D31" t="s">
         <v>6</v>
       </c>
-      <c r="E31" t="s">
-        <v>108</v>
+      <c r="E31" t="s" s="158">
+        <v>134</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
@@ -2731,8 +3468,8 @@
       <c r="D32" t="s">
         <v>6</v>
       </c>
-      <c r="E32" t="s">
-        <v>108</v>
+      <c r="E32" t="s" s="159">
+        <v>134</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
@@ -2748,8 +3485,8 @@
       <c r="D33" t="s">
         <v>6</v>
       </c>
-      <c r="E33" t="s">
-        <v>108</v>
+      <c r="E33" t="s" s="160">
+        <v>134</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
@@ -2765,8 +3502,8 @@
       <c r="D34" t="s">
         <v>6</v>
       </c>
-      <c r="E34" t="s">
-        <v>108</v>
+      <c r="E34" t="s" s="161">
+        <v>134</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
@@ -2782,8 +3519,8 @@
       <c r="D35" t="s">
         <v>6</v>
       </c>
-      <c r="E35" t="s">
-        <v>108</v>
+      <c r="E35" t="s" s="162">
+        <v>134</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
@@ -2799,8 +3536,8 @@
       <c r="D36" t="s">
         <v>6</v>
       </c>
-      <c r="E36" t="s">
-        <v>108</v>
+      <c r="E36" t="s" s="163">
+        <v>134</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
@@ -2816,8 +3553,8 @@
       <c r="D37" t="s">
         <v>6</v>
       </c>
-      <c r="E37" t="s">
-        <v>108</v>
+      <c r="E37" t="s" s="164">
+        <v>134</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
@@ -2833,8 +3570,8 @@
       <c r="D38" t="s">
         <v>6</v>
       </c>
-      <c r="E38" t="s">
-        <v>108</v>
+      <c r="E38" t="s" s="165">
+        <v>134</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
@@ -2850,8 +3587,8 @@
       <c r="D39" t="s">
         <v>6</v>
       </c>
-      <c r="E39" t="s">
-        <v>108</v>
+      <c r="E39" t="s" s="166">
+        <v>134</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
@@ -2864,8 +3601,8 @@
       <c r="D40" t="s">
         <v>6</v>
       </c>
-      <c r="E40" t="s">
-        <v>108</v>
+      <c r="E40" t="s" s="167">
+        <v>134</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
@@ -2881,8 +3618,8 @@
       <c r="D41" t="s">
         <v>6</v>
       </c>
-      <c r="E41" t="s">
-        <v>108</v>
+      <c r="E41" t="s" s="168">
+        <v>134</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
@@ -2898,8 +3635,8 @@
       <c r="D42" t="s">
         <v>6</v>
       </c>
-      <c r="E42" t="s">
-        <v>108</v>
+      <c r="E42" t="s" s="169">
+        <v>134</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
@@ -2915,8 +3652,8 @@
       <c r="D43" t="s">
         <v>6</v>
       </c>
-      <c r="E43" t="s">
-        <v>108</v>
+      <c r="E43" t="s" s="170">
+        <v>134</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
@@ -2932,8 +3669,8 @@
       <c r="D44" t="s">
         <v>6</v>
       </c>
-      <c r="E44" t="s">
-        <v>108</v>
+      <c r="E44" t="s" s="171">
+        <v>134</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
@@ -2947,8 +3684,8 @@
       <c r="D45" t="s">
         <v>6</v>
       </c>
-      <c r="E45" t="s">
-        <v>108</v>
+      <c r="E45" t="s" s="172">
+        <v>134</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
@@ -2961,8 +3698,8 @@
       <c r="D46" t="s">
         <v>6</v>
       </c>
-      <c r="E46" t="s">
-        <v>108</v>
+      <c r="E46" t="s" s="173">
+        <v>126</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
@@ -2976,10 +3713,10 @@
         <v>131</v>
       </c>
       <c r="D47" t="s">
-        <v>6</v>
-      </c>
-      <c r="E47" t="s">
-        <v>108</v>
+        <v>131</v>
+      </c>
+      <c r="E47" t="s" s="174">
+        <v>134</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
@@ -2992,8 +3729,8 @@
       <c r="D48" t="s">
         <v>6</v>
       </c>
-      <c r="E48" t="s">
-        <v>108</v>
+      <c r="E48" t="s" s="175">
+        <v>134</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -3009,8 +3746,8 @@
       <c r="D49" t="s">
         <v>6</v>
       </c>
-      <c r="E49" t="s">
-        <v>108</v>
+      <c r="E49" t="s" s="176">
+        <v>134</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.35">
@@ -3026,8 +3763,8 @@
       <c r="D50" t="s">
         <v>6</v>
       </c>
-      <c r="E50" t="s">
-        <v>108</v>
+      <c r="E50" t="s" s="177">
+        <v>134</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.35">
@@ -3043,8 +3780,8 @@
       <c r="D51" t="s">
         <v>6</v>
       </c>
-      <c r="E51" t="s">
-        <v>108</v>
+      <c r="E51" t="s" s="178">
+        <v>134</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.35">
@@ -3060,8 +3797,8 @@
       <c r="D52" t="s">
         <v>6</v>
       </c>
-      <c r="E52" t="s">
-        <v>108</v>
+      <c r="E52" t="s" s="179">
+        <v>134</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
@@ -3077,8 +3814,8 @@
       <c r="D53" t="s">
         <v>6</v>
       </c>
-      <c r="E53" t="s">
-        <v>108</v>
+      <c r="E53" t="s" s="180">
+        <v>134</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
@@ -3091,8 +3828,8 @@
       <c r="D54" t="s">
         <v>6</v>
       </c>
-      <c r="E54" t="s">
-        <v>108</v>
+      <c r="E54" t="s" s="181">
+        <v>134</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.35">
@@ -3108,8 +3845,8 @@
       <c r="D55" t="s">
         <v>6</v>
       </c>
-      <c r="E55" t="s">
-        <v>108</v>
+      <c r="E55" t="s" s="182">
+        <v>134</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.35">
@@ -3125,8 +3862,8 @@
       <c r="D56" t="s">
         <v>6</v>
       </c>
-      <c r="E56" t="s">
-        <v>108</v>
+      <c r="E56" t="s" s="183">
+        <v>134</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.35">
@@ -3142,8 +3879,8 @@
       <c r="D57" t="s">
         <v>6</v>
       </c>
-      <c r="E57" t="s">
-        <v>108</v>
+      <c r="E57" t="s" s="184">
+        <v>134</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.35">
@@ -3159,8 +3896,8 @@
       <c r="D58" t="s">
         <v>6</v>
       </c>
-      <c r="E58" t="s">
-        <v>108</v>
+      <c r="E58" t="s" s="185">
+        <v>134</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.35">
@@ -3176,8 +3913,8 @@
       <c r="D59" t="s">
         <v>6</v>
       </c>
-      <c r="E59" t="s">
-        <v>108</v>
+      <c r="E59" t="s" s="186">
+        <v>134</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.35">
@@ -3191,10 +3928,10 @@
         <v>178</v>
       </c>
       <c r="D60" t="s">
-        <v>6</v>
-      </c>
-      <c r="E60" t="s">
-        <v>108</v>
+        <v>178</v>
+      </c>
+      <c r="E60" t="s" s="187">
+        <v>134</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.35">
@@ -3210,8 +3947,8 @@
       <c r="D61" t="s">
         <v>6</v>
       </c>
-      <c r="E61" t="s">
-        <v>108</v>
+      <c r="E61" t="s" s="188">
+        <v>134</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.35">
@@ -3227,8 +3964,8 @@
       <c r="D62" t="s">
         <v>6</v>
       </c>
-      <c r="E62" t="s">
-        <v>108</v>
+      <c r="E62" t="s" s="189">
+        <v>134</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.35">
@@ -3244,8 +3981,8 @@
       <c r="D63" t="s">
         <v>6</v>
       </c>
-      <c r="E63" t="s">
-        <v>108</v>
+      <c r="E63" t="s" s="190">
+        <v>134</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.35">
@@ -3261,8 +3998,8 @@
       <c r="D64" t="s">
         <v>6</v>
       </c>
-      <c r="E64" t="s">
-        <v>108</v>
+      <c r="E64" t="s" s="191">
+        <v>134</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.35">
@@ -3278,8 +4015,8 @@
       <c r="D65" t="s">
         <v>6</v>
       </c>
-      <c r="E65" t="s">
-        <v>108</v>
+      <c r="E65" t="s" s="192">
+        <v>134</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.35">
@@ -3295,8 +4032,8 @@
       <c r="D66" t="s">
         <v>6</v>
       </c>
-      <c r="E66" t="s">
-        <v>108</v>
+      <c r="E66" t="s" s="193">
+        <v>134</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.35">
@@ -3312,8 +4049,8 @@
       <c r="D67" t="s">
         <v>6</v>
       </c>
-      <c r="E67" t="s">
-        <v>108</v>
+      <c r="E67" t="s" s="194">
+        <v>134</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -3326,8 +4063,8 @@
       <c r="D68" t="s">
         <v>6</v>
       </c>
-      <c r="E68" t="s">
-        <v>108</v>
+      <c r="E68" t="s" s="195">
+        <v>134</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.35">
@@ -3343,8 +4080,8 @@
       <c r="D69" t="s">
         <v>6</v>
       </c>
-      <c r="E69" t="s">
-        <v>108</v>
+      <c r="E69" t="s" s="196">
+        <v>134</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.35">
@@ -3358,10 +4095,10 @@
         <v>179</v>
       </c>
       <c r="D70" t="s">
-        <v>6</v>
-      </c>
-      <c r="E70" t="s">
-        <v>108</v>
+        <v>212</v>
+      </c>
+      <c r="E70" t="s" s="197">
+        <v>207</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.35">
@@ -3375,10 +4112,10 @@
         <v>180</v>
       </c>
       <c r="D71" t="s">
-        <v>6</v>
-      </c>
-      <c r="E71" t="s">
-        <v>108</v>
+        <v>213</v>
+      </c>
+      <c r="E71" t="s" s="198">
+        <v>207</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.35">
@@ -3392,10 +4129,10 @@
         <v>181</v>
       </c>
       <c r="D72" t="s">
-        <v>6</v>
-      </c>
-      <c r="E72" t="s">
-        <v>108</v>
+        <v>214</v>
+      </c>
+      <c r="E72" t="s" s="199">
+        <v>207</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.35">
@@ -3409,10 +4146,10 @@
         <v>182</v>
       </c>
       <c r="D73" t="s">
-        <v>6</v>
-      </c>
-      <c r="E73" t="s">
-        <v>108</v>
+        <v>215</v>
+      </c>
+      <c r="E73" t="s" s="200">
+        <v>207</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.35">
@@ -3426,10 +4163,10 @@
         <v>183</v>
       </c>
       <c r="D74" t="s">
-        <v>6</v>
-      </c>
-      <c r="E74" t="s">
-        <v>108</v>
+        <v>215</v>
+      </c>
+      <c r="E74" t="s" s="201">
+        <v>207</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.35">
@@ -3443,8 +4180,8 @@
       <c r="D75" t="s">
         <v>6</v>
       </c>
-      <c r="E75" t="s">
-        <v>108</v>
+      <c r="E75" t="s" s="202">
+        <v>134</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.35">
@@ -3454,8 +4191,8 @@
       <c r="D76" t="s">
         <v>6</v>
       </c>
-      <c r="E76" t="s">
-        <v>108</v>
+      <c r="E76" t="s" s="203">
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/TestCasesinExcell/Myhero/Myherotestdata1.xlsx
+++ b/TestCasesinExcell/Myhero/Myherotestdata1.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1616" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3129" uniqueCount="216">
   <si>
     <t>Description</t>
   </si>
@@ -781,7 +781,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="322">
+  <fills count="922">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1626,6 +1626,3006 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
       </patternFill>
     </fill>
     <fill>
@@ -2405,7 +5405,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="204">
+  <cellXfs count="504">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2638,6 +5638,306 @@
     <xf numFmtId="0" fontId="0" fillId="317" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="319" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="321" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="323" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="325" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="327" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="329" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="331" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="333" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="335" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="337" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="339" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="341" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="343" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="345" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="347" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="349" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="351" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="353" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="355" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="357" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="359" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="361" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="363" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="365" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="367" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="369" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="371" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="373" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="375" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="377" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="379" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="381" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="383" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="385" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="387" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="389" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="391" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="393" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="395" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="397" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="399" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="401" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="403" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="405" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="407" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="409" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="411" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="413" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="415" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="417" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="419" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="421" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="423" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="425" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="427" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="429" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="431" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="433" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="435" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="437" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="439" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="441" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="443" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="445" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="447" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="449" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="451" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="453" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="455" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="457" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="459" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="461" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="463" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="465" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="467" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="469" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="471" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="473" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="475" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="477" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="479" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="481" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="483" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="485" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="487" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="489" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="491" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="493" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="495" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="497" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="499" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="501" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="503" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="505" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="507" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="509" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="511" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="513" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="515" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="517" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="519" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="521" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="523" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="525" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="527" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="529" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="531" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="533" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="535" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="537" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="539" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="541" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="543" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="545" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="547" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="549" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="551" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="553" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="555" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="557" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="559" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="561" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="563" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="565" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="567" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="569" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="571" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="573" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="575" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="577" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="579" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="581" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="583" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="585" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="587" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="589" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="591" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="593" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="595" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="597" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="599" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="601" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="603" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="605" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="607" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="609" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="611" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="613" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="615" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="617" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="619" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="621" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="623" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="625" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="627" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="629" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="631" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="633" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="635" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="637" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="639" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="641" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="643" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="645" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="647" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="649" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="651" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="653" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="655" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="657" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="659" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="661" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="663" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="665" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="667" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="669" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="671" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="673" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="675" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="677" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="679" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="681" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="683" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="685" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="687" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="689" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="691" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="693" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="695" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="697" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="699" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="701" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="703" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="705" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="707" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="709" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="711" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="713" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="715" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="717" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="719" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="721" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="723" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="725" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="727" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="729" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="731" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="733" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="735" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="737" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="739" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="741" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="743" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="745" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="747" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="749" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="751" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="753" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="755" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="757" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="759" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="761" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="763" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="765" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="767" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="769" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="771" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="773" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="775" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="777" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="779" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="781" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="783" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="785" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="787" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="789" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="791" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="793" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="795" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="797" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="799" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="801" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="803" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="805" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="807" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="809" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="811" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="813" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="815" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="817" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="819" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="821" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="823" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="825" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="827" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="829" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="831" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="833" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="835" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="837" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="839" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="841" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="843" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="845" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="847" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="849" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="851" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="853" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="855" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="857" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="859" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="861" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="863" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="865" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="867" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="869" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="871" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="873" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="875" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="877" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="879" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="881" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="883" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="885" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="887" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="889" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="891" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="893" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="895" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="897" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="899" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="901" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="903" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="905" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="907" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="909" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="911" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="913" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="915" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="917" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="919" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="921" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2973,7 +6273,7 @@
       <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" t="s" s="129">
+      <c r="E2" t="s" s="429">
         <v>5</v>
       </c>
     </row>
@@ -2988,7 +6288,7 @@
       <c r="D3" t="s">
         <v>6</v>
       </c>
-      <c r="E3" t="s" s="130">
+      <c r="E3" t="s" s="430">
         <v>134</v>
       </c>
     </row>
@@ -3003,7 +6303,7 @@
       <c r="D4" t="s">
         <v>6</v>
       </c>
-      <c r="E4" t="s" s="131">
+      <c r="E4" t="s" s="431">
         <v>9</v>
       </c>
     </row>
@@ -3020,7 +6320,7 @@
       <c r="D5" t="s">
         <v>6</v>
       </c>
-      <c r="E5" t="s" s="132">
+      <c r="E5" t="s" s="432">
         <v>134</v>
       </c>
     </row>
@@ -3037,7 +6337,7 @@
       <c r="D6" t="s">
         <v>6</v>
       </c>
-      <c r="E6" t="s" s="133">
+      <c r="E6" t="s" s="433">
         <v>134</v>
       </c>
     </row>
@@ -3052,7 +6352,7 @@
       <c r="D7" t="s">
         <v>6</v>
       </c>
-      <c r="E7" t="s" s="134">
+      <c r="E7" t="s" s="434">
         <v>134</v>
       </c>
     </row>
@@ -3069,7 +6369,7 @@
       <c r="D8" t="s">
         <v>6</v>
       </c>
-      <c r="E8" t="s" s="135">
+      <c r="E8" t="s" s="435">
         <v>134</v>
       </c>
     </row>
@@ -3086,7 +6386,7 @@
       <c r="D9" t="s">
         <v>132</v>
       </c>
-      <c r="E9" t="s" s="136">
+      <c r="E9" t="s" s="436">
         <v>134</v>
       </c>
     </row>
@@ -3103,7 +6403,7 @@
       <c r="D10" t="s">
         <v>208</v>
       </c>
-      <c r="E10" t="s" s="137">
+      <c r="E10" t="s" s="437">
         <v>207</v>
       </c>
     </row>
@@ -3120,7 +6420,7 @@
       <c r="D11" t="s">
         <v>209</v>
       </c>
-      <c r="E11" t="s" s="138">
+      <c r="E11" t="s" s="438">
         <v>207</v>
       </c>
     </row>
@@ -3137,7 +6437,7 @@
       <c r="D12" t="s">
         <v>210</v>
       </c>
-      <c r="E12" t="s" s="139">
+      <c r="E12" t="s" s="439">
         <v>134</v>
       </c>
     </row>
@@ -3154,7 +6454,7 @@
       <c r="D13" t="s">
         <v>211</v>
       </c>
-      <c r="E13" t="s" s="140">
+      <c r="E13" t="s" s="440">
         <v>134</v>
       </c>
     </row>
@@ -3169,7 +6469,7 @@
       <c r="D14" t="s">
         <v>6</v>
       </c>
-      <c r="E14" t="s" s="141">
+      <c r="E14" t="s" s="441">
         <v>134</v>
       </c>
     </row>
@@ -3186,7 +6486,7 @@
       <c r="D15" t="s">
         <v>6</v>
       </c>
-      <c r="E15" t="s" s="142">
+      <c r="E15" t="s" s="442">
         <v>134</v>
       </c>
     </row>
@@ -3201,7 +6501,7 @@
       <c r="D16" t="s">
         <v>6</v>
       </c>
-      <c r="E16" t="s" s="143">
+      <c r="E16" t="s" s="443">
         <v>123</v>
       </c>
     </row>
@@ -3218,7 +6518,7 @@
       <c r="D17" t="s">
         <v>6</v>
       </c>
-      <c r="E17" t="s" s="144">
+      <c r="E17" t="s" s="444">
         <v>134</v>
       </c>
     </row>
@@ -3235,7 +6535,7 @@
       <c r="D18" t="s">
         <v>6</v>
       </c>
-      <c r="E18" t="s" s="145">
+      <c r="E18" t="s" s="445">
         <v>134</v>
       </c>
     </row>
@@ -3249,7 +6549,7 @@
       <c r="D19" t="s">
         <v>6</v>
       </c>
-      <c r="E19" t="s" s="146">
+      <c r="E19" t="s" s="446">
         <v>134</v>
       </c>
     </row>
@@ -3266,7 +6566,7 @@
       <c r="D20" t="s">
         <v>6</v>
       </c>
-      <c r="E20" t="s" s="147">
+      <c r="E20" t="s" s="447">
         <v>134</v>
       </c>
     </row>
@@ -3283,7 +6583,7 @@
       <c r="D21" t="s">
         <v>6</v>
       </c>
-      <c r="E21" t="s" s="148">
+      <c r="E21" t="s" s="448">
         <v>134</v>
       </c>
     </row>
@@ -3300,7 +6600,7 @@
       <c r="D22" t="s">
         <v>6</v>
       </c>
-      <c r="E22" t="s" s="149">
+      <c r="E22" t="s" s="449">
         <v>134</v>
       </c>
     </row>
@@ -3317,7 +6617,7 @@
       <c r="D23" t="s">
         <v>6</v>
       </c>
-      <c r="E23" t="s" s="150">
+      <c r="E23" t="s" s="450">
         <v>134</v>
       </c>
     </row>
@@ -3334,7 +6634,7 @@
       <c r="D24" t="s">
         <v>6</v>
       </c>
-      <c r="E24" t="s" s="151">
+      <c r="E24" t="s" s="451">
         <v>134</v>
       </c>
     </row>
@@ -3351,7 +6651,7 @@
       <c r="D25" t="s">
         <v>6</v>
       </c>
-      <c r="E25" t="s" s="152">
+      <c r="E25" t="s" s="452">
         <v>134</v>
       </c>
     </row>
@@ -3368,7 +6668,7 @@
       <c r="D26" t="s">
         <v>6</v>
       </c>
-      <c r="E26" t="s" s="153">
+      <c r="E26" t="s" s="453">
         <v>134</v>
       </c>
     </row>
@@ -3385,7 +6685,7 @@
       <c r="D27" t="s">
         <v>6</v>
       </c>
-      <c r="E27" t="s" s="154">
+      <c r="E27" t="s" s="454">
         <v>134</v>
       </c>
     </row>
@@ -3400,7 +6700,7 @@
       <c r="D28" t="s">
         <v>6</v>
       </c>
-      <c r="E28" t="s" s="155">
+      <c r="E28" t="s" s="455">
         <v>126</v>
       </c>
     </row>
@@ -3417,7 +6717,7 @@
       <c r="D29" t="s">
         <v>133</v>
       </c>
-      <c r="E29" t="s" s="156">
+      <c r="E29" t="s" s="456">
         <v>134</v>
       </c>
     </row>
@@ -3434,7 +6734,7 @@
       <c r="D30" t="s">
         <v>6</v>
       </c>
-      <c r="E30" t="s" s="157">
+      <c r="E30" t="s" s="457">
         <v>134</v>
       </c>
     </row>
@@ -3451,7 +6751,7 @@
       <c r="D31" t="s">
         <v>6</v>
       </c>
-      <c r="E31" t="s" s="158">
+      <c r="E31" t="s" s="458">
         <v>134</v>
       </c>
     </row>
@@ -3468,7 +6768,7 @@
       <c r="D32" t="s">
         <v>6</v>
       </c>
-      <c r="E32" t="s" s="159">
+      <c r="E32" t="s" s="459">
         <v>134</v>
       </c>
     </row>
@@ -3485,7 +6785,7 @@
       <c r="D33" t="s">
         <v>6</v>
       </c>
-      <c r="E33" t="s" s="160">
+      <c r="E33" t="s" s="460">
         <v>134</v>
       </c>
     </row>
@@ -3502,7 +6802,7 @@
       <c r="D34" t="s">
         <v>6</v>
       </c>
-      <c r="E34" t="s" s="161">
+      <c r="E34" t="s" s="461">
         <v>134</v>
       </c>
     </row>
@@ -3519,7 +6819,7 @@
       <c r="D35" t="s">
         <v>6</v>
       </c>
-      <c r="E35" t="s" s="162">
+      <c r="E35" t="s" s="462">
         <v>134</v>
       </c>
     </row>
@@ -3536,7 +6836,7 @@
       <c r="D36" t="s">
         <v>6</v>
       </c>
-      <c r="E36" t="s" s="163">
+      <c r="E36" t="s" s="463">
         <v>134</v>
       </c>
     </row>
@@ -3553,7 +6853,7 @@
       <c r="D37" t="s">
         <v>6</v>
       </c>
-      <c r="E37" t="s" s="164">
+      <c r="E37" t="s" s="464">
         <v>134</v>
       </c>
     </row>
@@ -3570,7 +6870,7 @@
       <c r="D38" t="s">
         <v>6</v>
       </c>
-      <c r="E38" t="s" s="165">
+      <c r="E38" t="s" s="465">
         <v>134</v>
       </c>
     </row>
@@ -3587,7 +6887,7 @@
       <c r="D39" t="s">
         <v>6</v>
       </c>
-      <c r="E39" t="s" s="166">
+      <c r="E39" t="s" s="466">
         <v>134</v>
       </c>
     </row>
@@ -3601,7 +6901,7 @@
       <c r="D40" t="s">
         <v>6</v>
       </c>
-      <c r="E40" t="s" s="167">
+      <c r="E40" t="s" s="467">
         <v>134</v>
       </c>
     </row>
@@ -3618,7 +6918,7 @@
       <c r="D41" t="s">
         <v>6</v>
       </c>
-      <c r="E41" t="s" s="168">
+      <c r="E41" t="s" s="468">
         <v>134</v>
       </c>
     </row>
@@ -3635,7 +6935,7 @@
       <c r="D42" t="s">
         <v>6</v>
       </c>
-      <c r="E42" t="s" s="169">
+      <c r="E42" t="s" s="469">
         <v>134</v>
       </c>
     </row>
@@ -3652,7 +6952,7 @@
       <c r="D43" t="s">
         <v>6</v>
       </c>
-      <c r="E43" t="s" s="170">
+      <c r="E43" t="s" s="470">
         <v>134</v>
       </c>
     </row>
@@ -3669,7 +6969,7 @@
       <c r="D44" t="s">
         <v>6</v>
       </c>
-      <c r="E44" t="s" s="171">
+      <c r="E44" t="s" s="471">
         <v>134</v>
       </c>
     </row>
@@ -3684,7 +6984,7 @@
       <c r="D45" t="s">
         <v>6</v>
       </c>
-      <c r="E45" t="s" s="172">
+      <c r="E45" t="s" s="472">
         <v>134</v>
       </c>
     </row>
@@ -3698,7 +6998,7 @@
       <c r="D46" t="s">
         <v>6</v>
       </c>
-      <c r="E46" t="s" s="173">
+      <c r="E46" t="s" s="473">
         <v>126</v>
       </c>
     </row>
@@ -3715,7 +7015,7 @@
       <c r="D47" t="s">
         <v>131</v>
       </c>
-      <c r="E47" t="s" s="174">
+      <c r="E47" t="s" s="474">
         <v>134</v>
       </c>
     </row>
@@ -3729,7 +7029,7 @@
       <c r="D48" t="s">
         <v>6</v>
       </c>
-      <c r="E48" t="s" s="175">
+      <c r="E48" t="s" s="475">
         <v>134</v>
       </c>
     </row>
@@ -3746,7 +7046,7 @@
       <c r="D49" t="s">
         <v>6</v>
       </c>
-      <c r="E49" t="s" s="176">
+      <c r="E49" t="s" s="476">
         <v>134</v>
       </c>
     </row>
@@ -3763,7 +7063,7 @@
       <c r="D50" t="s">
         <v>6</v>
       </c>
-      <c r="E50" t="s" s="177">
+      <c r="E50" t="s" s="477">
         <v>134</v>
       </c>
     </row>
@@ -3780,7 +7080,7 @@
       <c r="D51" t="s">
         <v>6</v>
       </c>
-      <c r="E51" t="s" s="178">
+      <c r="E51" t="s" s="478">
         <v>134</v>
       </c>
     </row>
@@ -3797,7 +7097,7 @@
       <c r="D52" t="s">
         <v>6</v>
       </c>
-      <c r="E52" t="s" s="179">
+      <c r="E52" t="s" s="479">
         <v>134</v>
       </c>
     </row>
@@ -3814,7 +7114,7 @@
       <c r="D53" t="s">
         <v>6</v>
       </c>
-      <c r="E53" t="s" s="180">
+      <c r="E53" t="s" s="480">
         <v>134</v>
       </c>
     </row>
@@ -3828,7 +7128,7 @@
       <c r="D54" t="s">
         <v>6</v>
       </c>
-      <c r="E54" t="s" s="181">
+      <c r="E54" t="s" s="481">
         <v>134</v>
       </c>
     </row>
@@ -3845,7 +7145,7 @@
       <c r="D55" t="s">
         <v>6</v>
       </c>
-      <c r="E55" t="s" s="182">
+      <c r="E55" t="s" s="482">
         <v>134</v>
       </c>
     </row>
@@ -3862,7 +7162,7 @@
       <c r="D56" t="s">
         <v>6</v>
       </c>
-      <c r="E56" t="s" s="183">
+      <c r="E56" t="s" s="483">
         <v>134</v>
       </c>
     </row>
@@ -3879,7 +7179,7 @@
       <c r="D57" t="s">
         <v>6</v>
       </c>
-      <c r="E57" t="s" s="184">
+      <c r="E57" t="s" s="484">
         <v>134</v>
       </c>
     </row>
@@ -3896,7 +7196,7 @@
       <c r="D58" t="s">
         <v>6</v>
       </c>
-      <c r="E58" t="s" s="185">
+      <c r="E58" t="s" s="485">
         <v>134</v>
       </c>
     </row>
@@ -3913,7 +7213,7 @@
       <c r="D59" t="s">
         <v>6</v>
       </c>
-      <c r="E59" t="s" s="186">
+      <c r="E59" t="s" s="486">
         <v>134</v>
       </c>
     </row>
@@ -3930,7 +7230,7 @@
       <c r="D60" t="s">
         <v>178</v>
       </c>
-      <c r="E60" t="s" s="187">
+      <c r="E60" t="s" s="487">
         <v>134</v>
       </c>
     </row>
@@ -3947,7 +7247,7 @@
       <c r="D61" t="s">
         <v>6</v>
       </c>
-      <c r="E61" t="s" s="188">
+      <c r="E61" t="s" s="488">
         <v>134</v>
       </c>
     </row>
@@ -3964,7 +7264,7 @@
       <c r="D62" t="s">
         <v>6</v>
       </c>
-      <c r="E62" t="s" s="189">
+      <c r="E62" t="s" s="489">
         <v>134</v>
       </c>
     </row>
@@ -3981,7 +7281,7 @@
       <c r="D63" t="s">
         <v>6</v>
       </c>
-      <c r="E63" t="s" s="190">
+      <c r="E63" t="s" s="490">
         <v>134</v>
       </c>
     </row>
@@ -3998,7 +7298,7 @@
       <c r="D64" t="s">
         <v>6</v>
       </c>
-      <c r="E64" t="s" s="191">
+      <c r="E64" t="s" s="491">
         <v>134</v>
       </c>
     </row>
@@ -4015,7 +7315,7 @@
       <c r="D65" t="s">
         <v>6</v>
       </c>
-      <c r="E65" t="s" s="192">
+      <c r="E65" t="s" s="492">
         <v>134</v>
       </c>
     </row>
@@ -4032,7 +7332,7 @@
       <c r="D66" t="s">
         <v>6</v>
       </c>
-      <c r="E66" t="s" s="193">
+      <c r="E66" t="s" s="493">
         <v>134</v>
       </c>
     </row>
@@ -4049,7 +7349,7 @@
       <c r="D67" t="s">
         <v>6</v>
       </c>
-      <c r="E67" t="s" s="194">
+      <c r="E67" t="s" s="494">
         <v>134</v>
       </c>
     </row>
@@ -4063,7 +7363,7 @@
       <c r="D68" t="s">
         <v>6</v>
       </c>
-      <c r="E68" t="s" s="195">
+      <c r="E68" t="s" s="495">
         <v>134</v>
       </c>
     </row>
@@ -4080,7 +7380,7 @@
       <c r="D69" t="s">
         <v>6</v>
       </c>
-      <c r="E69" t="s" s="196">
+      <c r="E69" t="s" s="496">
         <v>134</v>
       </c>
     </row>
@@ -4097,7 +7397,7 @@
       <c r="D70" t="s">
         <v>212</v>
       </c>
-      <c r="E70" t="s" s="197">
+      <c r="E70" t="s" s="497">
         <v>207</v>
       </c>
     </row>
@@ -4114,7 +7414,7 @@
       <c r="D71" t="s">
         <v>213</v>
       </c>
-      <c r="E71" t="s" s="198">
+      <c r="E71" t="s" s="498">
         <v>207</v>
       </c>
     </row>
@@ -4131,7 +7431,7 @@
       <c r="D72" t="s">
         <v>214</v>
       </c>
-      <c r="E72" t="s" s="199">
+      <c r="E72" t="s" s="499">
         <v>207</v>
       </c>
     </row>
@@ -4148,7 +7448,7 @@
       <c r="D73" t="s">
         <v>215</v>
       </c>
-      <c r="E73" t="s" s="200">
+      <c r="E73" t="s" s="500">
         <v>207</v>
       </c>
     </row>
@@ -4165,7 +7465,7 @@
       <c r="D74" t="s">
         <v>215</v>
       </c>
-      <c r="E74" t="s" s="201">
+      <c r="E74" t="s" s="501">
         <v>207</v>
       </c>
     </row>
@@ -4180,7 +7480,7 @@
       <c r="D75" t="s">
         <v>6</v>
       </c>
-      <c r="E75" t="s" s="202">
+      <c r="E75" t="s" s="502">
         <v>134</v>
       </c>
     </row>
@@ -4191,7 +7491,7 @@
       <c r="D76" t="s">
         <v>6</v>
       </c>
-      <c r="E76" t="s" s="203">
+      <c r="E76" t="s" s="503">
         <v>70</v>
       </c>
     </row>

--- a/TestCasesinExcell/Myhero/Myherotestdata1.xlsx
+++ b/TestCasesinExcell/Myhero/Myherotestdata1.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3129" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3517" uniqueCount="216">
   <si>
     <t>Description</t>
   </si>
@@ -781,7 +781,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="922">
+  <fills count="1072">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1626,6 +1626,756 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
       </patternFill>
     </fill>
     <fill>
@@ -5405,7 +6155,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="504">
+  <cellXfs count="579">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -5938,6 +6688,81 @@
     <xf numFmtId="0" fontId="0" fillId="917" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="919" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="921" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="923" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="925" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="927" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="929" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="931" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="933" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="935" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="937" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="939" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="941" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="943" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="945" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="947" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="949" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="951" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="953" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="955" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="957" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="959" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="961" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="963" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="965" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="967" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="969" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="971" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="973" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="975" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="977" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="979" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="981" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="983" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="985" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="987" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="989" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="991" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="993" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="995" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="997" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="999" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1001" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1003" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1005" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1007" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1009" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1011" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1013" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1015" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1017" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1019" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1021" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1023" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1025" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1027" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1029" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1031" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1033" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1035" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1037" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1039" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1041" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1043" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1045" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1047" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1049" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1051" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1053" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1055" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1057" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1059" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1061" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1063" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1065" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1067" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1069" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1071" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -6273,7 +7098,7 @@
       <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" t="s" s="429">
+      <c r="E2" t="s" s="504">
         <v>5</v>
       </c>
     </row>
@@ -6288,7 +7113,7 @@
       <c r="D3" t="s">
         <v>6</v>
       </c>
-      <c r="E3" t="s" s="430">
+      <c r="E3" t="s" s="505">
         <v>134</v>
       </c>
     </row>
@@ -6303,7 +7128,7 @@
       <c r="D4" t="s">
         <v>6</v>
       </c>
-      <c r="E4" t="s" s="431">
+      <c r="E4" t="s" s="506">
         <v>9</v>
       </c>
     </row>
@@ -6320,7 +7145,7 @@
       <c r="D5" t="s">
         <v>6</v>
       </c>
-      <c r="E5" t="s" s="432">
+      <c r="E5" t="s" s="507">
         <v>134</v>
       </c>
     </row>
@@ -6337,7 +7162,7 @@
       <c r="D6" t="s">
         <v>6</v>
       </c>
-      <c r="E6" t="s" s="433">
+      <c r="E6" t="s" s="508">
         <v>134</v>
       </c>
     </row>
@@ -6352,7 +7177,7 @@
       <c r="D7" t="s">
         <v>6</v>
       </c>
-      <c r="E7" t="s" s="434">
+      <c r="E7" t="s" s="509">
         <v>134</v>
       </c>
     </row>
@@ -6369,7 +7194,7 @@
       <c r="D8" t="s">
         <v>6</v>
       </c>
-      <c r="E8" t="s" s="435">
+      <c r="E8" t="s" s="510">
         <v>134</v>
       </c>
     </row>
@@ -6386,7 +7211,7 @@
       <c r="D9" t="s">
         <v>132</v>
       </c>
-      <c r="E9" t="s" s="436">
+      <c r="E9" t="s" s="511">
         <v>134</v>
       </c>
     </row>
@@ -6403,7 +7228,7 @@
       <c r="D10" t="s">
         <v>208</v>
       </c>
-      <c r="E10" t="s" s="437">
+      <c r="E10" t="s" s="512">
         <v>207</v>
       </c>
     </row>
@@ -6420,7 +7245,7 @@
       <c r="D11" t="s">
         <v>209</v>
       </c>
-      <c r="E11" t="s" s="438">
+      <c r="E11" t="s" s="513">
         <v>207</v>
       </c>
     </row>
@@ -6437,7 +7262,7 @@
       <c r="D12" t="s">
         <v>210</v>
       </c>
-      <c r="E12" t="s" s="439">
+      <c r="E12" t="s" s="514">
         <v>134</v>
       </c>
     </row>
@@ -6454,7 +7279,7 @@
       <c r="D13" t="s">
         <v>211</v>
       </c>
-      <c r="E13" t="s" s="440">
+      <c r="E13" t="s" s="515">
         <v>134</v>
       </c>
     </row>
@@ -6469,7 +7294,7 @@
       <c r="D14" t="s">
         <v>6</v>
       </c>
-      <c r="E14" t="s" s="441">
+      <c r="E14" t="s" s="516">
         <v>134</v>
       </c>
     </row>
@@ -6486,7 +7311,7 @@
       <c r="D15" t="s">
         <v>6</v>
       </c>
-      <c r="E15" t="s" s="442">
+      <c r="E15" t="s" s="517">
         <v>134</v>
       </c>
     </row>
@@ -6501,7 +7326,7 @@
       <c r="D16" t="s">
         <v>6</v>
       </c>
-      <c r="E16" t="s" s="443">
+      <c r="E16" t="s" s="518">
         <v>123</v>
       </c>
     </row>
@@ -6518,7 +7343,7 @@
       <c r="D17" t="s">
         <v>6</v>
       </c>
-      <c r="E17" t="s" s="444">
+      <c r="E17" t="s" s="519">
         <v>134</v>
       </c>
     </row>
@@ -6535,7 +7360,7 @@
       <c r="D18" t="s">
         <v>6</v>
       </c>
-      <c r="E18" t="s" s="445">
+      <c r="E18" t="s" s="520">
         <v>134</v>
       </c>
     </row>
@@ -6549,7 +7374,7 @@
       <c r="D19" t="s">
         <v>6</v>
       </c>
-      <c r="E19" t="s" s="446">
+      <c r="E19" t="s" s="521">
         <v>134</v>
       </c>
     </row>
@@ -6566,7 +7391,7 @@
       <c r="D20" t="s">
         <v>6</v>
       </c>
-      <c r="E20" t="s" s="447">
+      <c r="E20" t="s" s="522">
         <v>134</v>
       </c>
     </row>
@@ -6583,7 +7408,7 @@
       <c r="D21" t="s">
         <v>6</v>
       </c>
-      <c r="E21" t="s" s="448">
+      <c r="E21" t="s" s="523">
         <v>134</v>
       </c>
     </row>
@@ -6600,7 +7425,7 @@
       <c r="D22" t="s">
         <v>6</v>
       </c>
-      <c r="E22" t="s" s="449">
+      <c r="E22" t="s" s="524">
         <v>134</v>
       </c>
     </row>
@@ -6617,7 +7442,7 @@
       <c r="D23" t="s">
         <v>6</v>
       </c>
-      <c r="E23" t="s" s="450">
+      <c r="E23" t="s" s="525">
         <v>134</v>
       </c>
     </row>
@@ -6634,7 +7459,7 @@
       <c r="D24" t="s">
         <v>6</v>
       </c>
-      <c r="E24" t="s" s="451">
+      <c r="E24" t="s" s="526">
         <v>134</v>
       </c>
     </row>
@@ -6651,7 +7476,7 @@
       <c r="D25" t="s">
         <v>6</v>
       </c>
-      <c r="E25" t="s" s="452">
+      <c r="E25" t="s" s="527">
         <v>134</v>
       </c>
     </row>
@@ -6668,7 +7493,7 @@
       <c r="D26" t="s">
         <v>6</v>
       </c>
-      <c r="E26" t="s" s="453">
+      <c r="E26" t="s" s="528">
         <v>134</v>
       </c>
     </row>
@@ -6685,7 +7510,7 @@
       <c r="D27" t="s">
         <v>6</v>
       </c>
-      <c r="E27" t="s" s="454">
+      <c r="E27" t="s" s="529">
         <v>134</v>
       </c>
     </row>
@@ -6700,7 +7525,7 @@
       <c r="D28" t="s">
         <v>6</v>
       </c>
-      <c r="E28" t="s" s="455">
+      <c r="E28" t="s" s="530">
         <v>126</v>
       </c>
     </row>
@@ -6717,7 +7542,7 @@
       <c r="D29" t="s">
         <v>133</v>
       </c>
-      <c r="E29" t="s" s="456">
+      <c r="E29" t="s" s="531">
         <v>134</v>
       </c>
     </row>
@@ -6734,7 +7559,7 @@
       <c r="D30" t="s">
         <v>6</v>
       </c>
-      <c r="E30" t="s" s="457">
+      <c r="E30" t="s" s="532">
         <v>134</v>
       </c>
     </row>
@@ -6751,7 +7576,7 @@
       <c r="D31" t="s">
         <v>6</v>
       </c>
-      <c r="E31" t="s" s="458">
+      <c r="E31" t="s" s="533">
         <v>134</v>
       </c>
     </row>
@@ -6768,7 +7593,7 @@
       <c r="D32" t="s">
         <v>6</v>
       </c>
-      <c r="E32" t="s" s="459">
+      <c r="E32" t="s" s="534">
         <v>134</v>
       </c>
     </row>
@@ -6785,7 +7610,7 @@
       <c r="D33" t="s">
         <v>6</v>
       </c>
-      <c r="E33" t="s" s="460">
+      <c r="E33" t="s" s="535">
         <v>134</v>
       </c>
     </row>
@@ -6802,7 +7627,7 @@
       <c r="D34" t="s">
         <v>6</v>
       </c>
-      <c r="E34" t="s" s="461">
+      <c r="E34" t="s" s="536">
         <v>134</v>
       </c>
     </row>
@@ -6819,7 +7644,7 @@
       <c r="D35" t="s">
         <v>6</v>
       </c>
-      <c r="E35" t="s" s="462">
+      <c r="E35" t="s" s="537">
         <v>134</v>
       </c>
     </row>
@@ -6836,7 +7661,7 @@
       <c r="D36" t="s">
         <v>6</v>
       </c>
-      <c r="E36" t="s" s="463">
+      <c r="E36" t="s" s="538">
         <v>134</v>
       </c>
     </row>
@@ -6853,7 +7678,7 @@
       <c r="D37" t="s">
         <v>6</v>
       </c>
-      <c r="E37" t="s" s="464">
+      <c r="E37" t="s" s="539">
         <v>134</v>
       </c>
     </row>
@@ -6870,7 +7695,7 @@
       <c r="D38" t="s">
         <v>6</v>
       </c>
-      <c r="E38" t="s" s="465">
+      <c r="E38" t="s" s="540">
         <v>134</v>
       </c>
     </row>
@@ -6887,7 +7712,7 @@
       <c r="D39" t="s">
         <v>6</v>
       </c>
-      <c r="E39" t="s" s="466">
+      <c r="E39" t="s" s="541">
         <v>134</v>
       </c>
     </row>
@@ -6901,7 +7726,7 @@
       <c r="D40" t="s">
         <v>6</v>
       </c>
-      <c r="E40" t="s" s="467">
+      <c r="E40" t="s" s="542">
         <v>134</v>
       </c>
     </row>
@@ -6918,7 +7743,7 @@
       <c r="D41" t="s">
         <v>6</v>
       </c>
-      <c r="E41" t="s" s="468">
+      <c r="E41" t="s" s="543">
         <v>134</v>
       </c>
     </row>
@@ -6935,7 +7760,7 @@
       <c r="D42" t="s">
         <v>6</v>
       </c>
-      <c r="E42" t="s" s="469">
+      <c r="E42" t="s" s="544">
         <v>134</v>
       </c>
     </row>
@@ -6952,7 +7777,7 @@
       <c r="D43" t="s">
         <v>6</v>
       </c>
-      <c r="E43" t="s" s="470">
+      <c r="E43" t="s" s="545">
         <v>134</v>
       </c>
     </row>
@@ -6969,7 +7794,7 @@
       <c r="D44" t="s">
         <v>6</v>
       </c>
-      <c r="E44" t="s" s="471">
+      <c r="E44" t="s" s="546">
         <v>134</v>
       </c>
     </row>
@@ -6984,7 +7809,7 @@
       <c r="D45" t="s">
         <v>6</v>
       </c>
-      <c r="E45" t="s" s="472">
+      <c r="E45" t="s" s="547">
         <v>134</v>
       </c>
     </row>
@@ -6998,7 +7823,7 @@
       <c r="D46" t="s">
         <v>6</v>
       </c>
-      <c r="E46" t="s" s="473">
+      <c r="E46" t="s" s="548">
         <v>126</v>
       </c>
     </row>
@@ -7015,7 +7840,7 @@
       <c r="D47" t="s">
         <v>131</v>
       </c>
-      <c r="E47" t="s" s="474">
+      <c r="E47" t="s" s="549">
         <v>134</v>
       </c>
     </row>
@@ -7029,7 +7854,7 @@
       <c r="D48" t="s">
         <v>6</v>
       </c>
-      <c r="E48" t="s" s="475">
+      <c r="E48" t="s" s="550">
         <v>134</v>
       </c>
     </row>
@@ -7046,7 +7871,7 @@
       <c r="D49" t="s">
         <v>6</v>
       </c>
-      <c r="E49" t="s" s="476">
+      <c r="E49" t="s" s="551">
         <v>134</v>
       </c>
     </row>
@@ -7063,7 +7888,7 @@
       <c r="D50" t="s">
         <v>6</v>
       </c>
-      <c r="E50" t="s" s="477">
+      <c r="E50" t="s" s="552">
         <v>134</v>
       </c>
     </row>
@@ -7080,7 +7905,7 @@
       <c r="D51" t="s">
         <v>6</v>
       </c>
-      <c r="E51" t="s" s="478">
+      <c r="E51" t="s" s="553">
         <v>134</v>
       </c>
     </row>
@@ -7097,7 +7922,7 @@
       <c r="D52" t="s">
         <v>6</v>
       </c>
-      <c r="E52" t="s" s="479">
+      <c r="E52" t="s" s="554">
         <v>134</v>
       </c>
     </row>
@@ -7114,7 +7939,7 @@
       <c r="D53" t="s">
         <v>6</v>
       </c>
-      <c r="E53" t="s" s="480">
+      <c r="E53" t="s" s="555">
         <v>134</v>
       </c>
     </row>
@@ -7128,7 +7953,7 @@
       <c r="D54" t="s">
         <v>6</v>
       </c>
-      <c r="E54" t="s" s="481">
+      <c r="E54" t="s" s="556">
         <v>134</v>
       </c>
     </row>
@@ -7145,7 +7970,7 @@
       <c r="D55" t="s">
         <v>6</v>
       </c>
-      <c r="E55" t="s" s="482">
+      <c r="E55" t="s" s="557">
         <v>134</v>
       </c>
     </row>
@@ -7162,7 +7987,7 @@
       <c r="D56" t="s">
         <v>6</v>
       </c>
-      <c r="E56" t="s" s="483">
+      <c r="E56" t="s" s="558">
         <v>134</v>
       </c>
     </row>
@@ -7179,7 +8004,7 @@
       <c r="D57" t="s">
         <v>6</v>
       </c>
-      <c r="E57" t="s" s="484">
+      <c r="E57" t="s" s="559">
         <v>134</v>
       </c>
     </row>
@@ -7196,7 +8021,7 @@
       <c r="D58" t="s">
         <v>6</v>
       </c>
-      <c r="E58" t="s" s="485">
+      <c r="E58" t="s" s="560">
         <v>134</v>
       </c>
     </row>
@@ -7213,7 +8038,7 @@
       <c r="D59" t="s">
         <v>6</v>
       </c>
-      <c r="E59" t="s" s="486">
+      <c r="E59" t="s" s="561">
         <v>134</v>
       </c>
     </row>
@@ -7230,7 +8055,7 @@
       <c r="D60" t="s">
         <v>178</v>
       </c>
-      <c r="E60" t="s" s="487">
+      <c r="E60" t="s" s="562">
         <v>134</v>
       </c>
     </row>
@@ -7247,7 +8072,7 @@
       <c r="D61" t="s">
         <v>6</v>
       </c>
-      <c r="E61" t="s" s="488">
+      <c r="E61" t="s" s="563">
         <v>134</v>
       </c>
     </row>
@@ -7264,7 +8089,7 @@
       <c r="D62" t="s">
         <v>6</v>
       </c>
-      <c r="E62" t="s" s="489">
+      <c r="E62" t="s" s="564">
         <v>134</v>
       </c>
     </row>
@@ -7281,7 +8106,7 @@
       <c r="D63" t="s">
         <v>6</v>
       </c>
-      <c r="E63" t="s" s="490">
+      <c r="E63" t="s" s="565">
         <v>134</v>
       </c>
     </row>
@@ -7298,7 +8123,7 @@
       <c r="D64" t="s">
         <v>6</v>
       </c>
-      <c r="E64" t="s" s="491">
+      <c r="E64" t="s" s="566">
         <v>134</v>
       </c>
     </row>
@@ -7315,7 +8140,7 @@
       <c r="D65" t="s">
         <v>6</v>
       </c>
-      <c r="E65" t="s" s="492">
+      <c r="E65" t="s" s="567">
         <v>134</v>
       </c>
     </row>
@@ -7332,7 +8157,7 @@
       <c r="D66" t="s">
         <v>6</v>
       </c>
-      <c r="E66" t="s" s="493">
+      <c r="E66" t="s" s="568">
         <v>134</v>
       </c>
     </row>
@@ -7349,7 +8174,7 @@
       <c r="D67" t="s">
         <v>6</v>
       </c>
-      <c r="E67" t="s" s="494">
+      <c r="E67" t="s" s="569">
         <v>134</v>
       </c>
     </row>
@@ -7363,7 +8188,7 @@
       <c r="D68" t="s">
         <v>6</v>
       </c>
-      <c r="E68" t="s" s="495">
+      <c r="E68" t="s" s="570">
         <v>134</v>
       </c>
     </row>
@@ -7380,7 +8205,7 @@
       <c r="D69" t="s">
         <v>6</v>
       </c>
-      <c r="E69" t="s" s="496">
+      <c r="E69" t="s" s="571">
         <v>134</v>
       </c>
     </row>
@@ -7397,7 +8222,7 @@
       <c r="D70" t="s">
         <v>212</v>
       </c>
-      <c r="E70" t="s" s="497">
+      <c r="E70" t="s" s="572">
         <v>207</v>
       </c>
     </row>
@@ -7414,7 +8239,7 @@
       <c r="D71" t="s">
         <v>213</v>
       </c>
-      <c r="E71" t="s" s="498">
+      <c r="E71" t="s" s="573">
         <v>207</v>
       </c>
     </row>
@@ -7431,7 +8256,7 @@
       <c r="D72" t="s">
         <v>214</v>
       </c>
-      <c r="E72" t="s" s="499">
+      <c r="E72" t="s" s="574">
         <v>207</v>
       </c>
     </row>
@@ -7448,7 +8273,7 @@
       <c r="D73" t="s">
         <v>215</v>
       </c>
-      <c r="E73" t="s" s="500">
+      <c r="E73" t="s" s="575">
         <v>207</v>
       </c>
     </row>
@@ -7465,7 +8290,7 @@
       <c r="D74" t="s">
         <v>215</v>
       </c>
-      <c r="E74" t="s" s="501">
+      <c r="E74" t="s" s="576">
         <v>207</v>
       </c>
     </row>
@@ -7480,7 +8305,7 @@
       <c r="D75" t="s">
         <v>6</v>
       </c>
-      <c r="E75" t="s" s="502">
+      <c r="E75" t="s" s="577">
         <v>134</v>
       </c>
     </row>
@@ -7491,7 +8316,7 @@
       <c r="D76" t="s">
         <v>6</v>
       </c>
-      <c r="E76" t="s" s="503">
+      <c r="E76" t="s" s="578">
         <v>70</v>
       </c>
     </row>

--- a/TestCasesinExcell/Myhero/Myherotestdata1.xlsx
+++ b/TestCasesinExcell/Myhero/Myherotestdata1.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3517" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4111" uniqueCount="216">
   <si>
     <t>Description</t>
   </si>
@@ -781,7 +781,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="1072">
+  <fills count="1204">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6126,6 +6126,666 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
       </patternFill>
     </fill>
     <fill>
@@ -6155,7 +6815,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="579">
+  <cellXfs count="645">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -6763,6 +7423,72 @@
     <xf numFmtId="0" fontId="0" fillId="1067" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="1069" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="1071" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1073" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1075" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1077" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1079" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1081" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1083" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1085" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1087" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1089" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1091" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1093" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1095" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1097" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1099" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1101" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1103" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1105" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1107" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1109" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1111" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1113" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1115" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1117" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1119" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1121" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1123" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1125" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1127" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1129" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1131" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1133" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1135" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1137" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1139" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1141" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1143" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1145" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1147" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1149" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1151" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1153" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1155" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1157" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1159" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1161" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1163" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1165" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1167" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1169" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1171" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1173" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1175" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1177" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1179" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1181" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1183" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1185" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1187" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1189" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1191" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1193" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1195" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1197" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1199" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1201" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="1203" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -8377,7 +9103,7 @@
       <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="51" t="s">
+      <c r="E2" t="s" s="643">
         <v>145</v>
       </c>
     </row>
@@ -8392,7 +9118,7 @@
       <c r="D3" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="52" t="s">
+      <c r="E3" t="s" s="644">
         <v>146</v>
       </c>
     </row>
